--- a/Оборудование на расчет СГП УТНГП.xlsx
+++ b/Оборудование на расчет СГП УТНГП.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\python\enpz\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B82E3D6-93A9-4490-84A4-45EC703008E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B48A3456-CE59-458C-920D-68384AFD0318}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" firstSheet="1" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5715" uniqueCount="518">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5711" uniqueCount="518">
   <si>
     <t>Колонна Т-101</t>
   </si>
@@ -10481,36 +10481,36 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:AV276"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AI261" sqref="AI261:AI266"/>
+      <selection pane="bottomLeft" activeCell="H30" sqref="H30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="12" style="33" customWidth="1"/>
     <col min="2" max="2" width="39.21875" style="33" customWidth="1"/>
-    <col min="3" max="3" width="34.6640625" style="34" customWidth="1"/>
-    <col min="4" max="4" width="33.88671875" style="34" customWidth="1"/>
-    <col min="5" max="5" width="16.5546875" style="33" customWidth="1"/>
-    <col min="6" max="6" width="16.33203125" style="33" customWidth="1"/>
-    <col min="7" max="7" width="11.5546875" style="33" customWidth="1"/>
+    <col min="3" max="3" width="34.6640625" style="34" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="33.88671875" style="34" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="16.5546875" style="33" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="16.33203125" style="33" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="11.5546875" style="33" hidden="1" customWidth="1"/>
     <col min="8" max="8" width="16.5546875" style="33" customWidth="1"/>
-    <col min="9" max="9" width="14.6640625" style="33" customWidth="1"/>
-    <col min="10" max="10" width="20.6640625" style="33" customWidth="1"/>
-    <col min="11" max="11" width="8.88671875" customWidth="1"/>
-    <col min="12" max="12" width="13.33203125" customWidth="1"/>
-    <col min="13" max="13" width="35.5546875" customWidth="1"/>
+    <col min="9" max="9" width="14.6640625" style="33" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="20.6640625" style="33" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="8.88671875" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="13.33203125" hidden="1" customWidth="1"/>
+    <col min="13" max="13" width="35.5546875" hidden="1" customWidth="1"/>
     <col min="14" max="14" width="31" hidden="1" customWidth="1"/>
     <col min="15" max="32" width="8.88671875" hidden="1" customWidth="1"/>
     <col min="33" max="34" width="8.88671875" customWidth="1"/>
-    <col min="35" max="35" width="17" customWidth="1"/>
-    <col min="36" max="36" width="17.88671875" customWidth="1"/>
-    <col min="37" max="37" width="13.33203125" customWidth="1"/>
-    <col min="38" max="40" width="8.88671875" customWidth="1"/>
-    <col min="41" max="41" width="12.33203125" customWidth="1"/>
-    <col min="42" max="42" width="11.88671875" customWidth="1"/>
-    <col min="43" max="43" width="10.44140625" customWidth="1"/>
+    <col min="35" max="35" width="17" hidden="1" customWidth="1"/>
+    <col min="36" max="36" width="17.88671875" hidden="1" customWidth="1"/>
+    <col min="37" max="37" width="13.33203125" hidden="1" customWidth="1"/>
+    <col min="38" max="40" width="8.88671875" hidden="1" customWidth="1"/>
+    <col min="41" max="41" width="12.33203125" hidden="1" customWidth="1"/>
+    <col min="42" max="42" width="11.88671875" hidden="1" customWidth="1"/>
+    <col min="43" max="43" width="10.44140625" hidden="1" customWidth="1"/>
     <col min="44" max="44" width="11.44140625" customWidth="1"/>
     <col min="45" max="45" width="22.44140625" customWidth="1"/>
     <col min="46" max="46" width="14.109375" customWidth="1"/>
@@ -33612,11 +33612,11 @@
       <c r="Z148" s="147" t="s">
         <v>233</v>
       </c>
-      <c r="AA148" s="147" t="s">
-        <v>233</v>
-      </c>
-      <c r="AB148" s="147" t="s">
-        <v>233</v>
+      <c r="AA148" s="147">
+        <v>25</v>
+      </c>
+      <c r="AB148" s="147">
+        <v>84</v>
       </c>
       <c r="AC148" s="147" t="s">
         <v>233</v>
@@ -34399,11 +34399,11 @@
       <c r="Z153" s="147" t="s">
         <v>233</v>
       </c>
-      <c r="AA153" s="147" t="s">
-        <v>233</v>
-      </c>
-      <c r="AB153" s="147" t="s">
-        <v>233</v>
+      <c r="AA153" s="147">
+        <v>12</v>
+      </c>
+      <c r="AB153" s="147">
+        <v>37</v>
       </c>
       <c r="AC153" s="147" t="s">
         <v>233</v>

--- a/Оборудование на расчет СГП УТНГП.xlsx
+++ b/Оборудование на расчет СГП УТНГП.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\python\enpz2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D32C4360-298C-4F9D-8575-4CFDEFA44FED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A7CDF7D-B51A-404A-99BE-74B96A0B5EB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" firstSheet="3" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5515" uniqueCount="478">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5501" uniqueCount="482">
   <si>
     <t>Оборудование</t>
   </si>
@@ -1645,6 +1645,18 @@
   <si>
     <t>Инд.риск погибш ГСМ</t>
   </si>
+  <si>
+    <t>Полное разрушение - ликвидация пролива и рассеивание выброса -токсическое поражение</t>
+  </si>
+  <si>
+    <t>Частичное разрушение (10 мм) - ликвидация пролива и рассеивание выброса -токсическое поражение</t>
+  </si>
+  <si>
+    <t>Частичное разрушение (10 мм) - рассеивание выброса -токсическое поражение</t>
+  </si>
+  <si>
+    <t>Частичное разрушение (10 мм) - ликвидация пролива и рассеивание выброса-токсическое поражение</t>
+  </si>
 </sst>
 </file>
 
@@ -2899,10 +2911,112 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="11" fontId="20" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="20" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="19" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="19" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="11" fontId="19" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="11" fontId="22" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2911,16 +3025,28 @@
     <xf numFmtId="0" fontId="15" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="11" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="11" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2959,99 +3085,6 @@
     <xf numFmtId="0" fontId="22" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3064,27 +3097,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="11" fontId="20" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="20" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="19" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="19" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="11" fontId="19" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="11" fontId="22" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -4785,37 +4797,38 @@
   <dimension ref="A1:AZ419"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A131" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A63" sqref="A63:XFD63"/>
+      <pane ySplit="1" topLeftCell="A227" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AZ263" sqref="AZ263"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="12" style="10" customWidth="1"/>
     <col min="2" max="2" width="39.21875" style="10" customWidth="1"/>
-    <col min="3" max="3" width="27.109375" style="11" customWidth="1"/>
-    <col min="4" max="4" width="45.5546875" style="11" customWidth="1"/>
-    <col min="5" max="5" width="16.5546875" style="10" customWidth="1"/>
-    <col min="6" max="6" width="16.33203125" style="10" customWidth="1"/>
-    <col min="7" max="7" width="11.5546875" style="10" customWidth="1"/>
+    <col min="3" max="3" width="27.109375" style="11" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="45.5546875" style="11" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="16.5546875" style="10" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="16.33203125" style="10" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="11.5546875" style="10" hidden="1" customWidth="1"/>
     <col min="8" max="8" width="16.5546875" style="10" customWidth="1"/>
-    <col min="9" max="9" width="16.109375" style="10" customWidth="1"/>
-    <col min="10" max="13" width="14.6640625" style="10" customWidth="1"/>
-    <col min="14" max="14" width="25.5546875" style="10" customWidth="1"/>
-    <col min="15" max="15" width="14.6640625" style="10" customWidth="1"/>
-    <col min="16" max="16" width="20.6640625" style="10" customWidth="1"/>
-    <col min="17" max="17" width="8.88671875" customWidth="1"/>
-    <col min="18" max="18" width="13.33203125" customWidth="1"/>
-    <col min="19" max="19" width="35.5546875" customWidth="1"/>
-    <col min="20" max="20" width="41.5546875" style="11" customWidth="1"/>
-    <col min="21" max="40" width="8.88671875" customWidth="1"/>
-    <col min="41" max="41" width="17" customWidth="1"/>
-    <col min="42" max="42" width="17.88671875" customWidth="1"/>
-    <col min="43" max="43" width="13.33203125" customWidth="1"/>
-    <col min="44" max="44" width="8.88671875" customWidth="1"/>
-    <col min="45" max="45" width="12.33203125" customWidth="1"/>
-    <col min="46" max="46" width="11.88671875" customWidth="1"/>
-    <col min="47" max="47" width="10.44140625" customWidth="1"/>
+    <col min="9" max="9" width="16.109375" style="10" hidden="1" customWidth="1"/>
+    <col min="10" max="13" width="14.6640625" style="10" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="25.5546875" style="10" hidden="1" customWidth="1"/>
+    <col min="15" max="15" width="14.6640625" style="10" hidden="1" customWidth="1"/>
+    <col min="16" max="16" width="20.6640625" style="10" hidden="1" customWidth="1"/>
+    <col min="17" max="17" width="8.88671875" hidden="1" customWidth="1"/>
+    <col min="18" max="18" width="13.33203125" hidden="1" customWidth="1"/>
+    <col min="19" max="19" width="35.5546875" hidden="1" customWidth="1"/>
+    <col min="20" max="20" width="41.5546875" style="11" hidden="1" customWidth="1"/>
+    <col min="21" max="38" width="8.88671875" hidden="1" customWidth="1"/>
+    <col min="39" max="40" width="8.88671875" customWidth="1"/>
+    <col min="41" max="41" width="17" hidden="1" customWidth="1"/>
+    <col min="42" max="42" width="17.88671875" hidden="1" customWidth="1"/>
+    <col min="43" max="43" width="13.33203125" hidden="1" customWidth="1"/>
+    <col min="44" max="44" width="8.88671875" hidden="1" customWidth="1"/>
+    <col min="45" max="45" width="12.33203125" hidden="1" customWidth="1"/>
+    <col min="46" max="46" width="11.88671875" hidden="1" customWidth="1"/>
+    <col min="47" max="47" width="10.44140625" hidden="1" customWidth="1"/>
     <col min="48" max="48" width="11.44140625" customWidth="1"/>
     <col min="49" max="49" width="22.44140625" customWidth="1"/>
     <col min="50" max="50" width="14.109375" customWidth="1"/>
@@ -5019,7 +5032,7 @@
       <c r="M2" s="108">
         <v>2800</v>
       </c>
-      <c r="N2" s="478" t="s">
+      <c r="N2" s="458" t="s">
         <v>353</v>
       </c>
       <c r="O2" s="174">
@@ -5136,7 +5149,7 @@
         <v>8.3199445000000001</v>
       </c>
       <c r="AX2" s="113">
-        <f t="shared" ref="AX2:AX20" si="2">AM2*H2</f>
+        <f t="shared" ref="AX2" si="2">AM2*H2</f>
         <v>1.2000000000000002E-6</v>
       </c>
       <c r="AY2" s="114">
@@ -5189,7 +5202,7 @@
       <c r="M3" s="108">
         <v>2800</v>
       </c>
-      <c r="N3" s="479"/>
+      <c r="N3" s="459"/>
       <c r="O3" s="174">
         <v>72.5</v>
       </c>
@@ -5356,7 +5369,7 @@
       <c r="M4" s="108">
         <v>2800</v>
       </c>
-      <c r="N4" s="479"/>
+      <c r="N4" s="459"/>
       <c r="O4" s="174">
         <v>72.5</v>
       </c>
@@ -5523,7 +5536,7 @@
       <c r="M5" s="108">
         <v>2800</v>
       </c>
-      <c r="N5" s="479"/>
+      <c r="N5" s="459"/>
       <c r="O5" s="174">
         <v>72.5</v>
       </c>
@@ -5692,7 +5705,7 @@
         <f>O6*20/0.75</f>
         <v>403.2</v>
       </c>
-      <c r="N6" s="479"/>
+      <c r="N6" s="459"/>
       <c r="O6" s="174">
         <f>J6*3600/1000</f>
         <v>15.12</v>
@@ -5863,7 +5876,7 @@
         <f t="shared" ref="M7:M8" si="15">O7*20/0.75</f>
         <v>403.2</v>
       </c>
-      <c r="N7" s="479"/>
+      <c r="N7" s="459"/>
       <c r="O7" s="174">
         <f t="shared" ref="O7:O11" si="16">J7*3600/1000</f>
         <v>15.12</v>
@@ -6034,7 +6047,7 @@
         <f t="shared" si="15"/>
         <v>403.2</v>
       </c>
-      <c r="N8" s="479"/>
+      <c r="N8" s="459"/>
       <c r="O8" s="174">
         <f t="shared" si="16"/>
         <v>15.12</v>
@@ -6203,7 +6216,7 @@
       <c r="M9" s="99">
         <v>0</v>
       </c>
-      <c r="N9" s="479"/>
+      <c r="N9" s="459"/>
       <c r="O9" s="174">
         <f t="shared" si="16"/>
         <v>0.9</v>
@@ -6373,7 +6386,7 @@
       <c r="M10" s="99">
         <v>0</v>
       </c>
-      <c r="N10" s="479"/>
+      <c r="N10" s="459"/>
       <c r="O10" s="174">
         <f t="shared" si="16"/>
         <v>0.9</v>
@@ -6502,171 +6515,171 @@
         <v>5.9812293542400019E-5</v>
       </c>
     </row>
-    <row r="11" spans="1:52" s="503" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A11" s="498" t="s">
+    <row r="11" spans="1:52" s="448" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A11" s="443" t="s">
         <v>16</v>
       </c>
-      <c r="B11" s="499" t="s">
+      <c r="B11" s="444" t="s">
         <v>294</v>
       </c>
-      <c r="C11" s="500" t="s">
+      <c r="C11" s="445" t="s">
         <v>340</v>
       </c>
-      <c r="D11" s="501" t="s">
+      <c r="D11" s="446" t="s">
         <v>347</v>
       </c>
-      <c r="E11" s="502">
+      <c r="E11" s="447">
         <v>1.0000000000000001E-5</v>
       </c>
-      <c r="F11" s="499">
+      <c r="F11" s="444">
         <v>24</v>
       </c>
-      <c r="G11" s="499">
+      <c r="G11" s="444">
         <v>0.6080000000000001</v>
       </c>
-      <c r="H11" s="502">
+      <c r="H11" s="447">
         <f t="shared" si="3"/>
         <v>1.4592000000000004E-4</v>
       </c>
-      <c r="I11" s="499">
-        <v>0</v>
-      </c>
-      <c r="J11" s="499">
+      <c r="I11" s="444">
+        <v>0</v>
+      </c>
+      <c r="J11" s="444">
         <v>0.25</v>
       </c>
-      <c r="K11" s="499">
-        <v>0</v>
-      </c>
-      <c r="L11" s="499">
-        <v>0</v>
-      </c>
-      <c r="M11" s="503">
-        <v>0</v>
-      </c>
-      <c r="N11" s="480"/>
-      <c r="O11" s="504">
+      <c r="K11" s="444">
+        <v>0</v>
+      </c>
+      <c r="L11" s="444">
+        <v>0</v>
+      </c>
+      <c r="M11" s="448">
+        <v>0</v>
+      </c>
+      <c r="N11" s="460"/>
+      <c r="O11" s="449">
         <f t="shared" si="16"/>
         <v>0.9</v>
       </c>
-      <c r="P11" s="504">
-        <v>0</v>
-      </c>
-      <c r="Q11" s="505"/>
-      <c r="R11" s="503" t="str">
+      <c r="P11" s="449">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="450"/>
+      <c r="R11" s="448" t="str">
         <f t="shared" si="4"/>
         <v>С10</v>
       </c>
-      <c r="S11" s="503" t="str">
+      <c r="S11" s="448" t="str">
         <f t="shared" si="5"/>
         <v>Емкости Е-1…Е-24</v>
       </c>
-      <c r="T11" s="506" t="str">
+      <c r="T11" s="451" t="str">
         <f t="shared" si="6"/>
         <v>Частичное разрушение (10 мм) - рассеивание выброса (ликвидация аварии)</v>
       </c>
-      <c r="U11" s="503" t="s">
-        <v>98</v>
-      </c>
-      <c r="V11" s="503" t="s">
-        <v>98</v>
-      </c>
-      <c r="W11" s="503" t="s">
-        <v>98</v>
-      </c>
-      <c r="X11" s="503" t="s">
-        <v>98</v>
-      </c>
-      <c r="Y11" s="503" t="s">
-        <v>98</v>
-      </c>
-      <c r="Z11" s="503" t="s">
-        <v>98</v>
-      </c>
-      <c r="AA11" s="503" t="s">
-        <v>98</v>
-      </c>
-      <c r="AB11" s="503" t="s">
-        <v>98</v>
-      </c>
-      <c r="AC11" s="503" t="s">
-        <v>98</v>
-      </c>
-      <c r="AD11" s="503" t="s">
-        <v>98</v>
-      </c>
-      <c r="AE11" s="503" t="s">
-        <v>98</v>
-      </c>
-      <c r="AF11" s="503" t="s">
-        <v>98</v>
-      </c>
-      <c r="AG11" s="503" t="s">
-        <v>98</v>
-      </c>
-      <c r="AH11" s="503" t="s">
-        <v>98</v>
-      </c>
-      <c r="AI11" s="503" t="s">
-        <v>98</v>
-      </c>
-      <c r="AJ11" s="503" t="s">
-        <v>98</v>
-      </c>
-      <c r="AK11" s="503" t="s">
-        <v>98</v>
-      </c>
-      <c r="AL11" s="503" t="s">
-        <v>98</v>
-      </c>
-      <c r="AM11" s="503">
-        <v>0</v>
-      </c>
-      <c r="AN11" s="503">
-        <v>0</v>
-      </c>
-      <c r="AO11" s="503">
+      <c r="U11" s="448" t="s">
+        <v>98</v>
+      </c>
+      <c r="V11" s="448" t="s">
+        <v>98</v>
+      </c>
+      <c r="W11" s="448" t="s">
+        <v>98</v>
+      </c>
+      <c r="X11" s="448" t="s">
+        <v>98</v>
+      </c>
+      <c r="Y11" s="448" t="s">
+        <v>98</v>
+      </c>
+      <c r="Z11" s="448" t="s">
+        <v>98</v>
+      </c>
+      <c r="AA11" s="448" t="s">
+        <v>98</v>
+      </c>
+      <c r="AB11" s="448" t="s">
+        <v>98</v>
+      </c>
+      <c r="AC11" s="448" t="s">
+        <v>98</v>
+      </c>
+      <c r="AD11" s="448" t="s">
+        <v>98</v>
+      </c>
+      <c r="AE11" s="448" t="s">
+        <v>98</v>
+      </c>
+      <c r="AF11" s="448" t="s">
+        <v>98</v>
+      </c>
+      <c r="AG11" s="448" t="s">
+        <v>98</v>
+      </c>
+      <c r="AH11" s="448" t="s">
+        <v>98</v>
+      </c>
+      <c r="AI11" s="448" t="s">
+        <v>98</v>
+      </c>
+      <c r="AJ11" s="448" t="s">
+        <v>98</v>
+      </c>
+      <c r="AK11" s="448" t="s">
+        <v>98</v>
+      </c>
+      <c r="AL11" s="448" t="s">
+        <v>98</v>
+      </c>
+      <c r="AM11" s="448">
+        <v>0</v>
+      </c>
+      <c r="AN11" s="448">
+        <v>0</v>
+      </c>
+      <c r="AO11" s="448">
         <f t="shared" si="13"/>
         <v>7.5000000000000011E-2</v>
       </c>
-      <c r="AP11" s="503">
+      <c r="AP11" s="448">
         <v>0.02</v>
       </c>
-      <c r="AQ11" s="503">
+      <c r="AQ11" s="448">
         <v>3</v>
       </c>
-      <c r="AR11" s="507">
+      <c r="AR11" s="452">
         <f t="shared" si="17"/>
         <v>9.3000000000000013E-2</v>
       </c>
-      <c r="AS11" s="507">
+      <c r="AS11" s="452">
         <f t="shared" si="7"/>
         <v>9.300000000000001E-3</v>
       </c>
-      <c r="AT11" s="508">
+      <c r="AT11" s="453">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="AU11" s="508">
+      <c r="AU11" s="453">
         <f t="shared" si="8"/>
         <v>1.0230000000000003E-2</v>
       </c>
-      <c r="AV11" s="507">
+      <c r="AV11" s="452">
         <f t="shared" si="9"/>
         <v>9.0613800000000008E-3</v>
       </c>
-      <c r="AW11" s="508">
+      <c r="AW11" s="453">
         <f t="shared" si="1"/>
         <v>0.12159138000000003</v>
       </c>
-      <c r="AX11" s="509">
+      <c r="AX11" s="454">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AY11" s="510">
+      <c r="AY11" s="455">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="AZ11" s="509">
+      <c r="AZ11" s="454">
         <f t="shared" si="12"/>
         <v>1.7742614169600008E-5</v>
       </c>
@@ -6712,7 +6725,7 @@
       <c r="M12" s="163">
         <v>2800</v>
       </c>
-      <c r="N12" s="459" t="s">
+      <c r="N12" s="461" t="s">
         <v>358</v>
       </c>
       <c r="O12" s="173">
@@ -6882,7 +6895,7 @@
       <c r="M13" s="2">
         <v>2800</v>
       </c>
-      <c r="N13" s="460"/>
+      <c r="N13" s="462"/>
       <c r="O13" s="173">
         <v>84.82</v>
       </c>
@@ -7050,7 +7063,7 @@
       <c r="M14" s="2">
         <v>2800</v>
       </c>
-      <c r="N14" s="460"/>
+      <c r="N14" s="462"/>
       <c r="O14" s="173">
         <v>84.82</v>
       </c>
@@ -7218,7 +7231,7 @@
       <c r="M15" s="2">
         <v>2800</v>
       </c>
-      <c r="N15" s="460"/>
+      <c r="N15" s="462"/>
       <c r="O15" s="173">
         <v>84.82</v>
       </c>
@@ -7386,7 +7399,7 @@
         <f>O16*20/0.75</f>
         <v>403.2</v>
       </c>
-      <c r="N16" s="460"/>
+      <c r="N16" s="462"/>
       <c r="O16" s="173">
         <f>J16*3600/1000</f>
         <v>15.12</v>
@@ -7556,7 +7569,7 @@
         <f t="shared" ref="M17:M18" si="25">O17*20/0.75</f>
         <v>403.2</v>
       </c>
-      <c r="N17" s="460"/>
+      <c r="N17" s="462"/>
       <c r="O17" s="173">
         <f t="shared" ref="O17:O21" si="26">J17*3600/1000</f>
         <v>15.12</v>
@@ -7726,7 +7739,7 @@
         <f t="shared" si="25"/>
         <v>403.2</v>
       </c>
-      <c r="N18" s="460"/>
+      <c r="N18" s="462"/>
       <c r="O18" s="173">
         <f t="shared" si="26"/>
         <v>15.12</v>
@@ -7894,7 +7907,7 @@
       <c r="M19" s="2">
         <v>0</v>
       </c>
-      <c r="N19" s="460"/>
+      <c r="N19" s="462"/>
       <c r="O19" s="173">
         <f t="shared" si="26"/>
         <v>0.9</v>
@@ -8063,7 +8076,7 @@
       <c r="M20" s="2">
         <v>0</v>
       </c>
-      <c r="N20" s="460"/>
+      <c r="N20" s="462"/>
       <c r="O20" s="173">
         <f t="shared" si="26"/>
         <v>0.9</v>
@@ -8232,7 +8245,7 @@
       <c r="M21" s="2">
         <v>0</v>
       </c>
-      <c r="N21" s="481"/>
+      <c r="N21" s="463"/>
       <c r="O21" s="173">
         <f t="shared" si="26"/>
         <v>0.9</v>
@@ -8400,7 +8413,7 @@
       <c r="M22" s="190">
         <v>4100</v>
       </c>
-      <c r="N22" s="463" t="s">
+      <c r="N22" s="467" t="s">
         <v>376</v>
       </c>
       <c r="O22" s="193">
@@ -8530,7 +8543,7 @@
       </c>
     </row>
     <row r="23" spans="1:52" s="358" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="498" t="s">
+      <c r="A23" s="443" t="s">
         <v>410</v>
       </c>
       <c r="B23" s="354" t="s">
@@ -8570,7 +8583,7 @@
       <c r="M23" s="351">
         <v>4100</v>
       </c>
-      <c r="N23" s="464"/>
+      <c r="N23" s="468"/>
       <c r="O23" s="356">
         <v>294.25</v>
       </c>
@@ -8578,7 +8591,7 @@
         <f>0.1*O23</f>
         <v>29.425000000000001</v>
       </c>
-      <c r="Q23" s="494"/>
+      <c r="Q23" s="439"/>
       <c r="R23" s="358" t="str">
         <f t="shared" ref="R23:R31" si="29">A23</f>
         <v>С22</v>
@@ -8645,10 +8658,10 @@
       <c r="AL23" s="358" t="s">
         <v>98</v>
       </c>
-      <c r="AM23" s="495">
+      <c r="AM23" s="440">
         <v>4</v>
       </c>
-      <c r="AN23" s="495">
+      <c r="AN23" s="440">
         <v>0</v>
       </c>
       <c r="AO23" s="358">
@@ -8738,7 +8751,7 @@
       <c r="M24" s="190">
         <v>4100</v>
       </c>
-      <c r="N24" s="464"/>
+      <c r="N24" s="468"/>
       <c r="O24" s="193">
         <v>294.25</v>
       </c>
@@ -8906,7 +8919,7 @@
       <c r="M25" s="190">
         <v>4100</v>
       </c>
-      <c r="N25" s="464"/>
+      <c r="N25" s="468"/>
       <c r="O25" s="193">
         <v>294.25</v>
       </c>
@@ -9073,7 +9086,7 @@
       <c r="M26" s="6">
         <v>403.2</v>
       </c>
-      <c r="N26" s="464"/>
+      <c r="N26" s="468"/>
       <c r="O26" s="193">
         <f>J26*3600/1000</f>
         <v>9</v>
@@ -9242,7 +9255,7 @@
       <c r="M27" s="6">
         <v>403.2</v>
       </c>
-      <c r="N27" s="464"/>
+      <c r="N27" s="468"/>
       <c r="O27" s="193">
         <f t="shared" ref="O27:O31" si="34">J27*3600/1000</f>
         <v>9</v>
@@ -9411,7 +9424,7 @@
       <c r="M28" s="6">
         <v>403.2</v>
       </c>
-      <c r="N28" s="464"/>
+      <c r="N28" s="468"/>
       <c r="O28" s="193">
         <f t="shared" si="34"/>
         <v>9</v>
@@ -9579,7 +9592,7 @@
       <c r="M29" s="6">
         <v>0</v>
       </c>
-      <c r="N29" s="464"/>
+      <c r="N29" s="468"/>
       <c r="O29" s="193">
         <f t="shared" si="34"/>
         <v>0.36</v>
@@ -9748,7 +9761,7 @@
       <c r="M30" s="6">
         <v>0</v>
       </c>
-      <c r="N30" s="464"/>
+      <c r="N30" s="468"/>
       <c r="O30" s="193">
         <f t="shared" si="34"/>
         <v>0.36</v>
@@ -9917,7 +9930,7 @@
       <c r="M31" s="6">
         <v>0</v>
       </c>
-      <c r="N31" s="482"/>
+      <c r="N31" s="469"/>
       <c r="O31" s="193">
         <f t="shared" si="34"/>
         <v>0.36</v>
@@ -10085,7 +10098,7 @@
       <c r="M32" s="190">
         <v>4100</v>
       </c>
-      <c r="N32" s="483" t="s">
+      <c r="N32" s="470" t="s">
         <v>376</v>
       </c>
       <c r="O32" s="205">
@@ -10256,7 +10269,7 @@
       <c r="M33" s="190">
         <v>4100</v>
       </c>
-      <c r="N33" s="484"/>
+      <c r="N33" s="471"/>
       <c r="O33" s="205">
         <v>284.60000000000002</v>
       </c>
@@ -10425,7 +10438,7 @@
       <c r="M34" s="190">
         <v>4100</v>
       </c>
-      <c r="N34" s="484"/>
+      <c r="N34" s="471"/>
       <c r="O34" s="205">
         <v>284.60000000000002</v>
       </c>
@@ -10594,7 +10607,7 @@
       <c r="M35" s="190">
         <v>4100</v>
       </c>
-      <c r="N35" s="484"/>
+      <c r="N35" s="471"/>
       <c r="O35" s="205">
         <v>284.60000000000002</v>
       </c>
@@ -10762,7 +10775,7 @@
       <c r="M36" s="6">
         <v>403.2</v>
       </c>
-      <c r="N36" s="484"/>
+      <c r="N36" s="471"/>
       <c r="O36" s="205">
         <f>J36*3600/1000</f>
         <v>9</v>
@@ -10932,7 +10945,7 @@
       <c r="M37" s="6">
         <v>403.2</v>
       </c>
-      <c r="N37" s="484"/>
+      <c r="N37" s="471"/>
       <c r="O37" s="205">
         <f t="shared" ref="O37:O41" si="43">J37*3600/1000</f>
         <v>9</v>
@@ -11102,7 +11115,7 @@
       <c r="M38" s="6">
         <v>403.2</v>
       </c>
-      <c r="N38" s="484"/>
+      <c r="N38" s="471"/>
       <c r="O38" s="205">
         <f t="shared" si="43"/>
         <v>9</v>
@@ -11271,7 +11284,7 @@
       <c r="M39" s="6">
         <v>0</v>
       </c>
-      <c r="N39" s="484"/>
+      <c r="N39" s="471"/>
       <c r="O39" s="205">
         <f t="shared" si="43"/>
         <v>0.36</v>
@@ -11441,7 +11454,7 @@
       <c r="M40" s="6">
         <v>0</v>
       </c>
-      <c r="N40" s="484"/>
+      <c r="N40" s="471"/>
       <c r="O40" s="205">
         <f t="shared" si="43"/>
         <v>0.36</v>
@@ -11611,7 +11624,7 @@
       <c r="M41" s="6">
         <v>0</v>
       </c>
-      <c r="N41" s="485"/>
+      <c r="N41" s="472"/>
       <c r="O41" s="205">
         <f t="shared" si="43"/>
         <v>0.36</v>
@@ -11780,7 +11793,7 @@
       <c r="M42" s="190">
         <v>4100</v>
       </c>
-      <c r="N42" s="486" t="s">
+      <c r="N42" s="473" t="s">
         <v>376</v>
       </c>
       <c r="O42" s="219">
@@ -11951,7 +11964,7 @@
       <c r="M43" s="190">
         <v>4100</v>
       </c>
-      <c r="N43" s="487"/>
+      <c r="N43" s="474"/>
       <c r="O43" s="219">
         <v>272.25</v>
       </c>
@@ -12120,7 +12133,7 @@
       <c r="M44" s="190">
         <v>4100</v>
       </c>
-      <c r="N44" s="487"/>
+      <c r="N44" s="474"/>
       <c r="O44" s="219">
         <v>272.25</v>
       </c>
@@ -12289,7 +12302,7 @@
       <c r="M45" s="190">
         <v>4100</v>
       </c>
-      <c r="N45" s="487"/>
+      <c r="N45" s="474"/>
       <c r="O45" s="219">
         <v>272.25</v>
       </c>
@@ -12457,7 +12470,7 @@
       <c r="M46" s="6">
         <v>403.2</v>
       </c>
-      <c r="N46" s="487"/>
+      <c r="N46" s="474"/>
       <c r="O46" s="219">
         <f>J46*3600/1000</f>
         <v>9</v>
@@ -12627,7 +12640,7 @@
       <c r="M47" s="6">
         <v>403.2</v>
       </c>
-      <c r="N47" s="487"/>
+      <c r="N47" s="474"/>
       <c r="O47" s="219">
         <f t="shared" ref="O47:O51" si="52">J47*3600/1000</f>
         <v>9</v>
@@ -12797,7 +12810,7 @@
       <c r="M48" s="6">
         <v>403.2</v>
       </c>
-      <c r="N48" s="487"/>
+      <c r="N48" s="474"/>
       <c r="O48" s="219">
         <f t="shared" si="52"/>
         <v>9</v>
@@ -12966,7 +12979,7 @@
       <c r="M49" s="6">
         <v>0</v>
       </c>
-      <c r="N49" s="487"/>
+      <c r="N49" s="474"/>
       <c r="O49" s="219">
         <f t="shared" si="52"/>
         <v>0.36</v>
@@ -13136,7 +13149,7 @@
       <c r="M50" s="6">
         <v>0</v>
       </c>
-      <c r="N50" s="487"/>
+      <c r="N50" s="474"/>
       <c r="O50" s="219">
         <f t="shared" si="52"/>
         <v>0.36</v>
@@ -13306,7 +13319,7 @@
       <c r="M51" s="6">
         <v>0</v>
       </c>
-      <c r="N51" s="488"/>
+      <c r="N51" s="475"/>
       <c r="O51" s="219">
         <f t="shared" si="52"/>
         <v>0.36</v>
@@ -13475,7 +13488,7 @@
       <c r="M52" s="283">
         <v>2000</v>
       </c>
-      <c r="N52" s="471" t="s">
+      <c r="N52" s="476" t="s">
         <v>400</v>
       </c>
       <c r="O52" s="287">
@@ -13646,7 +13659,7 @@
       <c r="M53" s="283">
         <v>2000</v>
       </c>
-      <c r="N53" s="472"/>
+      <c r="N53" s="477"/>
       <c r="O53" s="287">
         <v>84.82</v>
       </c>
@@ -13815,7 +13828,7 @@
       <c r="M54" s="283">
         <v>2000</v>
       </c>
-      <c r="N54" s="472"/>
+      <c r="N54" s="477"/>
       <c r="O54" s="287">
         <v>84.82</v>
       </c>
@@ -13984,7 +13997,7 @@
       <c r="M55" s="283">
         <v>2000</v>
       </c>
-      <c r="N55" s="472"/>
+      <c r="N55" s="477"/>
       <c r="O55" s="287">
         <v>84.82</v>
       </c>
@@ -14152,7 +14165,7 @@
       <c r="M56" s="289">
         <v>403.2</v>
       </c>
-      <c r="N56" s="472"/>
+      <c r="N56" s="477"/>
       <c r="O56" s="287">
         <f>J56*3600/1000</f>
         <v>9</v>
@@ -14322,7 +14335,7 @@
       <c r="M57" s="289">
         <v>403.2</v>
       </c>
-      <c r="N57" s="472"/>
+      <c r="N57" s="477"/>
       <c r="O57" s="287">
         <f t="shared" ref="O57:O61" si="60">J57*3600/1000</f>
         <v>9</v>
@@ -14492,7 +14505,7 @@
       <c r="M58" s="289">
         <v>403.2</v>
       </c>
-      <c r="N58" s="472"/>
+      <c r="N58" s="477"/>
       <c r="O58" s="287">
         <f t="shared" si="60"/>
         <v>9</v>
@@ -14661,7 +14674,7 @@
       <c r="M59" s="289">
         <v>0</v>
       </c>
-      <c r="N59" s="472"/>
+      <c r="N59" s="477"/>
       <c r="O59" s="287">
         <f t="shared" si="60"/>
         <v>0.36</v>
@@ -14831,7 +14844,7 @@
       <c r="M60" s="289">
         <v>0</v>
       </c>
-      <c r="N60" s="472"/>
+      <c r="N60" s="477"/>
       <c r="O60" s="287">
         <f t="shared" si="60"/>
         <v>0.36</v>
@@ -15001,7 +15014,7 @@
       <c r="M61" s="289">
         <v>0</v>
       </c>
-      <c r="N61" s="473"/>
+      <c r="N61" s="478"/>
       <c r="O61" s="287">
         <f t="shared" si="60"/>
         <v>0.36</v>
@@ -15170,7 +15183,7 @@
       <c r="M62" s="404">
         <v>1800</v>
       </c>
-      <c r="N62" s="445" t="s">
+      <c r="N62" s="479" t="s">
         <v>408</v>
       </c>
       <c r="O62" s="408">
@@ -15301,7 +15314,7 @@
       </c>
     </row>
     <row r="63" spans="1:52" s="358" customFormat="1" ht="28.2" x14ac:dyDescent="0.3">
-      <c r="A63" s="498" t="s">
+      <c r="A63" s="443" t="s">
         <v>450</v>
       </c>
       <c r="B63" s="350" t="s">
@@ -15341,7 +15354,7 @@
       <c r="M63" s="351">
         <v>1800</v>
       </c>
-      <c r="N63" s="446"/>
+      <c r="N63" s="480"/>
       <c r="O63" s="356">
         <v>24.8</v>
       </c>
@@ -15349,7 +15362,7 @@
         <f>0.1*O63</f>
         <v>2.4800000000000004</v>
       </c>
-      <c r="Q63" s="494"/>
+      <c r="Q63" s="439"/>
       <c r="R63" s="358" t="str">
         <f t="shared" ref="R63:R71" si="63">A63</f>
         <v>С62</v>
@@ -15417,10 +15430,10 @@
       <c r="AL63" s="358" t="s">
         <v>98</v>
       </c>
-      <c r="AM63" s="495">
+      <c r="AM63" s="440">
         <v>3</v>
       </c>
-      <c r="AN63" s="495">
+      <c r="AN63" s="440">
         <v>1</v>
       </c>
       <c r="AO63" s="358">
@@ -15510,7 +15523,7 @@
       <c r="M64" s="404">
         <v>1800</v>
       </c>
-      <c r="N64" s="446"/>
+      <c r="N64" s="480"/>
       <c r="O64" s="408">
         <v>24.8</v>
       </c>
@@ -15679,7 +15692,7 @@
       <c r="M65" s="404">
         <v>1800</v>
       </c>
-      <c r="N65" s="446"/>
+      <c r="N65" s="480"/>
       <c r="O65" s="408">
         <v>24.8</v>
       </c>
@@ -15847,7 +15860,7 @@
       <c r="M66" s="410">
         <v>403.2</v>
       </c>
-      <c r="N66" s="446"/>
+      <c r="N66" s="480"/>
       <c r="O66" s="408">
         <f>J66*3600/1000</f>
         <v>9</v>
@@ -16017,7 +16030,7 @@
       <c r="M67" s="410">
         <v>403.2</v>
       </c>
-      <c r="N67" s="446"/>
+      <c r="N67" s="480"/>
       <c r="O67" s="408">
         <f t="shared" ref="O67:O71" si="68">J67*3600/1000</f>
         <v>9</v>
@@ -16187,7 +16200,7 @@
       <c r="M68" s="410">
         <v>403.2</v>
       </c>
-      <c r="N68" s="446"/>
+      <c r="N68" s="480"/>
       <c r="O68" s="408">
         <f t="shared" si="68"/>
         <v>9</v>
@@ -16356,7 +16369,7 @@
       <c r="M69" s="410">
         <v>0</v>
       </c>
-      <c r="N69" s="446"/>
+      <c r="N69" s="480"/>
       <c r="O69" s="408">
         <f t="shared" si="68"/>
         <v>0.36</v>
@@ -16526,7 +16539,7 @@
       <c r="M70" s="410">
         <v>0</v>
       </c>
-      <c r="N70" s="446"/>
+      <c r="N70" s="480"/>
       <c r="O70" s="408">
         <f t="shared" si="68"/>
         <v>0.36</v>
@@ -16696,7 +16709,7 @@
       <c r="M71" s="410">
         <v>0</v>
       </c>
-      <c r="N71" s="489"/>
+      <c r="N71" s="481"/>
       <c r="O71" s="408">
         <f t="shared" si="68"/>
         <v>0.36</v>
@@ -16865,7 +16878,7 @@
       <c r="M72" s="176">
         <v>2800</v>
       </c>
-      <c r="N72" s="465" t="s">
+      <c r="N72" s="464" t="s">
         <v>373</v>
       </c>
       <c r="O72" s="179">
@@ -17035,7 +17048,7 @@
       <c r="M73" s="176">
         <v>2800</v>
       </c>
-      <c r="N73" s="466"/>
+      <c r="N73" s="465"/>
       <c r="O73" s="179">
         <v>84.82</v>
       </c>
@@ -17203,7 +17216,7 @@
       <c r="M74" s="176">
         <v>2800</v>
       </c>
-      <c r="N74" s="466"/>
+      <c r="N74" s="465"/>
       <c r="O74" s="179">
         <v>84.82</v>
       </c>
@@ -17371,7 +17384,7 @@
       <c r="M75" s="176">
         <v>2800</v>
       </c>
-      <c r="N75" s="466"/>
+      <c r="N75" s="465"/>
       <c r="O75" s="179">
         <v>84.82</v>
       </c>
@@ -17539,7 +17552,7 @@
         <f>(O76/0.75)*20</f>
         <v>431.99999999999994</v>
       </c>
-      <c r="N76" s="466"/>
+      <c r="N76" s="465"/>
       <c r="O76" s="179">
         <f>J76*3600/1000</f>
         <v>16.2</v>
@@ -17709,7 +17722,7 @@
         <f t="shared" ref="M77:M78" si="81">(O77/0.75)*20</f>
         <v>431.99999999999994</v>
       </c>
-      <c r="N77" s="466"/>
+      <c r="N77" s="465"/>
       <c r="O77" s="179">
         <f t="shared" ref="O77:O81" si="82">J77*3600/1000</f>
         <v>16.2</v>
@@ -17879,7 +17892,7 @@
         <f t="shared" si="81"/>
         <v>431.99999999999994</v>
       </c>
-      <c r="N78" s="466"/>
+      <c r="N78" s="465"/>
       <c r="O78" s="179">
         <f t="shared" si="82"/>
         <v>16.2</v>
@@ -18047,7 +18060,7 @@
       <c r="M79" s="181">
         <v>0</v>
       </c>
-      <c r="N79" s="466"/>
+      <c r="N79" s="465"/>
       <c r="O79" s="179">
         <f t="shared" si="82"/>
         <v>0.54</v>
@@ -18216,7 +18229,7 @@
       <c r="M80" s="181">
         <v>0</v>
       </c>
-      <c r="N80" s="466"/>
+      <c r="N80" s="465"/>
       <c r="O80" s="179">
         <f t="shared" si="82"/>
         <v>0.54</v>
@@ -18385,7 +18398,7 @@
       <c r="M81" s="181">
         <v>0</v>
       </c>
-      <c r="N81" s="475"/>
+      <c r="N81" s="466"/>
       <c r="O81" s="179">
         <f t="shared" si="82"/>
         <v>0.54</v>
@@ -18553,7 +18566,7 @@
       <c r="M82" s="229">
         <v>4100</v>
       </c>
-      <c r="N82" s="461" t="s">
+      <c r="N82" s="488" t="s">
         <v>379</v>
       </c>
       <c r="O82" s="232">
@@ -18724,7 +18737,7 @@
       <c r="M83" s="229">
         <v>4100</v>
       </c>
-      <c r="N83" s="462"/>
+      <c r="N83" s="489"/>
       <c r="O83" s="232">
         <v>329.17</v>
       </c>
@@ -18893,7 +18906,7 @@
       <c r="M84" s="229">
         <v>4100</v>
       </c>
-      <c r="N84" s="462"/>
+      <c r="N84" s="489"/>
       <c r="O84" s="232">
         <v>329.17</v>
       </c>
@@ -19062,7 +19075,7 @@
       <c r="M85" s="229">
         <v>4100</v>
       </c>
-      <c r="N85" s="462"/>
+      <c r="N85" s="489"/>
       <c r="O85" s="232">
         <v>329.17</v>
       </c>
@@ -19231,7 +19244,7 @@
         <f>(O86/0.75)*20</f>
         <v>115.20000000000002</v>
       </c>
-      <c r="N86" s="462"/>
+      <c r="N86" s="489"/>
       <c r="O86" s="232">
         <f>J86*3600/1000</f>
         <v>4.32</v>
@@ -19402,7 +19415,7 @@
         <f t="shared" ref="M87:M88" si="90">(O87/0.75)*20</f>
         <v>115.20000000000002</v>
       </c>
-      <c r="N87" s="462"/>
+      <c r="N87" s="489"/>
       <c r="O87" s="232">
         <f t="shared" ref="O87:O91" si="91">J87*3600/1000</f>
         <v>4.32</v>
@@ -19573,7 +19586,7 @@
         <f t="shared" si="90"/>
         <v>115.20000000000002</v>
       </c>
-      <c r="N88" s="462"/>
+      <c r="N88" s="489"/>
       <c r="O88" s="232">
         <f t="shared" si="91"/>
         <v>4.32</v>
@@ -19742,7 +19755,7 @@
       <c r="M89" s="5">
         <v>0</v>
       </c>
-      <c r="N89" s="462"/>
+      <c r="N89" s="489"/>
       <c r="O89" s="232">
         <f t="shared" si="91"/>
         <v>0.18</v>
@@ -19912,7 +19925,7 @@
       <c r="M90" s="5">
         <v>0</v>
       </c>
-      <c r="N90" s="462"/>
+      <c r="N90" s="489"/>
       <c r="O90" s="232">
         <f t="shared" si="91"/>
         <v>0.18</v>
@@ -20082,7 +20095,7 @@
       <c r="M91" s="5">
         <v>0</v>
       </c>
-      <c r="N91" s="474"/>
+      <c r="N91" s="490"/>
       <c r="O91" s="232">
         <f t="shared" si="91"/>
         <v>0.18</v>
@@ -20251,7 +20264,7 @@
       <c r="M92" s="176">
         <v>2800</v>
       </c>
-      <c r="N92" s="465" t="s">
+      <c r="N92" s="464" t="s">
         <v>373</v>
       </c>
       <c r="O92" s="179">
@@ -20421,7 +20434,7 @@
       <c r="M93" s="176">
         <v>2800</v>
       </c>
-      <c r="N93" s="466"/>
+      <c r="N93" s="465"/>
       <c r="O93" s="179">
         <v>96.52</v>
       </c>
@@ -20589,7 +20602,7 @@
       <c r="M94" s="176">
         <v>2800</v>
       </c>
-      <c r="N94" s="466"/>
+      <c r="N94" s="465"/>
       <c r="O94" s="179">
         <v>96.52</v>
       </c>
@@ -20757,7 +20770,7 @@
       <c r="M95" s="176">
         <v>2800</v>
       </c>
-      <c r="N95" s="466"/>
+      <c r="N95" s="465"/>
       <c r="O95" s="179">
         <v>96.52</v>
       </c>
@@ -20925,7 +20938,7 @@
         <f>(O96/0.75)*20</f>
         <v>431.99999999999994</v>
       </c>
-      <c r="N96" s="466"/>
+      <c r="N96" s="465"/>
       <c r="O96" s="179">
         <f>J96*3600/1000</f>
         <v>16.2</v>
@@ -21095,7 +21108,7 @@
         <f t="shared" ref="M97:M98" si="98">(O97/0.75)*20</f>
         <v>431.99999999999994</v>
       </c>
-      <c r="N97" s="466"/>
+      <c r="N97" s="465"/>
       <c r="O97" s="179">
         <f t="shared" ref="O97:O101" si="99">J97*3600/1000</f>
         <v>16.2</v>
@@ -21265,7 +21278,7 @@
         <f t="shared" si="98"/>
         <v>431.99999999999994</v>
       </c>
-      <c r="N98" s="466"/>
+      <c r="N98" s="465"/>
       <c r="O98" s="179">
         <f t="shared" si="99"/>
         <v>16.2</v>
@@ -21433,7 +21446,7 @@
       <c r="M99" s="181">
         <v>0</v>
       </c>
-      <c r="N99" s="466"/>
+      <c r="N99" s="465"/>
       <c r="O99" s="179">
         <f t="shared" si="99"/>
         <v>0.54</v>
@@ -21602,7 +21615,7 @@
       <c r="M100" s="181">
         <v>0</v>
       </c>
-      <c r="N100" s="466"/>
+      <c r="N100" s="465"/>
       <c r="O100" s="179">
         <f t="shared" si="99"/>
         <v>0.54</v>
@@ -21771,7 +21784,7 @@
       <c r="M101" s="181">
         <v>0</v>
       </c>
-      <c r="N101" s="475"/>
+      <c r="N101" s="466"/>
       <c r="O101" s="179">
         <f t="shared" si="99"/>
         <v>0.54</v>
@@ -21939,7 +21952,7 @@
       <c r="M102" s="259">
         <v>800</v>
       </c>
-      <c r="N102" s="467" t="s">
+      <c r="N102" s="482" t="s">
         <v>399</v>
       </c>
       <c r="O102" s="262">
@@ -22109,7 +22122,7 @@
       <c r="M103" s="259">
         <v>800</v>
       </c>
-      <c r="N103" s="468"/>
+      <c r="N103" s="483"/>
       <c r="O103" s="262">
         <v>131.13999999999999</v>
       </c>
@@ -22277,7 +22290,7 @@
       <c r="M104" s="259">
         <v>800</v>
       </c>
-      <c r="N104" s="468"/>
+      <c r="N104" s="483"/>
       <c r="O104" s="262">
         <v>131.13999999999999</v>
       </c>
@@ -22445,7 +22458,7 @@
       <c r="M105" s="259">
         <v>800</v>
       </c>
-      <c r="N105" s="468"/>
+      <c r="N105" s="483"/>
       <c r="O105" s="262">
         <v>131.13999999999999</v>
       </c>
@@ -22613,7 +22626,7 @@
         <f>(O106/0.75)*20</f>
         <v>316.8</v>
       </c>
-      <c r="N106" s="468"/>
+      <c r="N106" s="483"/>
       <c r="O106" s="262">
         <f>J106*3600/1000</f>
         <v>11.88</v>
@@ -22725,7 +22738,7 @@
         <v>0.11961021600000001</v>
       </c>
       <c r="AW106" s="266">
-        <f t="shared" ref="AW106:AW141" si="106">AV106+AU106+AT106+AS106+AR106</f>
+        <f t="shared" ref="AW106:AW131" si="106">AV106+AU106+AT106+AS106+AR106</f>
         <v>2.007386216</v>
       </c>
       <c r="AX106" s="267">
@@ -22783,7 +22796,7 @@
         <f t="shared" ref="M107:M108" si="107">(O107/0.75)*20</f>
         <v>316.8</v>
       </c>
-      <c r="N107" s="468"/>
+      <c r="N107" s="483"/>
       <c r="O107" s="262">
         <f t="shared" ref="O107:O111" si="108">J107*3600/1000</f>
         <v>11.88</v>
@@ -22953,7 +22966,7 @@
         <f t="shared" si="107"/>
         <v>316.8</v>
       </c>
-      <c r="N108" s="468"/>
+      <c r="N108" s="483"/>
       <c r="O108" s="262">
         <f t="shared" si="108"/>
         <v>11.88</v>
@@ -23121,7 +23134,7 @@
       <c r="M109" s="264">
         <v>0</v>
       </c>
-      <c r="N109" s="468"/>
+      <c r="N109" s="483"/>
       <c r="O109" s="262">
         <f t="shared" si="108"/>
         <v>0.54</v>
@@ -23290,7 +23303,7 @@
       <c r="M110" s="264">
         <v>0</v>
       </c>
-      <c r="N110" s="468"/>
+      <c r="N110" s="483"/>
       <c r="O110" s="262">
         <f t="shared" si="108"/>
         <v>0.54</v>
@@ -23459,7 +23472,7 @@
       <c r="M111" s="264">
         <v>0</v>
       </c>
-      <c r="N111" s="469"/>
+      <c r="N111" s="484"/>
       <c r="O111" s="262">
         <f t="shared" si="108"/>
         <v>0.54</v>
@@ -23627,7 +23640,7 @@
       <c r="M112" s="271">
         <v>500</v>
       </c>
-      <c r="N112" s="441" t="s">
+      <c r="N112" s="485" t="s">
         <v>399</v>
       </c>
       <c r="O112" s="275">
@@ -23797,7 +23810,7 @@
       <c r="M113" s="271">
         <v>500</v>
       </c>
-      <c r="N113" s="442"/>
+      <c r="N113" s="486"/>
       <c r="O113" s="275">
         <v>33.86</v>
       </c>
@@ -23965,7 +23978,7 @@
       <c r="M114" s="271">
         <v>500</v>
       </c>
-      <c r="N114" s="442"/>
+      <c r="N114" s="486"/>
       <c r="O114" s="275">
         <v>33.86</v>
       </c>
@@ -24103,7 +24116,7 @@
         <v>365</v>
       </c>
       <c r="D115" s="272" t="s">
-        <v>360</v>
+        <v>478</v>
       </c>
       <c r="E115" s="273">
         <v>9.9999999999999995E-7</v>
@@ -24133,7 +24146,7 @@
       <c r="M115" s="271">
         <v>500</v>
       </c>
-      <c r="N115" s="442"/>
+      <c r="N115" s="486"/>
       <c r="O115" s="275">
         <v>33.86</v>
       </c>
@@ -24151,7 +24164,7 @@
       </c>
       <c r="T115" s="428" t="str">
         <f t="shared" si="70"/>
-        <v>Полное разрушение - ликвидация пролива и рассеивание выброса (ликвидация аварии)</v>
+        <v>Полное разрушение - ликвидация пролива и рассеивание выброса -токсическое поражение</v>
       </c>
       <c r="U115" s="276" t="s">
         <v>98</v>
@@ -24189,11 +24202,11 @@
       <c r="AF115" s="276" t="s">
         <v>98</v>
       </c>
-      <c r="AG115" s="276" t="s">
-        <v>98</v>
-      </c>
-      <c r="AH115" s="276" t="s">
-        <v>98</v>
+      <c r="AG115" s="276">
+        <v>36</v>
+      </c>
+      <c r="AH115" s="276">
+        <v>83</v>
       </c>
       <c r="AI115" s="276" t="s">
         <v>98</v>
@@ -24208,10 +24221,10 @@
         <v>98</v>
       </c>
       <c r="AM115" s="276">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN115" s="276">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AO115" s="276">
         <v>6.8000000000000005E-2</v>
@@ -24232,11 +24245,11 @@
       </c>
       <c r="AT115" s="278">
         <f>AM115*1.72+115*0.012*AN115</f>
-        <v>0</v>
+        <v>4.4800000000000004</v>
       </c>
       <c r="AU115" s="278">
         <f t="shared" si="112"/>
-        <v>7.4800000000000005E-3</v>
+        <v>0.45548000000000005</v>
       </c>
       <c r="AV115" s="277">
         <f t="shared" si="113"/>
@@ -24244,19 +24257,19 @@
       </c>
       <c r="AW115" s="278">
         <f t="shared" si="106"/>
-        <v>0.42318925199999996</v>
+        <v>5.3511892520000002</v>
       </c>
       <c r="AX115" s="279">
         <f t="shared" si="72"/>
-        <v>0</v>
+        <v>1.5199999999999998E-6</v>
       </c>
       <c r="AY115" s="280">
         <f t="shared" si="73"/>
-        <v>0</v>
+        <v>3.0399999999999997E-6</v>
       </c>
       <c r="AZ115" s="279">
         <f t="shared" si="74"/>
-        <v>6.432476630399999E-7</v>
+        <v>8.1338076630399989E-6</v>
       </c>
     </row>
     <row r="116" spans="1:52" s="276" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
@@ -24301,7 +24314,7 @@
         <f>(O116/0.75)*20</f>
         <v>115.20000000000002</v>
       </c>
-      <c r="N116" s="442"/>
+      <c r="N116" s="486"/>
       <c r="O116" s="275">
         <f>J116*3600/1000</f>
         <v>4.32</v>
@@ -24471,7 +24484,7 @@
         <f t="shared" ref="M117:M118" si="115">(O117/0.75)*20</f>
         <v>115.20000000000002</v>
       </c>
-      <c r="N117" s="442"/>
+      <c r="N117" s="486"/>
       <c r="O117" s="275">
         <f t="shared" ref="O117:O121" si="116">J117*3600/1000</f>
         <v>4.32</v>
@@ -24610,7 +24623,7 @@
         <v>368</v>
       </c>
       <c r="D118" s="272" t="s">
-        <v>361</v>
+        <v>479</v>
       </c>
       <c r="E118" s="273">
         <v>1.0000000000000001E-5</v>
@@ -24641,7 +24654,7 @@
         <f t="shared" si="115"/>
         <v>115.20000000000002</v>
       </c>
-      <c r="N118" s="442"/>
+      <c r="N118" s="486"/>
       <c r="O118" s="275">
         <f t="shared" si="116"/>
         <v>4.32</v>
@@ -24660,7 +24673,7 @@
       </c>
       <c r="T118" s="428" t="str">
         <f t="shared" si="70"/>
-        <v>Частичное разрушение (10 мм) - ликвидация пролива и рассеивание выброса (ликвидация аварии)</v>
+        <v>Частичное разрушение (10 мм) - ликвидация пролива и рассеивание выброса -токсическое поражение</v>
       </c>
       <c r="U118" s="276" t="s">
         <v>98</v>
@@ -24698,11 +24711,11 @@
       <c r="AF118" s="276" t="s">
         <v>98</v>
       </c>
-      <c r="AG118" s="276" t="s">
-        <v>98</v>
-      </c>
-      <c r="AH118" s="276" t="s">
-        <v>98</v>
+      <c r="AG118" s="276">
+        <v>5</v>
+      </c>
+      <c r="AH118" s="276">
+        <v>15</v>
       </c>
       <c r="AI118" s="276" t="s">
         <v>98</v>
@@ -24720,7 +24733,7 @@
         <v>0</v>
       </c>
       <c r="AN118" s="276">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO118" s="276">
         <v>6.8000000000000005E-2</v>
@@ -24741,11 +24754,11 @@
       </c>
       <c r="AT118" s="278">
         <f t="shared" si="114"/>
-        <v>0</v>
+        <v>1.3800000000000001</v>
       </c>
       <c r="AU118" s="278">
         <f t="shared" si="112"/>
-        <v>1.6984000000000003E-2</v>
+        <v>0.15498400000000001</v>
       </c>
       <c r="AV118" s="277">
         <f t="shared" si="113"/>
@@ -24753,7 +24766,7 @@
       </c>
       <c r="AW118" s="278">
         <f t="shared" si="106"/>
-        <v>0.23031862400000003</v>
+        <v>1.7483186240000002</v>
       </c>
       <c r="AX118" s="279">
         <f t="shared" si="72"/>
@@ -24761,11 +24774,11 @@
       </c>
       <c r="AY118" s="280">
         <f t="shared" si="73"/>
-        <v>0</v>
+        <v>2.5600000000000009E-6</v>
       </c>
       <c r="AZ118" s="279">
         <f t="shared" si="74"/>
-        <v>5.8961567744000031E-7</v>
+        <v>4.4756956774400019E-6</v>
       </c>
     </row>
     <row r="119" spans="1:52" s="276" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
@@ -24809,7 +24822,7 @@
       <c r="M119" s="276">
         <v>0</v>
       </c>
-      <c r="N119" s="442"/>
+      <c r="N119" s="486"/>
       <c r="O119" s="275">
         <f t="shared" si="116"/>
         <v>7.1999999999999995E-2</v>
@@ -24978,7 +24991,7 @@
       <c r="M120" s="276">
         <v>0</v>
       </c>
-      <c r="N120" s="442"/>
+      <c r="N120" s="486"/>
       <c r="O120" s="275">
         <f t="shared" si="116"/>
         <v>7.1999999999999995E-2</v>
@@ -25117,7 +25130,7 @@
         <v>371</v>
       </c>
       <c r="D121" s="272" t="s">
-        <v>347</v>
+        <v>480</v>
       </c>
       <c r="E121" s="273">
         <v>1.0000000000000001E-5</v>
@@ -25147,7 +25160,7 @@
       <c r="M121" s="276">
         <v>0</v>
       </c>
-      <c r="N121" s="470"/>
+      <c r="N121" s="487"/>
       <c r="O121" s="275">
         <f t="shared" si="116"/>
         <v>7.1999999999999995E-2</v>
@@ -25166,7 +25179,7 @@
       </c>
       <c r="T121" s="428" t="str">
         <f t="shared" si="70"/>
-        <v>Частичное разрушение (10 мм) - рассеивание выброса (ликвидация аварии)</v>
+        <v>Частичное разрушение (10 мм) - рассеивание выброса -токсическое поражение</v>
       </c>
       <c r="U121" s="276" t="s">
         <v>98</v>
@@ -25204,11 +25217,11 @@
       <c r="AF121" s="276" t="s">
         <v>98</v>
       </c>
-      <c r="AG121" s="276" t="s">
-        <v>98</v>
-      </c>
-      <c r="AH121" s="276" t="s">
-        <v>98</v>
+      <c r="AG121" s="276">
+        <v>3</v>
+      </c>
+      <c r="AH121" s="276">
+        <v>8</v>
       </c>
       <c r="AI121" s="276" t="s">
         <v>98</v>
@@ -25226,7 +25239,7 @@
         <v>0</v>
       </c>
       <c r="AN121" s="276">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO121" s="276">
         <v>6.8000000000000005E-2</v>
@@ -25247,11 +25260,11 @@
       </c>
       <c r="AT121" s="278">
         <f t="shared" si="114"/>
-        <v>0</v>
+        <v>1.3800000000000001</v>
       </c>
       <c r="AU121" s="278">
         <f t="shared" si="112"/>
-        <v>7.6384000000000009E-3</v>
+        <v>0.14563840000000003</v>
       </c>
       <c r="AV121" s="277">
         <f t="shared" si="113"/>
@@ -25259,7 +25272,7 @@
       </c>
       <c r="AW121" s="278">
         <f t="shared" si="106"/>
-        <v>8.4747310399999998E-2</v>
+        <v>1.6027473104000001</v>
       </c>
       <c r="AX121" s="279">
         <f t="shared" si="72"/>
@@ -25267,11 +25280,11 @@
       </c>
       <c r="AY121" s="280">
         <f t="shared" si="73"/>
-        <v>0</v>
+        <v>1.2160000000000002E-5</v>
       </c>
       <c r="AZ121" s="279">
         <f t="shared" si="74"/>
-        <v>1.0305272944640002E-6</v>
+        <v>1.9489407294464003E-5</v>
       </c>
     </row>
     <row r="122" spans="1:52" s="5" customFormat="1" x14ac:dyDescent="0.3">
@@ -25315,7 +25328,7 @@
       <c r="M122" s="283">
         <v>930</v>
       </c>
-      <c r="N122" s="471" t="s">
+      <c r="N122" s="476" t="s">
         <v>399</v>
       </c>
       <c r="O122" s="287">
@@ -25485,7 +25498,7 @@
       <c r="M123" s="283">
         <v>930</v>
       </c>
-      <c r="N123" s="472"/>
+      <c r="N123" s="477"/>
       <c r="O123" s="287">
         <v>55.19</v>
       </c>
@@ -25653,7 +25666,7 @@
       <c r="M124" s="283">
         <v>930</v>
       </c>
-      <c r="N124" s="472"/>
+      <c r="N124" s="477"/>
       <c r="O124" s="287">
         <v>55.19</v>
       </c>
@@ -25821,7 +25834,7 @@
       <c r="M125" s="283">
         <v>930</v>
       </c>
-      <c r="N125" s="472"/>
+      <c r="N125" s="477"/>
       <c r="O125" s="287">
         <v>55.19</v>
       </c>
@@ -25989,7 +26002,7 @@
         <f>(O126/0.75)*20</f>
         <v>240</v>
       </c>
-      <c r="N126" s="472"/>
+      <c r="N126" s="477"/>
       <c r="O126" s="287">
         <f>J126*3600/1000</f>
         <v>9</v>
@@ -26159,7 +26172,7 @@
         <f t="shared" ref="M127:M128" si="123">(O127/0.75)*20</f>
         <v>240</v>
       </c>
-      <c r="N127" s="472"/>
+      <c r="N127" s="477"/>
       <c r="O127" s="287">
         <f t="shared" ref="O127:O131" si="124">J127*3600/1000</f>
         <v>9</v>
@@ -26329,7 +26342,7 @@
         <f t="shared" si="123"/>
         <v>240</v>
       </c>
-      <c r="N128" s="472"/>
+      <c r="N128" s="477"/>
       <c r="O128" s="287">
         <f t="shared" si="124"/>
         <v>9</v>
@@ -26497,7 +26510,7 @@
       <c r="M129" s="289">
         <v>0</v>
       </c>
-      <c r="N129" s="472"/>
+      <c r="N129" s="477"/>
       <c r="O129" s="287">
         <f t="shared" si="124"/>
         <v>7.1999999999999995E-2</v>
@@ -26666,7 +26679,7 @@
       <c r="M130" s="289">
         <v>0</v>
       </c>
-      <c r="N130" s="472"/>
+      <c r="N130" s="477"/>
       <c r="O130" s="287">
         <f t="shared" si="124"/>
         <v>7.1999999999999995E-2</v>
@@ -26835,7 +26848,7 @@
       <c r="M131" s="289">
         <v>0</v>
       </c>
-      <c r="N131" s="473"/>
+      <c r="N131" s="478"/>
       <c r="O131" s="287">
         <f t="shared" si="124"/>
         <v>7.1999999999999995E-2</v>
@@ -27004,7 +27017,7 @@
         <f>(O132/0.75)*20</f>
         <v>2080</v>
       </c>
-      <c r="N132" s="476"/>
+      <c r="N132" s="456"/>
       <c r="O132" s="250">
         <f>J132*12/1000</f>
         <v>78</v>
@@ -27168,7 +27181,7 @@
         <f t="shared" ref="M133:M135" si="132">(O133/0.75)*20</f>
         <v>2080</v>
       </c>
-      <c r="N133" s="477"/>
+      <c r="N133" s="457"/>
       <c r="O133" s="250">
         <f t="shared" ref="O133:O135" si="133">J133*12/1000</f>
         <v>78</v>
@@ -27338,7 +27351,7 @@
         <f t="shared" si="132"/>
         <v>2080</v>
       </c>
-      <c r="N134" s="477"/>
+      <c r="N134" s="457"/>
       <c r="O134" s="250">
         <f t="shared" si="133"/>
         <v>78</v>
@@ -27508,7 +27521,7 @@
         <f t="shared" si="132"/>
         <v>2080</v>
       </c>
-      <c r="N135" s="477"/>
+      <c r="N135" s="457"/>
       <c r="O135" s="250">
         <f t="shared" si="133"/>
         <v>78</v>
@@ -27677,7 +27690,7 @@
         <f>(O136/0.75)*20</f>
         <v>431.99999999999994</v>
       </c>
-      <c r="N136" s="477"/>
+      <c r="N136" s="457"/>
       <c r="O136" s="250">
         <f>J136*3600/1000</f>
         <v>16.2</v>
@@ -27847,7 +27860,7 @@
         <f t="shared" ref="M137:M138" si="140">(O137/0.75)*20</f>
         <v>431.99999999999994</v>
       </c>
-      <c r="N137" s="477"/>
+      <c r="N137" s="457"/>
       <c r="O137" s="250">
         <f t="shared" ref="O137:O138" si="141">J137*3600/1000</f>
         <v>16.2</v>
@@ -28017,7 +28030,7 @@
         <f t="shared" si="140"/>
         <v>431.99999999999994</v>
       </c>
-      <c r="N138" s="477"/>
+      <c r="N138" s="457"/>
       <c r="O138" s="250">
         <f t="shared" si="141"/>
         <v>16.2</v>
@@ -28186,7 +28199,7 @@
         <f>(O139/0.75)*20</f>
         <v>2432</v>
       </c>
-      <c r="N139" s="447"/>
+      <c r="N139" s="495"/>
       <c r="O139" s="303">
         <f>J139*12/1000</f>
         <v>91.2</v>
@@ -28356,7 +28369,7 @@
         <f t="shared" ref="M140:M142" si="143">(O140/0.75)*20</f>
         <v>2432</v>
       </c>
-      <c r="N140" s="448"/>
+      <c r="N140" s="496"/>
       <c r="O140" s="303">
         <f t="shared" ref="O140:O142" si="144">J140*12/1000</f>
         <v>91.2</v>
@@ -28526,7 +28539,7 @@
         <f t="shared" si="143"/>
         <v>2432</v>
       </c>
-      <c r="N141" s="448"/>
+      <c r="N141" s="496"/>
       <c r="O141" s="303">
         <f t="shared" si="144"/>
         <v>91.2</v>
@@ -28618,7 +28631,7 @@
         <v>5</v>
       </c>
       <c r="AR141" s="306">
-        <f t="shared" ref="AR141:AR204" si="145">AP141*P141+AO141</f>
+        <f t="shared" ref="AR141:AR142" si="145">AP141*P141+AO141</f>
         <v>1.6628498675491706E-2</v>
       </c>
       <c r="AS141" s="306">
@@ -28696,7 +28709,7 @@
         <f t="shared" si="143"/>
         <v>2432</v>
       </c>
-      <c r="N142" s="448"/>
+      <c r="N142" s="496"/>
       <c r="O142" s="303">
         <f t="shared" si="144"/>
         <v>91.2</v>
@@ -28865,7 +28878,7 @@
         <f>(O143/0.75)*20</f>
         <v>508.79999999999995</v>
       </c>
-      <c r="N143" s="448"/>
+      <c r="N143" s="496"/>
       <c r="O143" s="303">
         <f>J143*3600/1000</f>
         <v>19.079999999999998</v>
@@ -28957,7 +28970,7 @@
         <v>2</v>
       </c>
       <c r="AR143" s="306">
-        <f t="shared" ref="AR143:AR206" si="146">AP143*O143+AO143</f>
+        <f t="shared" ref="AR143:AR147" si="146">AP143*O143+AO143</f>
         <v>0.3826</v>
       </c>
       <c r="AS143" s="306">
@@ -29035,7 +29048,7 @@
         <f t="shared" ref="M144:M145" si="147">(O144/0.75)*20</f>
         <v>508.79999999999995</v>
       </c>
-      <c r="N144" s="448"/>
+      <c r="N144" s="496"/>
       <c r="O144" s="303">
         <f t="shared" ref="O144:O145" si="148">J144*3600/1000</f>
         <v>19.079999999999998</v>
@@ -29205,7 +29218,7 @@
         <f t="shared" si="147"/>
         <v>508.79999999999995</v>
       </c>
-      <c r="N145" s="448"/>
+      <c r="N145" s="496"/>
       <c r="O145" s="303">
         <f t="shared" si="148"/>
         <v>19.079999999999998</v>
@@ -29373,7 +29386,7 @@
       <c r="M146" s="417">
         <v>1800</v>
       </c>
-      <c r="N146" s="445"/>
+      <c r="N146" s="479"/>
       <c r="O146" s="408">
         <f>60*0.8*0.75</f>
         <v>36</v>
@@ -29542,7 +29555,7 @@
       <c r="M147" s="417">
         <v>1800</v>
       </c>
-      <c r="N147" s="446"/>
+      <c r="N147" s="480"/>
       <c r="O147" s="408">
         <f t="shared" ref="O147:O149" si="150">60*0.8*0.75</f>
         <v>36</v>
@@ -29711,7 +29724,7 @@
       <c r="M148" s="417">
         <v>1800</v>
       </c>
-      <c r="N148" s="446"/>
+      <c r="N148" s="480"/>
       <c r="O148" s="408">
         <f t="shared" si="150"/>
         <v>36</v>
@@ -29803,7 +29816,7 @@
         <v>5</v>
       </c>
       <c r="AR148" s="412">
-        <f t="shared" ref="AR148:AR211" si="152">AP148*P148+AO148</f>
+        <f t="shared" ref="AR148:AR149" si="152">AP148*P148+AO148</f>
         <v>0.55490596119074231</v>
       </c>
       <c r="AS148" s="412">
@@ -29880,7 +29893,7 @@
       <c r="M149" s="417">
         <v>1800</v>
       </c>
-      <c r="N149" s="446"/>
+      <c r="N149" s="480"/>
       <c r="O149" s="408">
         <f t="shared" si="150"/>
         <v>36</v>
@@ -30049,7 +30062,7 @@
         <f>(O150/0.75)*20</f>
         <v>67.2</v>
       </c>
-      <c r="N150" s="446"/>
+      <c r="N150" s="480"/>
       <c r="O150" s="408">
         <f>J150*3600/1000</f>
         <v>2.52</v>
@@ -30141,7 +30154,7 @@
         <v>2</v>
       </c>
       <c r="AR150" s="412">
-        <f t="shared" ref="AR150:AR213" si="153">AP150*O150+AO150</f>
+        <f t="shared" ref="AR150:AR154" si="153">AP150*O150+AO150</f>
         <v>0.10539999999999999</v>
       </c>
       <c r="AS150" s="412">
@@ -30219,7 +30232,7 @@
         <f t="shared" ref="M151:M152" si="154">(O151/0.75)*20</f>
         <v>67.2</v>
       </c>
-      <c r="N151" s="446"/>
+      <c r="N151" s="480"/>
       <c r="O151" s="408">
         <f t="shared" ref="O151:O152" si="155">J151*3600/1000</f>
         <v>2.52</v>
@@ -30389,7 +30402,7 @@
         <f t="shared" si="154"/>
         <v>67.2</v>
       </c>
-      <c r="N152" s="446"/>
+      <c r="N152" s="480"/>
       <c r="O152" s="408">
         <f t="shared" si="155"/>
         <v>2.52</v>
@@ -30557,7 +30570,7 @@
       <c r="M153" s="342">
         <v>6500</v>
       </c>
-      <c r="N153" s="449"/>
+      <c r="N153" s="497"/>
       <c r="O153" s="343">
         <v>199.2</v>
       </c>
@@ -30725,7 +30738,7 @@
       <c r="M154" s="342">
         <v>6500</v>
       </c>
-      <c r="N154" s="450"/>
+      <c r="N154" s="498"/>
       <c r="O154" s="343">
         <v>199.2</v>
       </c>
@@ -30893,7 +30906,7 @@
       <c r="M155" s="342">
         <v>6500</v>
       </c>
-      <c r="N155" s="450"/>
+      <c r="N155" s="498"/>
       <c r="O155" s="343">
         <v>199.2</v>
       </c>
@@ -30984,7 +30997,7 @@
         <v>5</v>
       </c>
       <c r="AR155" s="346">
-        <f t="shared" ref="AR155:AR218" si="157">AP155*P155+AO155</f>
+        <f t="shared" ref="AR155:AR156" si="157">AP155*P155+AO155</f>
         <v>0.55183596823501935</v>
       </c>
       <c r="AS155" s="346">
@@ -31061,7 +31074,7 @@
       <c r="M156" s="342">
         <v>6500</v>
       </c>
-      <c r="N156" s="450"/>
+      <c r="N156" s="498"/>
       <c r="O156" s="343">
         <v>199.2</v>
       </c>
@@ -31229,7 +31242,7 @@
         <f>(O157/0.75)*20</f>
         <v>364.79999999999995</v>
       </c>
-      <c r="N157" s="450"/>
+      <c r="N157" s="498"/>
       <c r="O157" s="343">
         <f>J157*3600/1000</f>
         <v>13.68</v>
@@ -31321,7 +31334,7 @@
         <v>2</v>
       </c>
       <c r="AR157" s="346">
-        <f t="shared" ref="AR157:AR220" si="158">AP157*O157+AO157</f>
+        <f t="shared" ref="AR157:AR161" si="158">AP157*O157+AO157</f>
         <v>0.3286</v>
       </c>
       <c r="AS157" s="346">
@@ -31399,7 +31412,7 @@
         <f t="shared" ref="M158:M159" si="159">(O158/0.75)*20</f>
         <v>364.79999999999995</v>
       </c>
-      <c r="N158" s="450"/>
+      <c r="N158" s="498"/>
       <c r="O158" s="343">
         <f t="shared" ref="O158:O159" si="160">J158*3600/1000</f>
         <v>13.68</v>
@@ -31569,7 +31582,7 @@
         <f t="shared" si="159"/>
         <v>364.79999999999995</v>
       </c>
-      <c r="N159" s="450"/>
+      <c r="N159" s="498"/>
       <c r="O159" s="343">
         <f t="shared" si="160"/>
         <v>13.68</v>
@@ -31737,7 +31750,7 @@
       <c r="M160" s="355">
         <v>2700</v>
       </c>
-      <c r="N160" s="451"/>
+      <c r="N160" s="499"/>
       <c r="O160" s="356">
         <v>83</v>
       </c>
@@ -31905,7 +31918,7 @@
       <c r="M161" s="355">
         <v>2700</v>
       </c>
-      <c r="N161" s="452"/>
+      <c r="N161" s="500"/>
       <c r="O161" s="356">
         <v>83</v>
       </c>
@@ -32073,7 +32086,7 @@
       <c r="M162" s="355">
         <v>2700</v>
       </c>
-      <c r="N162" s="452"/>
+      <c r="N162" s="500"/>
       <c r="O162" s="356">
         <v>83</v>
       </c>
@@ -32164,7 +32177,7 @@
         <v>5</v>
       </c>
       <c r="AR162" s="359">
-        <f t="shared" ref="AR162:AR225" si="162">AP162*P162+AO162</f>
+        <f t="shared" ref="AR162:AR163" si="162">AP162*P162+AO162</f>
         <v>0.55673561635487068</v>
       </c>
       <c r="AS162" s="359">
@@ -32241,7 +32254,7 @@
       <c r="M163" s="355">
         <v>2700</v>
       </c>
-      <c r="N163" s="452"/>
+      <c r="N163" s="500"/>
       <c r="O163" s="356">
         <v>83</v>
       </c>
@@ -32409,7 +32422,7 @@
         <f>(O164/0.75)*20</f>
         <v>278.39999999999998</v>
       </c>
-      <c r="N164" s="452"/>
+      <c r="N164" s="500"/>
       <c r="O164" s="356">
         <f>J164*3600/1000</f>
         <v>10.44</v>
@@ -32501,7 +32514,7 @@
         <v>2</v>
       </c>
       <c r="AR164" s="359">
-        <f t="shared" ref="AR164:AR227" si="163">AP164*O164+AO164</f>
+        <f t="shared" ref="AR164:AR168" si="163">AP164*O164+AO164</f>
         <v>0.26379999999999998</v>
       </c>
       <c r="AS164" s="359">
@@ -32579,7 +32592,7 @@
         <f t="shared" ref="M165:M166" si="164">(O165/0.75)*20</f>
         <v>278.39999999999998</v>
       </c>
-      <c r="N165" s="452"/>
+      <c r="N165" s="500"/>
       <c r="O165" s="356">
         <f t="shared" ref="O165:O166" si="165">J165*3600/1000</f>
         <v>10.44</v>
@@ -32749,7 +32762,7 @@
         <f t="shared" si="164"/>
         <v>278.39999999999998</v>
       </c>
-      <c r="N166" s="452"/>
+      <c r="N166" s="500"/>
       <c r="O166" s="356">
         <f t="shared" si="165"/>
         <v>10.44</v>
@@ -32917,7 +32930,7 @@
       <c r="M167" s="368">
         <v>3300</v>
       </c>
-      <c r="N167" s="453"/>
+      <c r="N167" s="501"/>
       <c r="O167" s="369">
         <v>146.08000000000001</v>
       </c>
@@ -33085,7 +33098,7 @@
       <c r="M168" s="368">
         <v>3300</v>
       </c>
-      <c r="N168" s="454"/>
+      <c r="N168" s="502"/>
       <c r="O168" s="369">
         <v>146.08000000000001</v>
       </c>
@@ -33253,7 +33266,7 @@
       <c r="M169" s="368">
         <v>3300</v>
       </c>
-      <c r="N169" s="454"/>
+      <c r="N169" s="502"/>
       <c r="O169" s="369">
         <v>146.08000000000001</v>
       </c>
@@ -33344,7 +33357,7 @@
         <v>5</v>
       </c>
       <c r="AR169" s="372">
-        <f t="shared" ref="AR169:AR232" si="167">AP169*P169+AO169</f>
+        <f t="shared" ref="AR169:AR170" si="167">AP169*P169+AO169</f>
         <v>0.55463703656539398</v>
       </c>
       <c r="AS169" s="372">
@@ -33391,7 +33404,7 @@
         <v>466</v>
       </c>
       <c r="D170" s="365" t="s">
-        <v>360</v>
+        <v>478</v>
       </c>
       <c r="E170" s="366">
         <v>1.0000000000000001E-5</v>
@@ -33421,7 +33434,7 @@
       <c r="M170" s="368">
         <v>3300</v>
       </c>
-      <c r="N170" s="454"/>
+      <c r="N170" s="502"/>
       <c r="O170" s="369">
         <v>146.08000000000001</v>
       </c>
@@ -33439,7 +33452,7 @@
       </c>
       <c r="T170" s="432" t="str">
         <f t="shared" si="127"/>
-        <v>Полное разрушение - ликвидация пролива и рассеивание выброса (ликвидация аварии)</v>
+        <v>Полное разрушение - ликвидация пролива и рассеивание выброса -токсическое поражение</v>
       </c>
       <c r="U170" s="371" t="s">
         <v>98</v>
@@ -33477,11 +33490,11 @@
       <c r="AF170" s="371" t="s">
         <v>98</v>
       </c>
-      <c r="AG170" s="371" t="s">
-        <v>98</v>
-      </c>
-      <c r="AH170" s="371" t="s">
-        <v>98</v>
+      <c r="AG170" s="371">
+        <v>9</v>
+      </c>
+      <c r="AH170" s="371">
+        <v>47</v>
       </c>
       <c r="AI170" s="371" t="s">
         <v>98</v>
@@ -33499,7 +33512,7 @@
         <v>0</v>
       </c>
       <c r="AN170" s="371">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AO170" s="371">
         <v>0.55000000000000004</v>
@@ -33520,11 +33533,11 @@
       </c>
       <c r="AT170" s="373">
         <f t="shared" si="139"/>
-        <v>0</v>
+        <v>2.7600000000000002</v>
       </c>
       <c r="AU170" s="373">
         <f t="shared" si="135"/>
-        <v>6.0500000000000012E-2</v>
+        <v>0.33650000000000002</v>
       </c>
       <c r="AV170" s="372">
         <f t="shared" si="136"/>
@@ -33532,7 +33545,7 @@
       </c>
       <c r="AW170" s="373">
         <f t="shared" si="137"/>
-        <v>2.1362626560000004</v>
+        <v>5.172262656</v>
       </c>
       <c r="AX170" s="374">
         <f t="shared" si="128"/>
@@ -33540,11 +33553,11 @@
       </c>
       <c r="AY170" s="375">
         <f t="shared" si="129"/>
-        <v>0</v>
+        <v>1.5200000000000002E-5</v>
       </c>
       <c r="AZ170" s="374">
         <f t="shared" si="130"/>
-        <v>1.6235596185600006E-5</v>
+        <v>3.9309196185600005E-5</v>
       </c>
     </row>
     <row r="171" spans="1:52" s="371" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
@@ -33589,7 +33602,7 @@
         <f>(O171/0.75)*20</f>
         <v>316.8</v>
       </c>
-      <c r="N171" s="454"/>
+      <c r="N171" s="502"/>
       <c r="O171" s="369">
         <f>J171*3600/1000</f>
         <v>11.88</v>
@@ -33681,7 +33694,7 @@
         <v>2</v>
       </c>
       <c r="AR171" s="372">
-        <f t="shared" ref="AR171:AR234" si="168">AP171*O171+AO171</f>
+        <f t="shared" ref="AR171:AR175" si="168">AP171*O171+AO171</f>
         <v>0.29260000000000003</v>
       </c>
       <c r="AS171" s="372">
@@ -33759,7 +33772,7 @@
         <f t="shared" ref="M172:M173" si="169">(O172/0.75)*20</f>
         <v>316.8</v>
       </c>
-      <c r="N172" s="454"/>
+      <c r="N172" s="502"/>
       <c r="O172" s="369">
         <f t="shared" ref="O172:O173" si="170">J172*3600/1000</f>
         <v>11.88</v>
@@ -33898,7 +33911,7 @@
         <v>469</v>
       </c>
       <c r="D173" s="365" t="s">
-        <v>361</v>
+        <v>479</v>
       </c>
       <c r="E173" s="366">
         <v>1E-4</v>
@@ -33929,7 +33942,7 @@
         <f t="shared" si="169"/>
         <v>316.8</v>
       </c>
-      <c r="N173" s="454"/>
+      <c r="N173" s="502"/>
       <c r="O173" s="369">
         <f t="shared" si="170"/>
         <v>11.88</v>
@@ -33948,7 +33961,7 @@
       </c>
       <c r="T173" s="432" t="str">
         <f t="shared" si="127"/>
-        <v>Частичное разрушение (10 мм) - ликвидация пролива и рассеивание выброса (ликвидация аварии)</v>
+        <v>Частичное разрушение (10 мм) - ликвидация пролива и рассеивание выброса -токсическое поражение</v>
       </c>
       <c r="U173" s="371" t="s">
         <v>98</v>
@@ -33986,11 +33999,11 @@
       <c r="AF173" s="371" t="s">
         <v>98</v>
       </c>
-      <c r="AG173" s="371" t="s">
-        <v>98</v>
-      </c>
-      <c r="AH173" s="371" t="s">
-        <v>98</v>
+      <c r="AG173" s="371">
+        <v>3</v>
+      </c>
+      <c r="AH173" s="371">
+        <v>5</v>
       </c>
       <c r="AI173" s="371" t="s">
         <v>98</v>
@@ -34008,7 +34021,7 @@
         <v>0</v>
       </c>
       <c r="AN173" s="371">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO173" s="371">
         <v>5.5E-2</v>
@@ -34029,11 +34042,11 @@
       </c>
       <c r="AT173" s="373">
         <f t="shared" si="139"/>
-        <v>0</v>
+        <v>1.3800000000000001</v>
       </c>
       <c r="AU173" s="373">
         <f t="shared" si="135"/>
-        <v>3.2186000000000006E-2</v>
+        <v>0.17018600000000003</v>
       </c>
       <c r="AV173" s="372">
         <f t="shared" si="136"/>
@@ -34041,7 +34054,7 @@
       </c>
       <c r="AW173" s="373">
         <f t="shared" si="137"/>
-        <v>0.47365621600000007</v>
+        <v>1.9916562160000002</v>
       </c>
       <c r="AX173" s="374">
         <f t="shared" si="128"/>
@@ -34049,11 +34062,11 @@
       </c>
       <c r="AY173" s="375">
         <f t="shared" si="129"/>
-        <v>0</v>
+        <v>6.4000000000000011E-5</v>
       </c>
       <c r="AZ173" s="374">
         <f t="shared" si="130"/>
-        <v>3.0313997824000011E-5</v>
+        <v>1.2746599782400002E-4</v>
       </c>
     </row>
     <row r="174" spans="1:52" s="384" customFormat="1" x14ac:dyDescent="0.3">
@@ -34097,7 +34110,7 @@
       <c r="M174" s="381">
         <v>2600</v>
       </c>
-      <c r="N174" s="455"/>
+      <c r="N174" s="503"/>
       <c r="O174" s="382">
         <v>75.77</v>
       </c>
@@ -34265,7 +34278,7 @@
       <c r="M175" s="381">
         <v>2600</v>
       </c>
-      <c r="N175" s="456"/>
+      <c r="N175" s="504"/>
       <c r="O175" s="382">
         <v>75.77</v>
       </c>
@@ -34433,7 +34446,7 @@
       <c r="M176" s="381">
         <v>2600</v>
       </c>
-      <c r="N176" s="456"/>
+      <c r="N176" s="504"/>
       <c r="O176" s="382">
         <v>75.77</v>
       </c>
@@ -34524,7 +34537,7 @@
         <v>5</v>
       </c>
       <c r="AR176" s="385">
-        <f t="shared" ref="AR176:AR239" si="172">AP176*P176+AO176</f>
+        <f t="shared" ref="AR176:AR177" si="172">AP176*P176+AO176</f>
         <v>0.55365342274849216</v>
       </c>
       <c r="AS176" s="385">
@@ -34571,7 +34584,7 @@
         <v>466</v>
       </c>
       <c r="D177" s="378" t="s">
-        <v>360</v>
+        <v>478</v>
       </c>
       <c r="E177" s="379">
         <v>1.0000000000000001E-5</v>
@@ -34601,7 +34614,7 @@
       <c r="M177" s="381">
         <v>2600</v>
       </c>
-      <c r="N177" s="456"/>
+      <c r="N177" s="504"/>
       <c r="O177" s="382">
         <v>75.77</v>
       </c>
@@ -34619,7 +34632,7 @@
       </c>
       <c r="T177" s="433" t="str">
         <f t="shared" si="127"/>
-        <v>Полное разрушение - ликвидация пролива и рассеивание выброса (ликвидация аварии)</v>
+        <v>Полное разрушение - ликвидация пролива и рассеивание выброса -токсическое поражение</v>
       </c>
       <c r="U177" s="384" t="s">
         <v>98</v>
@@ -34657,11 +34670,11 @@
       <c r="AF177" s="384" t="s">
         <v>98</v>
       </c>
-      <c r="AG177" s="384" t="s">
-        <v>98</v>
-      </c>
-      <c r="AH177" s="384" t="s">
-        <v>98</v>
+      <c r="AG177" s="384">
+        <v>26</v>
+      </c>
+      <c r="AH177" s="384">
+        <v>103</v>
       </c>
       <c r="AI177" s="384" t="s">
         <v>98</v>
@@ -34676,10 +34689,10 @@
         <v>98</v>
       </c>
       <c r="AM177" s="384">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN177" s="384">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AO177" s="384">
         <v>0.55000000000000004</v>
@@ -34700,11 +34713,11 @@
       </c>
       <c r="AT177" s="386">
         <f t="shared" si="139"/>
-        <v>0</v>
+        <v>4.4800000000000004</v>
       </c>
       <c r="AU177" s="386">
         <f t="shared" si="135"/>
-        <v>6.0500000000000012E-2</v>
+        <v>0.50850000000000006</v>
       </c>
       <c r="AV177" s="385">
         <f t="shared" si="136"/>
@@ -34712,19 +34725,19 @@
       </c>
       <c r="AW177" s="386">
         <f t="shared" si="137"/>
-        <v>1.4283675140000001</v>
+        <v>6.3563675139999996</v>
       </c>
       <c r="AX177" s="387">
         <f t="shared" si="128"/>
-        <v>0</v>
+        <v>1.5200000000000002E-5</v>
       </c>
       <c r="AY177" s="388">
         <f t="shared" si="129"/>
-        <v>0</v>
+        <v>3.0400000000000004E-5</v>
       </c>
       <c r="AZ177" s="387">
         <f t="shared" si="130"/>
-        <v>2.1711186212800004E-5</v>
+        <v>9.6616786212800007E-5</v>
       </c>
     </row>
     <row r="178" spans="1:52" s="384" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
@@ -34769,7 +34782,7 @@
         <f>(O178/0.75)*20</f>
         <v>431.99999999999994</v>
       </c>
-      <c r="N178" s="456"/>
+      <c r="N178" s="504"/>
       <c r="O178" s="382">
         <f>J178*3600/1000</f>
         <v>16.2</v>
@@ -34861,7 +34874,7 @@
         <v>2</v>
       </c>
       <c r="AR178" s="385">
-        <f t="shared" ref="AR178:AR241" si="173">AP178*O178+AO178</f>
+        <f t="shared" ref="AR178:AR182" si="173">AP178*O178+AO178</f>
         <v>0.379</v>
       </c>
       <c r="AS178" s="385">
@@ -34939,7 +34952,7 @@
         <f t="shared" ref="M179:M180" si="174">(O179/0.75)*20</f>
         <v>431.99999999999994</v>
       </c>
-      <c r="N179" s="456"/>
+      <c r="N179" s="504"/>
       <c r="O179" s="382">
         <f t="shared" ref="O179:O180" si="175">J179*3600/1000</f>
         <v>16.2</v>
@@ -35078,7 +35091,7 @@
         <v>469</v>
       </c>
       <c r="D180" s="378" t="s">
-        <v>361</v>
+        <v>481</v>
       </c>
       <c r="E180" s="379">
         <v>1E-4</v>
@@ -35109,7 +35122,7 @@
         <f t="shared" si="174"/>
         <v>431.99999999999994</v>
       </c>
-      <c r="N180" s="456"/>
+      <c r="N180" s="504"/>
       <c r="O180" s="382">
         <f t="shared" si="175"/>
         <v>16.2</v>
@@ -35128,7 +35141,7 @@
       </c>
       <c r="T180" s="433" t="str">
         <f t="shared" si="127"/>
-        <v>Частичное разрушение (10 мм) - ликвидация пролива и рассеивание выброса (ликвидация аварии)</v>
+        <v>Частичное разрушение (10 мм) - ликвидация пролива и рассеивание выброса-токсическое поражение</v>
       </c>
       <c r="U180" s="384" t="s">
         <v>98</v>
@@ -35166,11 +35179,11 @@
       <c r="AF180" s="384" t="s">
         <v>98</v>
       </c>
-      <c r="AG180" s="384" t="s">
-        <v>98</v>
-      </c>
-      <c r="AH180" s="384" t="s">
-        <v>98</v>
+      <c r="AG180" s="384">
+        <v>10</v>
+      </c>
+      <c r="AH180" s="384">
+        <v>23</v>
       </c>
       <c r="AI180" s="384" t="s">
         <v>98</v>
@@ -35188,7 +35201,7 @@
         <v>0</v>
       </c>
       <c r="AN180" s="384">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AO180" s="384">
         <v>5.5E-2</v>
@@ -35209,11 +35222,11 @@
       </c>
       <c r="AT180" s="386">
         <f t="shared" si="139"/>
-        <v>0</v>
+        <v>2.7600000000000002</v>
       </c>
       <c r="AU180" s="386">
         <f t="shared" si="135"/>
-        <v>4.1690000000000005E-2</v>
+        <v>0.31769000000000003</v>
       </c>
       <c r="AV180" s="385">
         <f t="shared" si="136"/>
@@ -35221,7 +35234,7 @@
       </c>
       <c r="AW180" s="386">
         <f t="shared" si="137"/>
-        <v>0.62169483999999997</v>
+        <v>3.6576948400000004</v>
       </c>
       <c r="AX180" s="387">
         <f t="shared" si="128"/>
@@ -35229,11 +35242,11 @@
       </c>
       <c r="AY180" s="388">
         <f t="shared" si="129"/>
-        <v>0</v>
+        <v>2.5600000000000004E-4</v>
       </c>
       <c r="AZ180" s="387">
         <f t="shared" si="130"/>
-        <v>7.9576939520000005E-5</v>
+        <v>4.6818493952000012E-4</v>
       </c>
     </row>
     <row r="181" spans="1:52" s="397" customFormat="1" x14ac:dyDescent="0.3">
@@ -35278,7 +35291,7 @@
         <f>(O181/0.75)*20</f>
         <v>160</v>
       </c>
-      <c r="N181" s="457"/>
+      <c r="N181" s="505"/>
       <c r="O181" s="395">
         <f>J181*12/1000</f>
         <v>6</v>
@@ -35448,7 +35461,7 @@
         <f t="shared" ref="M182:M184" si="177">(O182/0.75)*20</f>
         <v>160</v>
       </c>
-      <c r="N182" s="458"/>
+      <c r="N182" s="506"/>
       <c r="O182" s="395">
         <f t="shared" ref="O182:O184" si="178">J182*12/1000</f>
         <v>6</v>
@@ -35618,7 +35631,7 @@
         <f t="shared" si="177"/>
         <v>160</v>
       </c>
-      <c r="N183" s="458"/>
+      <c r="N183" s="506"/>
       <c r="O183" s="395">
         <f t="shared" si="178"/>
         <v>6</v>
@@ -35710,7 +35723,7 @@
         <v>5</v>
       </c>
       <c r="AR183" s="398">
-        <f t="shared" ref="AR183:AR243" si="179">AP183*P183+AO183</f>
+        <f t="shared" ref="AR183:AR184" si="179">AP183*P183+AO183</f>
         <v>0.5504360854391771</v>
       </c>
       <c r="AS183" s="398">
@@ -35788,7 +35801,7 @@
         <f t="shared" si="177"/>
         <v>160</v>
       </c>
-      <c r="N184" s="458"/>
+      <c r="N184" s="506"/>
       <c r="O184" s="395">
         <f t="shared" si="178"/>
         <v>6</v>
@@ -35957,7 +35970,7 @@
         <f>(O185/0.75)*20</f>
         <v>86.4</v>
       </c>
-      <c r="N185" s="458"/>
+      <c r="N185" s="506"/>
       <c r="O185" s="395">
         <f>J185*3600/1000</f>
         <v>3.24</v>
@@ -36049,7 +36062,7 @@
         <v>2</v>
       </c>
       <c r="AR185" s="398">
-        <f t="shared" ref="AR185:AR243" si="180">AP185*O185+AO185</f>
+        <f t="shared" ref="AR185:AR189" si="180">AP185*O185+AO185</f>
         <v>0.11980000000000002</v>
       </c>
       <c r="AS185" s="398">
@@ -36127,7 +36140,7 @@
         <f t="shared" ref="M186:M187" si="181">(O186/0.75)*20</f>
         <v>86.4</v>
       </c>
-      <c r="N186" s="458"/>
+      <c r="N186" s="506"/>
       <c r="O186" s="395">
         <f t="shared" ref="O186:O187" si="182">J186*3600/1000</f>
         <v>3.24</v>
@@ -36297,7 +36310,7 @@
         <f t="shared" si="181"/>
         <v>86.4</v>
       </c>
-      <c r="N187" s="458"/>
+      <c r="N187" s="506"/>
       <c r="O187" s="395">
         <f t="shared" si="182"/>
         <v>3.24</v>
@@ -36466,7 +36479,7 @@
         <f>(O188/0.75)*20</f>
         <v>127.99999999999999</v>
       </c>
-      <c r="N188" s="449"/>
+      <c r="N188" s="497"/>
       <c r="O188" s="343">
         <f>J188*12/1000</f>
         <v>4.8</v>
@@ -36636,7 +36649,7 @@
         <f t="shared" ref="M189:M191" si="184">(O189/0.75)*20</f>
         <v>127.99999999999999</v>
       </c>
-      <c r="N189" s="450"/>
+      <c r="N189" s="498"/>
       <c r="O189" s="343">
         <f t="shared" ref="O189:O191" si="185">J189*12/1000</f>
         <v>4.8</v>
@@ -36806,7 +36819,7 @@
         <f t="shared" si="184"/>
         <v>127.99999999999999</v>
       </c>
-      <c r="N190" s="450"/>
+      <c r="N190" s="498"/>
       <c r="O190" s="343">
         <f t="shared" si="185"/>
         <v>4.8</v>
@@ -36898,7 +36911,7 @@
         <v>5</v>
       </c>
       <c r="AR190" s="346">
-        <f t="shared" ref="AR190:AR243" si="186">AP190*P190+AO190</f>
+        <f t="shared" ref="AR190:AR191" si="186">AP190*P190+AO190</f>
         <v>0.55003615445139731</v>
       </c>
       <c r="AS190" s="346">
@@ -36976,7 +36989,7 @@
         <f t="shared" si="184"/>
         <v>127.99999999999999</v>
       </c>
-      <c r="N191" s="450"/>
+      <c r="N191" s="498"/>
       <c r="O191" s="343">
         <f t="shared" si="185"/>
         <v>4.8</v>
@@ -37145,7 +37158,7 @@
         <f>(O192/0.75)*20</f>
         <v>57.600000000000009</v>
       </c>
-      <c r="N192" s="450"/>
+      <c r="N192" s="498"/>
       <c r="O192" s="343">
         <f>J192*3600/1000</f>
         <v>2.16</v>
@@ -37237,7 +37250,7 @@
         <v>2</v>
       </c>
       <c r="AR192" s="346">
-        <f t="shared" ref="AR192:AR243" si="187">AP192*O192+AO192</f>
+        <f t="shared" ref="AR192:AR196" si="187">AP192*O192+AO192</f>
         <v>9.820000000000001E-2</v>
       </c>
       <c r="AS192" s="346">
@@ -37315,7 +37328,7 @@
         <f t="shared" ref="M193:M194" si="188">(O193/0.75)*20</f>
         <v>57.600000000000009</v>
       </c>
-      <c r="N193" s="450"/>
+      <c r="N193" s="498"/>
       <c r="O193" s="343">
         <f t="shared" ref="O193:O194" si="189">J193*3600/1000</f>
         <v>2.16</v>
@@ -37485,7 +37498,7 @@
         <f t="shared" si="188"/>
         <v>57.600000000000009</v>
       </c>
-      <c r="N194" s="450"/>
+      <c r="N194" s="498"/>
       <c r="O194" s="343">
         <f t="shared" si="189"/>
         <v>2.16</v>
@@ -37654,7 +37667,7 @@
         <f>(O195/0.75)*20</f>
         <v>2336</v>
       </c>
-      <c r="N195" s="459"/>
+      <c r="N195" s="461"/>
       <c r="O195" s="173">
         <f>J195*12/1000</f>
         <v>87.6</v>
@@ -37824,7 +37837,7 @@
         <f t="shared" ref="M196:M198" si="196">(O196/0.75)*20</f>
         <v>2336</v>
       </c>
-      <c r="N196" s="460"/>
+      <c r="N196" s="462"/>
       <c r="O196" s="173">
         <f t="shared" ref="O196:O198" si="197">J196*12/1000</f>
         <v>87.6</v>
@@ -37994,7 +38007,7 @@
         <f t="shared" si="196"/>
         <v>2336</v>
       </c>
-      <c r="N197" s="460"/>
+      <c r="N197" s="462"/>
       <c r="O197" s="173">
         <f t="shared" si="197"/>
         <v>87.6</v>
@@ -38086,7 +38099,7 @@
         <v>5</v>
       </c>
       <c r="AR197" s="168">
-        <f t="shared" ref="AR197:AR243" si="198">AP197*P197+AO197</f>
+        <f t="shared" ref="AR197:AR198" si="198">AP197*P197+AO197</f>
         <v>0.1852</v>
       </c>
       <c r="AS197" s="168">
@@ -38164,7 +38177,7 @@
         <f t="shared" si="196"/>
         <v>2336</v>
       </c>
-      <c r="N198" s="460"/>
+      <c r="N198" s="462"/>
       <c r="O198" s="173">
         <f t="shared" si="197"/>
         <v>87.6</v>
@@ -38333,7 +38346,7 @@
         <f>(O199/0.75)*20</f>
         <v>514.55999999999995</v>
       </c>
-      <c r="N199" s="460"/>
+      <c r="N199" s="462"/>
       <c r="O199" s="173">
         <f>J199*3600/1000</f>
         <v>19.295999999999999</v>
@@ -38425,7 +38438,7 @@
         <v>2</v>
       </c>
       <c r="AR199" s="168">
-        <f t="shared" ref="AR199:AR243" si="203">AP199*O199+AO199</f>
+        <f t="shared" ref="AR199:AR203" si="203">AP199*O199+AO199</f>
         <v>0.38691999999999999</v>
       </c>
       <c r="AS199" s="168">
@@ -38503,7 +38516,7 @@
         <f t="shared" ref="M200:M201" si="204">(O200/0.75)*20</f>
         <v>514.55999999999995</v>
       </c>
-      <c r="N200" s="460"/>
+      <c r="N200" s="462"/>
       <c r="O200" s="173">
         <f t="shared" ref="O200:O201" si="205">J200*3600/1000</f>
         <v>19.295999999999999</v>
@@ -38673,7 +38686,7 @@
         <f t="shared" si="204"/>
         <v>514.55999999999995</v>
       </c>
-      <c r="N201" s="460"/>
+      <c r="N201" s="462"/>
       <c r="O201" s="173">
         <f t="shared" si="205"/>
         <v>19.295999999999999</v>
@@ -38842,7 +38855,7 @@
         <f>(O202/0.75)*20</f>
         <v>2336</v>
       </c>
-      <c r="N202" s="461"/>
+      <c r="N202" s="488"/>
       <c r="O202" s="232">
         <f>J202*12/1000</f>
         <v>87.6</v>
@@ -39013,7 +39026,7 @@
         <f t="shared" ref="M203:M205" si="208">(O203/0.75)*20</f>
         <v>2336</v>
       </c>
-      <c r="N203" s="462"/>
+      <c r="N203" s="489"/>
       <c r="O203" s="232">
         <f t="shared" ref="O203:O205" si="209">J203*12/1000</f>
         <v>87.6</v>
@@ -39184,7 +39197,7 @@
         <f t="shared" si="208"/>
         <v>2336</v>
       </c>
-      <c r="N204" s="462"/>
+      <c r="N204" s="489"/>
       <c r="O204" s="232">
         <f t="shared" si="209"/>
         <v>87.6</v>
@@ -39277,7 +39290,7 @@
         <v>5</v>
       </c>
       <c r="AR204" s="234">
-        <f t="shared" ref="AR204:AR243" si="210">AP204*P204+AO204</f>
+        <f t="shared" ref="AR204:AR205" si="210">AP204*P204+AO204</f>
         <v>0.1852</v>
       </c>
       <c r="AS204" s="234">
@@ -39355,7 +39368,7 @@
         <f t="shared" si="208"/>
         <v>2336</v>
       </c>
-      <c r="N205" s="462"/>
+      <c r="N205" s="489"/>
       <c r="O205" s="232">
         <f t="shared" si="209"/>
         <v>87.6</v>
@@ -39525,7 +39538,7 @@
         <f>(O206/0.75)*20</f>
         <v>514.55999999999995</v>
       </c>
-      <c r="N206" s="462"/>
+      <c r="N206" s="489"/>
       <c r="O206" s="232">
         <f>J206*3600/1000</f>
         <v>19.295999999999999</v>
@@ -39618,7 +39631,7 @@
         <v>2</v>
       </c>
       <c r="AR206" s="234">
-        <f t="shared" ref="AR206:AR243" si="211">AP206*O206+AO206</f>
+        <f t="shared" ref="AR206:AR210" si="211">AP206*O206+AO206</f>
         <v>0.38691999999999999</v>
       </c>
       <c r="AS206" s="234">
@@ -39696,7 +39709,7 @@
         <f t="shared" ref="M207:M208" si="212">(O207/0.75)*20</f>
         <v>514.55999999999995</v>
       </c>
-      <c r="N207" s="462"/>
+      <c r="N207" s="489"/>
       <c r="O207" s="232">
         <f t="shared" ref="O207:O208" si="213">J207*3600/1000</f>
         <v>19.295999999999999</v>
@@ -39867,7 +39880,7 @@
         <f t="shared" si="212"/>
         <v>514.55999999999995</v>
       </c>
-      <c r="N208" s="462"/>
+      <c r="N208" s="489"/>
       <c r="O208" s="232">
         <f t="shared" si="213"/>
         <v>19.295999999999999</v>
@@ -40037,7 +40050,7 @@
         <f>(O209/0.75)*20</f>
         <v>2720</v>
       </c>
-      <c r="N209" s="463"/>
+      <c r="N209" s="467"/>
       <c r="O209" s="193">
         <f>J209*12/1000</f>
         <v>102</v>
@@ -40207,7 +40220,7 @@
         <f t="shared" ref="M210:M212" si="215">(O210/0.75)*20</f>
         <v>2720</v>
       </c>
-      <c r="N210" s="464"/>
+      <c r="N210" s="468"/>
       <c r="O210" s="193">
         <f t="shared" ref="O210:O212" si="216">J210*12/1000</f>
         <v>102</v>
@@ -40377,7 +40390,7 @@
         <f t="shared" si="215"/>
         <v>2720</v>
       </c>
-      <c r="N211" s="464"/>
+      <c r="N211" s="468"/>
       <c r="O211" s="193">
         <f t="shared" si="216"/>
         <v>102</v>
@@ -40469,7 +40482,7 @@
         <v>5</v>
       </c>
       <c r="AR211" s="196">
-        <f t="shared" ref="AR211:AR243" si="218">AP211*P211+AO211</f>
+        <f t="shared" ref="AR211:AR212" si="218">AP211*P211+AO211</f>
         <v>0.21400000000000002</v>
       </c>
       <c r="AS211" s="196">
@@ -40547,7 +40560,7 @@
         <f t="shared" si="215"/>
         <v>2720</v>
       </c>
-      <c r="N212" s="464"/>
+      <c r="N212" s="468"/>
       <c r="O212" s="193">
         <f t="shared" si="216"/>
         <v>102</v>
@@ -40716,7 +40729,7 @@
         <f>(O213/0.75)*20</f>
         <v>691.2</v>
       </c>
-      <c r="N213" s="464"/>
+      <c r="N213" s="468"/>
       <c r="O213" s="193">
         <f>J213*3600/1000</f>
         <v>25.92</v>
@@ -40808,7 +40821,7 @@
         <v>2</v>
       </c>
       <c r="AR213" s="196">
-        <f t="shared" ref="AR213:AR243" si="219">AP213*O213+AO213</f>
+        <f t="shared" ref="AR213:AR217" si="219">AP213*O213+AO213</f>
         <v>0.51940000000000008</v>
       </c>
       <c r="AS213" s="196">
@@ -40886,7 +40899,7 @@
         <f t="shared" ref="M214:M215" si="220">(O214/0.75)*20</f>
         <v>691.2</v>
       </c>
-      <c r="N214" s="464"/>
+      <c r="N214" s="468"/>
       <c r="O214" s="193">
         <f t="shared" ref="O214:O215" si="221">J214*3600/1000</f>
         <v>25.92</v>
@@ -41056,7 +41069,7 @@
         <f t="shared" si="220"/>
         <v>691.2</v>
       </c>
-      <c r="N215" s="464"/>
+      <c r="N215" s="468"/>
       <c r="O215" s="193">
         <f t="shared" si="221"/>
         <v>25.92</v>
@@ -41225,7 +41238,7 @@
         <f>(O216/0.75)*20</f>
         <v>2080</v>
       </c>
-      <c r="N216" s="465"/>
+      <c r="N216" s="464"/>
       <c r="O216" s="179">
         <f>J216*12/1000</f>
         <v>78</v>
@@ -41395,7 +41408,7 @@
         <f t="shared" ref="M217:M219" si="223">(O217/0.75)*20</f>
         <v>2080</v>
       </c>
-      <c r="N217" s="466"/>
+      <c r="N217" s="465"/>
       <c r="O217" s="179">
         <f t="shared" ref="O217:O219" si="224">J217*12/1000</f>
         <v>78</v>
@@ -41565,7 +41578,7 @@
         <f t="shared" si="223"/>
         <v>2080</v>
       </c>
-      <c r="N218" s="466"/>
+      <c r="N218" s="465"/>
       <c r="O218" s="179">
         <f t="shared" si="224"/>
         <v>78</v>
@@ -41657,7 +41670,7 @@
         <v>5</v>
       </c>
       <c r="AR218" s="183">
-        <f t="shared" ref="AR218:AR243" si="225">AP218*P218+AO218</f>
+        <f t="shared" ref="AR218:AR219" si="225">AP218*P218+AO218</f>
         <v>0.16600000000000004</v>
       </c>
       <c r="AS218" s="183">
@@ -41735,7 +41748,7 @@
         <f t="shared" si="223"/>
         <v>2080</v>
       </c>
-      <c r="N219" s="466"/>
+      <c r="N219" s="465"/>
       <c r="O219" s="179">
         <f t="shared" si="224"/>
         <v>78</v>
@@ -41904,7 +41917,7 @@
         <f>(O220/0.75)*20</f>
         <v>691.2</v>
       </c>
-      <c r="N220" s="466"/>
+      <c r="N220" s="465"/>
       <c r="O220" s="179">
         <f>J220*3600/1000</f>
         <v>25.92</v>
@@ -41996,7 +42009,7 @@
         <v>2</v>
       </c>
       <c r="AR220" s="183">
-        <f t="shared" ref="AR220:AR243" si="226">AP220*O220+AO220</f>
+        <f t="shared" ref="AR220:AR224" si="226">AP220*O220+AO220</f>
         <v>0.51940000000000008</v>
       </c>
       <c r="AS220" s="183">
@@ -42074,7 +42087,7 @@
         <f t="shared" ref="M221:M222" si="227">(O221/0.75)*20</f>
         <v>691.2</v>
       </c>
-      <c r="N221" s="466"/>
+      <c r="N221" s="465"/>
       <c r="O221" s="179">
         <f t="shared" ref="O221:O222" si="228">J221*3600/1000</f>
         <v>25.92</v>
@@ -42244,7 +42257,7 @@
         <f t="shared" si="227"/>
         <v>691.2</v>
       </c>
-      <c r="N222" s="466"/>
+      <c r="N222" s="465"/>
       <c r="O222" s="179">
         <f t="shared" si="228"/>
         <v>25.92</v>
@@ -42413,7 +42426,7 @@
         <f>(O223/0.75)*20</f>
         <v>1952.0000000000002</v>
       </c>
-      <c r="N223" s="439"/>
+      <c r="N223" s="491"/>
       <c r="O223" s="316">
         <f>J223*12/1000</f>
         <v>73.2</v>
@@ -42583,7 +42596,7 @@
         <f t="shared" ref="M224:M226" si="230">(O224/0.75)*20</f>
         <v>1952.0000000000002</v>
       </c>
-      <c r="N224" s="440"/>
+      <c r="N224" s="492"/>
       <c r="O224" s="316">
         <f t="shared" ref="O224:O226" si="231">J224*12/1000</f>
         <v>73.2</v>
@@ -42753,7 +42766,7 @@
         <f t="shared" si="230"/>
         <v>1952.0000000000002</v>
       </c>
-      <c r="N225" s="440"/>
+      <c r="N225" s="492"/>
       <c r="O225" s="316">
         <f t="shared" si="231"/>
         <v>73.2</v>
@@ -42845,7 +42858,7 @@
         <v>5</v>
       </c>
       <c r="AR225" s="319">
-        <f t="shared" ref="AR225:AR243" si="232">AP225*P225+AO225</f>
+        <f t="shared" ref="AR225:AR226" si="232">AP225*P225+AO225</f>
         <v>0.15640000000000001</v>
       </c>
       <c r="AS225" s="319">
@@ -42923,7 +42936,7 @@
         <f t="shared" si="230"/>
         <v>1952.0000000000002</v>
       </c>
-      <c r="N226" s="440"/>
+      <c r="N226" s="492"/>
       <c r="O226" s="316">
         <f t="shared" si="231"/>
         <v>73.2</v>
@@ -43092,7 +43105,7 @@
         <f>(O227/0.75)*20</f>
         <v>624</v>
       </c>
-      <c r="N227" s="440"/>
+      <c r="N227" s="492"/>
       <c r="O227" s="316">
         <f>J227*3600/1000</f>
         <v>23.4</v>
@@ -43184,7 +43197,7 @@
         <v>2</v>
       </c>
       <c r="AR227" s="319">
-        <f t="shared" ref="AR227:AR243" si="233">AP227*O227+AO227</f>
+        <f t="shared" ref="AR227:AR231" si="233">AP227*O227+AO227</f>
         <v>0.46899999999999997</v>
       </c>
       <c r="AS227" s="319">
@@ -43262,7 +43275,7 @@
         <f t="shared" ref="M228:M229" si="234">(O228/0.75)*20</f>
         <v>624</v>
       </c>
-      <c r="N228" s="440"/>
+      <c r="N228" s="492"/>
       <c r="O228" s="316">
         <f t="shared" ref="O228:O229" si="235">J228*3600/1000</f>
         <v>23.4</v>
@@ -43432,7 +43445,7 @@
         <f t="shared" si="234"/>
         <v>624</v>
       </c>
-      <c r="N229" s="440"/>
+      <c r="N229" s="492"/>
       <c r="O229" s="316">
         <f t="shared" si="235"/>
         <v>23.4</v>
@@ -43601,7 +43614,7 @@
         <f>(O230/0.75)*20</f>
         <v>2047.9999999999998</v>
       </c>
-      <c r="N230" s="441"/>
+      <c r="N230" s="485"/>
       <c r="O230" s="275">
         <f>J230*12/1000</f>
         <v>76.8</v>
@@ -43771,7 +43784,7 @@
         <f t="shared" ref="M231:M233" si="237">(O231/0.75)*20</f>
         <v>2047.9999999999998</v>
       </c>
-      <c r="N231" s="442"/>
+      <c r="N231" s="486"/>
       <c r="O231" s="275">
         <f t="shared" ref="O231:O233" si="238">J231*12/1000</f>
         <v>76.8</v>
@@ -43941,7 +43954,7 @@
         <f t="shared" si="237"/>
         <v>2047.9999999999998</v>
       </c>
-      <c r="N232" s="442"/>
+      <c r="N232" s="486"/>
       <c r="O232" s="275">
         <f t="shared" si="238"/>
         <v>76.8</v>
@@ -44033,7 +44046,7 @@
         <v>5</v>
       </c>
       <c r="AR232" s="277">
-        <f t="shared" ref="AR232:AR243" si="239">AP232*P232+AO232</f>
+        <f t="shared" ref="AR232:AR233" si="239">AP232*P232+AO232</f>
         <v>0.1636</v>
       </c>
       <c r="AS232" s="277">
@@ -44111,7 +44124,7 @@
         <f t="shared" si="237"/>
         <v>2047.9999999999998</v>
       </c>
-      <c r="N233" s="442"/>
+      <c r="N233" s="486"/>
       <c r="O233" s="275">
         <f t="shared" si="238"/>
         <v>76.8</v>
@@ -44280,7 +44293,7 @@
         <f>(O234/0.75)*20</f>
         <v>624</v>
       </c>
-      <c r="N234" s="442"/>
+      <c r="N234" s="486"/>
       <c r="O234" s="275">
         <f>J234*3600/1000</f>
         <v>23.4</v>
@@ -44372,7 +44385,7 @@
         <v>2</v>
       </c>
       <c r="AR234" s="277">
-        <f t="shared" ref="AR234:AR243" si="240">AP234*O234+AO234</f>
+        <f t="shared" ref="AR234:AR238" si="240">AP234*O234+AO234</f>
         <v>0.46899999999999997</v>
       </c>
       <c r="AS234" s="277">
@@ -44450,7 +44463,7 @@
         <f t="shared" ref="M235:M236" si="241">(O235/0.75)*20</f>
         <v>624</v>
       </c>
-      <c r="N235" s="442"/>
+      <c r="N235" s="486"/>
       <c r="O235" s="275">
         <f t="shared" ref="O235:O236" si="242">J235*3600/1000</f>
         <v>23.4</v>
@@ -44620,7 +44633,7 @@
         <f t="shared" si="241"/>
         <v>624</v>
       </c>
-      <c r="N236" s="442"/>
+      <c r="N236" s="486"/>
       <c r="O236" s="275">
         <f t="shared" si="242"/>
         <v>23.4</v>
@@ -44789,7 +44802,7 @@
         <f>(O237/0.75)*20</f>
         <v>3040</v>
       </c>
-      <c r="N237" s="443"/>
+      <c r="N237" s="493"/>
       <c r="O237" s="329">
         <f>J237*12/1000</f>
         <v>114</v>
@@ -44959,7 +44972,7 @@
         <f t="shared" ref="M238:M243" si="244">(O238/0.75)*20</f>
         <v>3040</v>
       </c>
-      <c r="N238" s="444"/>
+      <c r="N238" s="494"/>
       <c r="O238" s="329">
         <f t="shared" ref="O238:O240" si="245">J238*12/1000</f>
         <v>114</v>
@@ -45129,7 +45142,7 @@
         <f t="shared" si="244"/>
         <v>3040</v>
       </c>
-      <c r="N239" s="444"/>
+      <c r="N239" s="494"/>
       <c r="O239" s="329">
         <f t="shared" si="245"/>
         <v>114</v>
@@ -45221,7 +45234,7 @@
         <v>5</v>
       </c>
       <c r="AR239" s="332">
-        <f t="shared" ref="AR239:AR243" si="246">AP239*P239+AO239</f>
+        <f t="shared" ref="AR239:AR240" si="246">AP239*P239+AO239</f>
         <v>0.23800000000000002</v>
       </c>
       <c r="AS239" s="332">
@@ -45299,7 +45312,7 @@
         <f t="shared" si="244"/>
         <v>3040</v>
       </c>
-      <c r="N240" s="444"/>
+      <c r="N240" s="494"/>
       <c r="O240" s="329">
         <f t="shared" si="245"/>
         <v>114</v>
@@ -45468,7 +45481,7 @@
         <f t="shared" si="244"/>
         <v>700.8</v>
       </c>
-      <c r="N241" s="444"/>
+      <c r="N241" s="494"/>
       <c r="O241" s="329">
         <f>J241*3600/1000</f>
         <v>26.28</v>
@@ -45638,7 +45651,7 @@
         <f t="shared" si="244"/>
         <v>700.8</v>
       </c>
-      <c r="N242" s="444"/>
+      <c r="N242" s="494"/>
       <c r="O242" s="329">
         <f t="shared" ref="O242:O243" si="248">J242*3600/1000</f>
         <v>26.28</v>
@@ -45808,7 +45821,7 @@
         <f t="shared" si="244"/>
         <v>700.8</v>
       </c>
-      <c r="N243" s="444"/>
+      <c r="N243" s="494"/>
       <c r="O243" s="329">
         <f t="shared" si="248"/>
         <v>26.28</v>
@@ -45936,7 +45949,7 @@
       </c>
     </row>
     <row r="244" spans="1:52" s="410" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A244" s="496" t="s">
+      <c r="A244" s="441" t="s">
         <v>254</v>
       </c>
       <c r="B244" s="403" t="s">
@@ -45977,7 +45990,7 @@
         <f>(O244/0.75)*20</f>
         <v>1760</v>
       </c>
-      <c r="N244" s="445"/>
+      <c r="N244" s="479"/>
       <c r="O244" s="408">
         <f>J244*12/1000</f>
         <v>66</v>
@@ -46069,27 +46082,27 @@
         <v>5</v>
       </c>
       <c r="AR244" s="412">
-        <f t="shared" ref="AR241:AR250" si="249">AP244*O244+AO244</f>
+        <f t="shared" ref="AR244" si="249">AP244*O244+AO244</f>
         <v>1.33</v>
       </c>
       <c r="AS244" s="412">
-        <f t="shared" ref="AS238:AS250" si="250">0.1*AR244</f>
+        <f t="shared" ref="AS244" si="250">0.1*AR244</f>
         <v>0.13300000000000001</v>
       </c>
       <c r="AT244" s="413">
-        <f t="shared" ref="AT238:AT250" si="251">AM244*1.72+115*0.012*AN244</f>
+        <f t="shared" ref="AT244" si="251">AM244*1.72+115*0.012*AN244</f>
         <v>4.82</v>
       </c>
       <c r="AU244" s="413">
-        <f t="shared" ref="AU238:AU250" si="252">SUM(AR244:AT244)*0.1</f>
+        <f t="shared" ref="AU244" si="252">SUM(AR244:AT244)*0.1</f>
         <v>0.62830000000000008</v>
       </c>
       <c r="AV244" s="412">
-        <f t="shared" ref="AV238:AV250" si="253">10068.2*O244*POWER(10,-6)</f>
+        <f t="shared" ref="AV244" si="253">10068.2*O244*POWER(10,-6)</f>
         <v>0.66450120000000001</v>
       </c>
       <c r="AW244" s="413">
-        <f t="shared" ref="AW238:AW250" si="254">AV244+AU244+AT244+AS244+AR244</f>
+        <f t="shared" ref="AW244" si="254">AV244+AU244+AT244+AS244+AR244</f>
         <v>7.5758011999999999</v>
       </c>
       <c r="AX244" s="414">
@@ -46106,7 +46119,7 @@
       </c>
     </row>
     <row r="245" spans="1:52" s="410" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A245" s="496" t="s">
+      <c r="A245" s="441" t="s">
         <v>255</v>
       </c>
       <c r="B245" s="403" t="s">
@@ -46147,7 +46160,7 @@
         <f t="shared" ref="M245:M250" si="256">(O245/0.75)*20</f>
         <v>1760</v>
       </c>
-      <c r="N245" s="446"/>
+      <c r="N245" s="480"/>
       <c r="O245" s="408">
         <f t="shared" ref="O245:O247" si="257">J245*12/1000</f>
         <v>66</v>
@@ -46239,7 +46252,7 @@
         <v>5</v>
       </c>
       <c r="AR245" s="412">
-        <f t="shared" ref="AR244:AR250" si="258">AP245*O245+AO245</f>
+        <f t="shared" ref="AR245" si="258">AP245*O245+AO245</f>
         <v>1.33</v>
       </c>
       <c r="AS245" s="412">
@@ -46276,7 +46289,7 @@
       </c>
     </row>
     <row r="246" spans="1:52" s="410" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A246" s="496" t="s">
+      <c r="A246" s="441" t="s">
         <v>256</v>
       </c>
       <c r="B246" s="403" t="s">
@@ -46317,7 +46330,7 @@
         <f t="shared" si="256"/>
         <v>1760</v>
       </c>
-      <c r="N246" s="446"/>
+      <c r="N246" s="480"/>
       <c r="O246" s="408">
         <f t="shared" si="257"/>
         <v>66</v>
@@ -46409,7 +46422,7 @@
         <v>5</v>
       </c>
       <c r="AR246" s="412">
-        <f t="shared" ref="AR246:AR250" si="264">AP246*P246+AO246</f>
+        <f t="shared" ref="AR246:AR247" si="264">AP246*P246+AO246</f>
         <v>0.14200000000000002</v>
       </c>
       <c r="AS246" s="412">
@@ -46446,7 +46459,7 @@
       </c>
     </row>
     <row r="247" spans="1:52" s="410" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A247" s="496" t="s">
+      <c r="A247" s="441" t="s">
         <v>257</v>
       </c>
       <c r="B247" s="403" t="s">
@@ -46487,7 +46500,7 @@
         <f t="shared" si="256"/>
         <v>1760</v>
       </c>
-      <c r="N247" s="446"/>
+      <c r="N247" s="480"/>
       <c r="O247" s="408">
         <f t="shared" si="257"/>
         <v>66</v>
@@ -46615,7 +46628,7 @@
       </c>
     </row>
     <row r="248" spans="1:52" s="410" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A248" s="496" t="s">
+      <c r="A248" s="441" t="s">
         <v>258</v>
       </c>
       <c r="B248" s="403" t="s">
@@ -46656,7 +46669,7 @@
         <f t="shared" si="256"/>
         <v>441.59999999999997</v>
       </c>
-      <c r="N248" s="446"/>
+      <c r="N248" s="480"/>
       <c r="O248" s="408">
         <f>J248*3600/1000</f>
         <v>16.559999999999999</v>
@@ -46785,7 +46798,7 @@
       </c>
     </row>
     <row r="249" spans="1:52" s="410" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A249" s="496" t="s">
+      <c r="A249" s="441" t="s">
         <v>259</v>
       </c>
       <c r="B249" s="403" t="s">
@@ -46826,7 +46839,7 @@
         <f t="shared" si="256"/>
         <v>441.59999999999997</v>
       </c>
-      <c r="N249" s="446"/>
+      <c r="N249" s="480"/>
       <c r="O249" s="408">
         <f t="shared" ref="O249:O250" si="266">J249*3600/1000</f>
         <v>16.559999999999999</v>
@@ -46955,7 +46968,7 @@
       </c>
     </row>
     <row r="250" spans="1:52" s="410" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A250" s="496" t="s">
+      <c r="A250" s="441" t="s">
         <v>260</v>
       </c>
       <c r="B250" s="403" t="s">
@@ -46996,7 +47009,7 @@
         <f t="shared" si="256"/>
         <v>441.59999999999997</v>
       </c>
-      <c r="N250" s="446"/>
+      <c r="N250" s="480"/>
       <c r="O250" s="408">
         <f t="shared" si="266"/>
         <v>16.559999999999999</v>
@@ -47250,15 +47263,15 @@
       </c>
       <c r="AX254" s="12">
         <f>SUM(AX223:AX250)+SUM(AX139:AX152)+SUM(AX102:AX121)+SUM(AX52:AX71)</f>
-        <v>1.9380680000000001E-4</v>
+        <v>1.9532680000000001E-4</v>
       </c>
       <c r="AY254" s="12">
         <f>SUM(AY223:AY250)+SUM(AY139:AY152)+SUM(AY102:AY121)+SUM(AY52:AY71)</f>
-        <v>1.5809922000000003E-3</v>
+        <v>1.5987522000000002E-3</v>
       </c>
       <c r="AZ254" s="12">
         <f>SUM(AZ223:AZ250)+SUM(AZ139:AZ152)+SUM(AZ102:AZ121)+SUM(AZ52:AZ71)</f>
-        <v>6.3896903465408559E-3</v>
+        <v>6.4195258665408561E-3</v>
       </c>
     </row>
     <row r="255" spans="1:52" x14ac:dyDescent="0.3">
@@ -47289,15 +47302,15 @@
       </c>
       <c r="AX255" s="12">
         <f>SUM(AX153:AX194)</f>
-        <v>2.1770200000000004E-5</v>
+        <v>3.6970200000000007E-5</v>
       </c>
       <c r="AY255" s="12">
         <f>SUM(AY153:AY194)</f>
-        <v>1.5994610000000002E-3</v>
+        <v>1.9650609999999997E-3</v>
       </c>
       <c r="AZ255" s="12">
         <f>SUM(AZ153:AZ194)</f>
-        <v>3.8340473988577855E-3</v>
+        <v>4.4177865988577853E-3</v>
       </c>
     </row>
     <row r="256" spans="1:52" x14ac:dyDescent="0.3">
@@ -47354,11 +47367,11 @@
       <c r="AW257" s="123" t="s">
         <v>474</v>
       </c>
-      <c r="AX257" s="497">
-        <v>7</v>
-      </c>
-      <c r="AY257" s="497">
-        <v>7</v>
+      <c r="AX257" s="442">
+        <v>13</v>
+      </c>
+      <c r="AY257" s="442">
+        <v>13</v>
       </c>
       <c r="AZ257" s="12"/>
     </row>
@@ -47388,10 +47401,10 @@
       <c r="AW258" s="123" t="s">
         <v>474</v>
       </c>
-      <c r="AX258" s="497">
+      <c r="AX258" s="442">
         <v>7</v>
       </c>
-      <c r="AY258" s="497">
+      <c r="AY258" s="442">
         <v>7</v>
       </c>
       <c r="AZ258" s="12"/>
@@ -47422,11 +47435,11 @@
       <c r="AW259" s="123" t="s">
         <v>474</v>
       </c>
-      <c r="AX259" s="497">
-        <v>7</v>
-      </c>
-      <c r="AY259" s="497">
-        <v>7</v>
+      <c r="AX259" s="442">
+        <v>4</v>
+      </c>
+      <c r="AY259" s="442">
+        <v>4</v>
       </c>
       <c r="AZ259" s="12"/>
     </row>
@@ -47458,13 +47471,16 @@
       </c>
       <c r="AX260" s="12">
         <f>AX253/AX257</f>
-        <v>1.6762971428571433E-5</v>
+        <v>9.0262153846153872E-6</v>
       </c>
       <c r="AY260" s="12">
         <f>AY253/AY257</f>
-        <v>1.4923625714285718E-4</v>
-      </c>
-      <c r="AZ260" s="12"/>
+        <v>8.035798461538463E-5</v>
+      </c>
+      <c r="AZ260" s="123">
+        <f>MAX(AW195:AW222,AW122:AW138,AW72:AW101,AW2:AW51)</f>
+        <v>18.55891785</v>
+      </c>
     </row>
     <row r="261" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A261" s="116"/>
@@ -47494,13 +47510,16 @@
       </c>
       <c r="AX261" s="12">
         <f t="shared" ref="AX261:AY262" si="267">AX254/AX258</f>
-        <v>2.7686685714285716E-5</v>
+        <v>2.7903828571428574E-5</v>
       </c>
       <c r="AY261" s="12">
         <f t="shared" si="267"/>
-        <v>2.2585602857142862E-4</v>
-      </c>
-      <c r="AZ261" s="12"/>
+        <v>2.2839317142857147E-4</v>
+      </c>
+      <c r="AZ261" s="123">
+        <f>MAX(AW223:AW250,AW139:AW152,AW102:AW121,AW52:AW71)</f>
+        <v>10.738674799999998</v>
+      </c>
     </row>
     <row r="262" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A262" s="116"/>
@@ -47532,13 +47551,16 @@
       </c>
       <c r="AX262" s="12">
         <f t="shared" si="267"/>
-        <v>3.1100285714285718E-6</v>
+        <v>9.2425500000000018E-6</v>
       </c>
       <c r="AY262" s="12">
         <f t="shared" si="267"/>
-        <v>2.284944285714286E-4</v>
-      </c>
-      <c r="AZ262" s="12"/>
+        <v>4.9126524999999993E-4</v>
+      </c>
+      <c r="AZ262" s="123">
+        <f>MAX(AW153:AW194)</f>
+        <v>12.793725439999999</v>
+      </c>
     </row>
     <row r="263" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A263" s="116"/>
@@ -51676,7 +51698,7 @@
     <row r="410" spans="1:52" x14ac:dyDescent="0.3">
       <c r="AZ410" s="106">
         <f>SUM(AZ2:AZ409)</f>
-        <v>2.8474096334034818E-2</v>
+        <v>42.121019335774037</v>
       </c>
     </row>
     <row r="411" spans="1:52" x14ac:dyDescent="0.3">
@@ -51693,11 +51715,11 @@
       </c>
       <c r="AX412" s="102">
         <f>SUM(AX2:AX270)</f>
-        <v>21.000713395285715</v>
+        <v>24.000745448193953</v>
       </c>
       <c r="AY412" s="102">
         <f>SUM(AY2:AY270)</f>
-        <v>21.009053800714288</v>
+        <v>24.010016950406047</v>
       </c>
     </row>
     <row r="413" spans="1:52" ht="28.8" x14ac:dyDescent="0.3">
@@ -51741,11 +51763,11 @@
       </c>
       <c r="AX417" s="105">
         <f>SUM(AX2:AX270)/SUM(AM2:AM270)</f>
-        <v>0.19091557632077921</v>
+        <v>0.21429237007316029</v>
       </c>
       <c r="AY417" s="105">
         <f>SUM(AY2:AY270)/SUM(AN2:AN270)</f>
-        <v>0.10149301353002071</v>
+        <v>0.11013769243305527</v>
       </c>
     </row>
     <row r="418" spans="49:51" ht="28.8" x14ac:dyDescent="0.3">
@@ -51776,20 +51798,6 @@
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="N132:N138"/>
-    <mergeCell ref="N2:N11"/>
-    <mergeCell ref="N12:N21"/>
-    <mergeCell ref="N72:N81"/>
-    <mergeCell ref="N22:N31"/>
-    <mergeCell ref="N32:N41"/>
-    <mergeCell ref="N42:N51"/>
-    <mergeCell ref="N52:N61"/>
-    <mergeCell ref="N62:N71"/>
-    <mergeCell ref="N102:N111"/>
-    <mergeCell ref="N112:N121"/>
-    <mergeCell ref="N122:N131"/>
-    <mergeCell ref="N82:N91"/>
-    <mergeCell ref="N92:N101"/>
     <mergeCell ref="N223:N229"/>
     <mergeCell ref="N230:N236"/>
     <mergeCell ref="N237:N243"/>
@@ -51806,6 +51814,20 @@
     <mergeCell ref="N202:N208"/>
     <mergeCell ref="N209:N215"/>
     <mergeCell ref="N216:N222"/>
+    <mergeCell ref="N132:N138"/>
+    <mergeCell ref="N2:N11"/>
+    <mergeCell ref="N12:N21"/>
+    <mergeCell ref="N72:N81"/>
+    <mergeCell ref="N22:N31"/>
+    <mergeCell ref="N32:N41"/>
+    <mergeCell ref="N42:N51"/>
+    <mergeCell ref="N52:N61"/>
+    <mergeCell ref="N62:N71"/>
+    <mergeCell ref="N102:N111"/>
+    <mergeCell ref="N112:N121"/>
+    <mergeCell ref="N122:N131"/>
+    <mergeCell ref="N82:N91"/>
+    <mergeCell ref="N92:N101"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="T1:T360 T362:T1048576">
@@ -51855,10 +51877,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="490" t="s">
+      <c r="A1" s="507" t="s">
         <v>275</v>
       </c>
-      <c r="B1" s="491"/>
+      <c r="B1" s="508"/>
       <c r="G1" s="86"/>
     </row>
     <row r="2" spans="1:15" ht="78.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
@@ -52081,10 +52103,10 @@
       <c r="B11" s="95"/>
       <c r="C11" s="95"/>
       <c r="D11" s="95"/>
-      <c r="E11" s="492" t="s">
+      <c r="E11" s="509" t="s">
         <v>288</v>
       </c>
-      <c r="F11" s="493"/>
+      <c r="F11" s="510"/>
       <c r="G11" s="96">
         <f>SUM(G3:G10)</f>
         <v>10068.197119718401</v>

--- a/Оборудование на расчет СГП УТНГП.xlsx
+++ b/Оборудование на расчет СГП УТНГП.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\python\enpz2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A7CDF7D-B51A-404A-99BE-74B96A0B5EB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23C6C0CD-2C43-4CAB-8CBA-DEB78D4B0E2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" firstSheet="3" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1667,7 +1667,7 @@
     <numFmt numFmtId="165" formatCode="0.0000"/>
     <numFmt numFmtId="166" formatCode="0.0"/>
   </numFmts>
-  <fonts count="23" x14ac:knownFonts="1">
+  <fonts count="27" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1838,6 +1838,38 @@
     <font>
       <sz val="11"/>
       <color rgb="FF00B0F0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF0070C0"/>
+      <name val="Arial Narrow"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF0070C0"/>
+      <name val="Arial Narrow"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF0070C0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF0070C0"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="204"/>
@@ -2247,7 +2279,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="511">
+  <cellXfs count="567">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -2911,8 +2943,6 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="16" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="19" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -3097,6 +3127,88 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="23" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="11" fontId="24" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="24" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="26" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="23" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="23" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="11" fontId="23" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="11" fontId="26" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="24" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="11" fontId="24" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="24" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="26" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="23" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="23" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="11" fontId="23" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="11" fontId="26" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="11" fontId="24" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="24" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="26" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="23" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="23" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="11" fontId="23" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="11" fontId="26" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="24" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="11" fontId="24" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="24" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="26" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="23" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="23" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="11" fontId="23" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="11" fontId="26" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="25" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="23" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -4794,34 +4906,33 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:AZ419"/>
+  <dimension ref="A1:BA419"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A227" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AZ263" sqref="AZ263"/>
+    <sheetView tabSelected="1" topLeftCell="O1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A140" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A154" sqref="A154:XFD154"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="12" style="10" customWidth="1"/>
     <col min="2" max="2" width="39.21875" style="10" customWidth="1"/>
-    <col min="3" max="3" width="27.109375" style="11" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="45.5546875" style="11" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="16.5546875" style="10" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="16.33203125" style="10" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="11.5546875" style="10" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="27.109375" style="11" customWidth="1"/>
+    <col min="4" max="4" width="45.5546875" style="11" customWidth="1"/>
+    <col min="5" max="5" width="16.5546875" style="10" customWidth="1"/>
+    <col min="6" max="6" width="16.33203125" style="10" customWidth="1"/>
+    <col min="7" max="7" width="11.5546875" style="10" customWidth="1"/>
     <col min="8" max="8" width="16.5546875" style="10" customWidth="1"/>
-    <col min="9" max="9" width="16.109375" style="10" hidden="1" customWidth="1"/>
-    <col min="10" max="13" width="14.6640625" style="10" hidden="1" customWidth="1"/>
-    <col min="14" max="14" width="25.5546875" style="10" hidden="1" customWidth="1"/>
-    <col min="15" max="15" width="14.6640625" style="10" hidden="1" customWidth="1"/>
-    <col min="16" max="16" width="20.6640625" style="10" hidden="1" customWidth="1"/>
-    <col min="17" max="17" width="8.88671875" hidden="1" customWidth="1"/>
-    <col min="18" max="18" width="13.33203125" hidden="1" customWidth="1"/>
-    <col min="19" max="19" width="35.5546875" hidden="1" customWidth="1"/>
-    <col min="20" max="20" width="41.5546875" style="11" hidden="1" customWidth="1"/>
-    <col min="21" max="38" width="8.88671875" hidden="1" customWidth="1"/>
-    <col min="39" max="40" width="8.88671875" customWidth="1"/>
+    <col min="9" max="9" width="16.109375" style="10" customWidth="1"/>
+    <col min="10" max="13" width="14.6640625" style="10" customWidth="1"/>
+    <col min="14" max="14" width="25.5546875" style="10" customWidth="1"/>
+    <col min="15" max="15" width="14.6640625" style="10" customWidth="1"/>
+    <col min="16" max="16" width="20.6640625" style="10" customWidth="1"/>
+    <col min="17" max="17" width="8.88671875" customWidth="1"/>
+    <col min="18" max="18" width="13.33203125" customWidth="1"/>
+    <col min="19" max="19" width="35.5546875" customWidth="1"/>
+    <col min="20" max="20" width="41.5546875" style="11" customWidth="1"/>
+    <col min="21" max="40" width="8.88671875" customWidth="1"/>
     <col min="41" max="41" width="17" hidden="1" customWidth="1"/>
     <col min="42" max="42" width="17.88671875" hidden="1" customWidth="1"/>
     <col min="43" max="43" width="13.33203125" hidden="1" customWidth="1"/>
@@ -5032,7 +5143,7 @@
       <c r="M2" s="108">
         <v>2800</v>
       </c>
-      <c r="N2" s="458" t="s">
+      <c r="N2" s="456" t="s">
         <v>353</v>
       </c>
       <c r="O2" s="174">
@@ -5202,7 +5313,7 @@
       <c r="M3" s="108">
         <v>2800</v>
       </c>
-      <c r="N3" s="459"/>
+      <c r="N3" s="457"/>
       <c r="O3" s="174">
         <v>72.5</v>
       </c>
@@ -5369,7 +5480,7 @@
       <c r="M4" s="108">
         <v>2800</v>
       </c>
-      <c r="N4" s="459"/>
+      <c r="N4" s="457"/>
       <c r="O4" s="174">
         <v>72.5</v>
       </c>
@@ -5536,7 +5647,7 @@
       <c r="M5" s="108">
         <v>2800</v>
       </c>
-      <c r="N5" s="459"/>
+      <c r="N5" s="457"/>
       <c r="O5" s="174">
         <v>72.5</v>
       </c>
@@ -5705,7 +5816,7 @@
         <f>O6*20/0.75</f>
         <v>403.2</v>
       </c>
-      <c r="N6" s="459"/>
+      <c r="N6" s="457"/>
       <c r="O6" s="174">
         <f>J6*3600/1000</f>
         <v>15.12</v>
@@ -5876,7 +5987,7 @@
         <f t="shared" ref="M7:M8" si="15">O7*20/0.75</f>
         <v>403.2</v>
       </c>
-      <c r="N7" s="459"/>
+      <c r="N7" s="457"/>
       <c r="O7" s="174">
         <f t="shared" ref="O7:O11" si="16">J7*3600/1000</f>
         <v>15.12</v>
@@ -6047,7 +6158,7 @@
         <f t="shared" si="15"/>
         <v>403.2</v>
       </c>
-      <c r="N8" s="459"/>
+      <c r="N8" s="457"/>
       <c r="O8" s="174">
         <f t="shared" si="16"/>
         <v>15.12</v>
@@ -6216,7 +6327,7 @@
       <c r="M9" s="99">
         <v>0</v>
       </c>
-      <c r="N9" s="459"/>
+      <c r="N9" s="457"/>
       <c r="O9" s="174">
         <f t="shared" si="16"/>
         <v>0.9</v>
@@ -6386,7 +6497,7 @@
       <c r="M10" s="99">
         <v>0</v>
       </c>
-      <c r="N10" s="459"/>
+      <c r="N10" s="457"/>
       <c r="O10" s="174">
         <f t="shared" si="16"/>
         <v>0.9</v>
@@ -6515,171 +6626,171 @@
         <v>5.9812293542400019E-5</v>
       </c>
     </row>
-    <row r="11" spans="1:52" s="448" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A11" s="443" t="s">
+    <row r="11" spans="1:52" s="446" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A11" s="441" t="s">
         <v>16</v>
       </c>
-      <c r="B11" s="444" t="s">
+      <c r="B11" s="442" t="s">
         <v>294</v>
       </c>
-      <c r="C11" s="445" t="s">
+      <c r="C11" s="443" t="s">
         <v>340</v>
       </c>
-      <c r="D11" s="446" t="s">
+      <c r="D11" s="444" t="s">
         <v>347</v>
       </c>
-      <c r="E11" s="447">
+      <c r="E11" s="445">
         <v>1.0000000000000001E-5</v>
       </c>
-      <c r="F11" s="444">
+      <c r="F11" s="442">
         <v>24</v>
       </c>
-      <c r="G11" s="444">
+      <c r="G11" s="442">
         <v>0.6080000000000001</v>
       </c>
-      <c r="H11" s="447">
+      <c r="H11" s="445">
         <f t="shared" si="3"/>
         <v>1.4592000000000004E-4</v>
       </c>
-      <c r="I11" s="444">
-        <v>0</v>
-      </c>
-      <c r="J11" s="444">
+      <c r="I11" s="442">
+        <v>0</v>
+      </c>
+      <c r="J11" s="442">
         <v>0.25</v>
       </c>
-      <c r="K11" s="444">
-        <v>0</v>
-      </c>
-      <c r="L11" s="444">
-        <v>0</v>
-      </c>
-      <c r="M11" s="448">
-        <v>0</v>
-      </c>
-      <c r="N11" s="460"/>
-      <c r="O11" s="449">
+      <c r="K11" s="442">
+        <v>0</v>
+      </c>
+      <c r="L11" s="442">
+        <v>0</v>
+      </c>
+      <c r="M11" s="446">
+        <v>0</v>
+      </c>
+      <c r="N11" s="458"/>
+      <c r="O11" s="447">
         <f t="shared" si="16"/>
         <v>0.9</v>
       </c>
-      <c r="P11" s="449">
-        <v>0</v>
-      </c>
-      <c r="Q11" s="450"/>
-      <c r="R11" s="448" t="str">
+      <c r="P11" s="447">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="448"/>
+      <c r="R11" s="446" t="str">
         <f t="shared" si="4"/>
         <v>С10</v>
       </c>
-      <c r="S11" s="448" t="str">
+      <c r="S11" s="446" t="str">
         <f t="shared" si="5"/>
         <v>Емкости Е-1…Е-24</v>
       </c>
-      <c r="T11" s="451" t="str">
+      <c r="T11" s="449" t="str">
         <f t="shared" si="6"/>
         <v>Частичное разрушение (10 мм) - рассеивание выброса (ликвидация аварии)</v>
       </c>
-      <c r="U11" s="448" t="s">
-        <v>98</v>
-      </c>
-      <c r="V11" s="448" t="s">
-        <v>98</v>
-      </c>
-      <c r="W11" s="448" t="s">
-        <v>98</v>
-      </c>
-      <c r="X11" s="448" t="s">
-        <v>98</v>
-      </c>
-      <c r="Y11" s="448" t="s">
-        <v>98</v>
-      </c>
-      <c r="Z11" s="448" t="s">
-        <v>98</v>
-      </c>
-      <c r="AA11" s="448" t="s">
-        <v>98</v>
-      </c>
-      <c r="AB11" s="448" t="s">
-        <v>98</v>
-      </c>
-      <c r="AC11" s="448" t="s">
-        <v>98</v>
-      </c>
-      <c r="AD11" s="448" t="s">
-        <v>98</v>
-      </c>
-      <c r="AE11" s="448" t="s">
-        <v>98</v>
-      </c>
-      <c r="AF11" s="448" t="s">
-        <v>98</v>
-      </c>
-      <c r="AG11" s="448" t="s">
-        <v>98</v>
-      </c>
-      <c r="AH11" s="448" t="s">
-        <v>98</v>
-      </c>
-      <c r="AI11" s="448" t="s">
-        <v>98</v>
-      </c>
-      <c r="AJ11" s="448" t="s">
-        <v>98</v>
-      </c>
-      <c r="AK11" s="448" t="s">
-        <v>98</v>
-      </c>
-      <c r="AL11" s="448" t="s">
-        <v>98</v>
-      </c>
-      <c r="AM11" s="448">
-        <v>0</v>
-      </c>
-      <c r="AN11" s="448">
-        <v>0</v>
-      </c>
-      <c r="AO11" s="448">
+      <c r="U11" s="446" t="s">
+        <v>98</v>
+      </c>
+      <c r="V11" s="446" t="s">
+        <v>98</v>
+      </c>
+      <c r="W11" s="446" t="s">
+        <v>98</v>
+      </c>
+      <c r="X11" s="446" t="s">
+        <v>98</v>
+      </c>
+      <c r="Y11" s="446" t="s">
+        <v>98</v>
+      </c>
+      <c r="Z11" s="446" t="s">
+        <v>98</v>
+      </c>
+      <c r="AA11" s="446" t="s">
+        <v>98</v>
+      </c>
+      <c r="AB11" s="446" t="s">
+        <v>98</v>
+      </c>
+      <c r="AC11" s="446" t="s">
+        <v>98</v>
+      </c>
+      <c r="AD11" s="446" t="s">
+        <v>98</v>
+      </c>
+      <c r="AE11" s="446" t="s">
+        <v>98</v>
+      </c>
+      <c r="AF11" s="446" t="s">
+        <v>98</v>
+      </c>
+      <c r="AG11" s="446" t="s">
+        <v>98</v>
+      </c>
+      <c r="AH11" s="446" t="s">
+        <v>98</v>
+      </c>
+      <c r="AI11" s="446" t="s">
+        <v>98</v>
+      </c>
+      <c r="AJ11" s="446" t="s">
+        <v>98</v>
+      </c>
+      <c r="AK11" s="446" t="s">
+        <v>98</v>
+      </c>
+      <c r="AL11" s="446" t="s">
+        <v>98</v>
+      </c>
+      <c r="AM11" s="446">
+        <v>0</v>
+      </c>
+      <c r="AN11" s="446">
+        <v>0</v>
+      </c>
+      <c r="AO11" s="446">
         <f t="shared" si="13"/>
         <v>7.5000000000000011E-2</v>
       </c>
-      <c r="AP11" s="448">
+      <c r="AP11" s="446">
         <v>0.02</v>
       </c>
-      <c r="AQ11" s="448">
+      <c r="AQ11" s="446">
         <v>3</v>
       </c>
-      <c r="AR11" s="452">
+      <c r="AR11" s="450">
         <f t="shared" si="17"/>
         <v>9.3000000000000013E-2</v>
       </c>
-      <c r="AS11" s="452">
+      <c r="AS11" s="450">
         <f t="shared" si="7"/>
         <v>9.300000000000001E-3</v>
       </c>
-      <c r="AT11" s="453">
+      <c r="AT11" s="451">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="AU11" s="453">
+      <c r="AU11" s="451">
         <f t="shared" si="8"/>
         <v>1.0230000000000003E-2</v>
       </c>
-      <c r="AV11" s="452">
+      <c r="AV11" s="450">
         <f t="shared" si="9"/>
         <v>9.0613800000000008E-3</v>
       </c>
-      <c r="AW11" s="453">
+      <c r="AW11" s="451">
         <f t="shared" si="1"/>
         <v>0.12159138000000003</v>
       </c>
-      <c r="AX11" s="454">
+      <c r="AX11" s="452">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AY11" s="455">
+      <c r="AY11" s="453">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="AZ11" s="454">
+      <c r="AZ11" s="452">
         <f t="shared" si="12"/>
         <v>1.7742614169600008E-5</v>
       </c>
@@ -6725,7 +6836,7 @@
       <c r="M12" s="163">
         <v>2800</v>
       </c>
-      <c r="N12" s="461" t="s">
+      <c r="N12" s="459" t="s">
         <v>358</v>
       </c>
       <c r="O12" s="173">
@@ -6895,7 +7006,7 @@
       <c r="M13" s="2">
         <v>2800</v>
       </c>
-      <c r="N13" s="462"/>
+      <c r="N13" s="460"/>
       <c r="O13" s="173">
         <v>84.82</v>
       </c>
@@ -7063,7 +7174,7 @@
       <c r="M14" s="2">
         <v>2800</v>
       </c>
-      <c r="N14" s="462"/>
+      <c r="N14" s="460"/>
       <c r="O14" s="173">
         <v>84.82</v>
       </c>
@@ -7231,7 +7342,7 @@
       <c r="M15" s="2">
         <v>2800</v>
       </c>
-      <c r="N15" s="462"/>
+      <c r="N15" s="460"/>
       <c r="O15" s="173">
         <v>84.82</v>
       </c>
@@ -7399,7 +7510,7 @@
         <f>O16*20/0.75</f>
         <v>403.2</v>
       </c>
-      <c r="N16" s="462"/>
+      <c r="N16" s="460"/>
       <c r="O16" s="173">
         <f>J16*3600/1000</f>
         <v>15.12</v>
@@ -7569,7 +7680,7 @@
         <f t="shared" ref="M17:M18" si="25">O17*20/0.75</f>
         <v>403.2</v>
       </c>
-      <c r="N17" s="462"/>
+      <c r="N17" s="460"/>
       <c r="O17" s="173">
         <f t="shared" ref="O17:O21" si="26">J17*3600/1000</f>
         <v>15.12</v>
@@ -7739,7 +7850,7 @@
         <f t="shared" si="25"/>
         <v>403.2</v>
       </c>
-      <c r="N18" s="462"/>
+      <c r="N18" s="460"/>
       <c r="O18" s="173">
         <f t="shared" si="26"/>
         <v>15.12</v>
@@ -7907,7 +8018,7 @@
       <c r="M19" s="2">
         <v>0</v>
       </c>
-      <c r="N19" s="462"/>
+      <c r="N19" s="460"/>
       <c r="O19" s="173">
         <f t="shared" si="26"/>
         <v>0.9</v>
@@ -8076,7 +8187,7 @@
       <c r="M20" s="2">
         <v>0</v>
       </c>
-      <c r="N20" s="462"/>
+      <c r="N20" s="460"/>
       <c r="O20" s="173">
         <f t="shared" si="26"/>
         <v>0.9</v>
@@ -8245,7 +8356,7 @@
       <c r="M21" s="2">
         <v>0</v>
       </c>
-      <c r="N21" s="463"/>
+      <c r="N21" s="461"/>
       <c r="O21" s="173">
         <f t="shared" si="26"/>
         <v>0.9</v>
@@ -8413,7 +8524,7 @@
       <c r="M22" s="190">
         <v>4100</v>
       </c>
-      <c r="N22" s="467" t="s">
+      <c r="N22" s="465" t="s">
         <v>376</v>
       </c>
       <c r="O22" s="193">
@@ -8542,170 +8653,170 @@
         <v>1.5918917850000001E-6</v>
       </c>
     </row>
-    <row r="23" spans="1:52" s="358" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="443" t="s">
+    <row r="23" spans="1:52" s="544" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="509" t="s">
         <v>410</v>
       </c>
-      <c r="B23" s="354" t="s">
+      <c r="B23" s="541" t="s">
         <v>295</v>
       </c>
-      <c r="C23" s="351" t="s">
+      <c r="C23" s="538" t="s">
         <v>332</v>
       </c>
-      <c r="D23" s="352" t="s">
+      <c r="D23" s="539" t="s">
         <v>342</v>
       </c>
-      <c r="E23" s="353">
+      <c r="E23" s="540">
         <v>9.9999999999999995E-7</v>
       </c>
-      <c r="F23" s="354">
+      <c r="F23" s="541">
         <v>2</v>
       </c>
-      <c r="G23" s="354">
+      <c r="G23" s="541">
         <v>1.9000000000000003E-2</v>
       </c>
-      <c r="H23" s="353">
+      <c r="H23" s="540">
         <f t="shared" ref="H23:H31" si="28">E23*F23*G23</f>
         <v>3.8000000000000003E-8</v>
       </c>
-      <c r="I23" s="354">
+      <c r="I23" s="541">
         <v>63.6</v>
       </c>
-      <c r="J23" s="354">
-        <v>0</v>
-      </c>
-      <c r="K23" s="354">
+      <c r="J23" s="541">
+        <v>0</v>
+      </c>
+      <c r="K23" s="541">
         <v>847</v>
       </c>
-      <c r="L23" s="354">
+      <c r="L23" s="541">
         <v>286</v>
       </c>
-      <c r="M23" s="351">
+      <c r="M23" s="538">
         <v>4100</v>
       </c>
-      <c r="N23" s="468"/>
-      <c r="O23" s="356">
+      <c r="N23" s="466"/>
+      <c r="O23" s="542">
         <v>294.25</v>
       </c>
-      <c r="P23" s="356">
+      <c r="P23" s="542">
         <f>0.1*O23</f>
         <v>29.425000000000001</v>
       </c>
-      <c r="Q23" s="439"/>
-      <c r="R23" s="358" t="str">
+      <c r="Q23" s="543"/>
+      <c r="R23" s="544" t="str">
         <f t="shared" ref="R23:R31" si="29">A23</f>
         <v>С22</v>
       </c>
-      <c r="S23" s="358" t="str">
+      <c r="S23" s="544" t="str">
         <f t="shared" si="5"/>
         <v>Емкости Е-37, Е-43</v>
       </c>
-      <c r="T23" s="431" t="str">
+      <c r="T23" s="545" t="str">
         <f t="shared" si="6"/>
         <v>Полное разрушение - взрыв</v>
       </c>
-      <c r="U23" s="358" t="s">
-        <v>98</v>
-      </c>
-      <c r="V23" s="358" t="s">
-        <v>98</v>
-      </c>
-      <c r="W23" s="358" t="s">
-        <v>98</v>
-      </c>
-      <c r="X23" s="358" t="s">
-        <v>98</v>
-      </c>
-      <c r="Y23" s="358">
+      <c r="U23" s="544" t="s">
+        <v>98</v>
+      </c>
+      <c r="V23" s="544" t="s">
+        <v>98</v>
+      </c>
+      <c r="W23" s="544" t="s">
+        <v>98</v>
+      </c>
+      <c r="X23" s="544" t="s">
+        <v>98</v>
+      </c>
+      <c r="Y23" s="544">
         <v>125</v>
       </c>
-      <c r="Z23" s="358">
+      <c r="Z23" s="544">
         <v>288</v>
       </c>
-      <c r="AA23" s="358">
+      <c r="AA23" s="544">
         <v>784</v>
       </c>
-      <c r="AB23" s="358">
+      <c r="AB23" s="544">
         <v>1343</v>
       </c>
-      <c r="AC23" s="358" t="s">
-        <v>98</v>
-      </c>
-      <c r="AD23" s="358" t="s">
-        <v>98</v>
-      </c>
-      <c r="AE23" s="358" t="s">
-        <v>98</v>
-      </c>
-      <c r="AF23" s="358" t="s">
-        <v>98</v>
-      </c>
-      <c r="AG23" s="358" t="s">
-        <v>98</v>
-      </c>
-      <c r="AH23" s="358" t="s">
-        <v>98</v>
-      </c>
-      <c r="AI23" s="358" t="s">
-        <v>98</v>
-      </c>
-      <c r="AJ23" s="358" t="s">
-        <v>98</v>
-      </c>
-      <c r="AK23" s="358" t="s">
-        <v>98</v>
-      </c>
-      <c r="AL23" s="358" t="s">
-        <v>98</v>
-      </c>
-      <c r="AM23" s="440">
+      <c r="AC23" s="544" t="s">
+        <v>98</v>
+      </c>
+      <c r="AD23" s="544" t="s">
+        <v>98</v>
+      </c>
+      <c r="AE23" s="544" t="s">
+        <v>98</v>
+      </c>
+      <c r="AF23" s="544" t="s">
+        <v>98</v>
+      </c>
+      <c r="AG23" s="544" t="s">
+        <v>98</v>
+      </c>
+      <c r="AH23" s="544" t="s">
+        <v>98</v>
+      </c>
+      <c r="AI23" s="544" t="s">
+        <v>98</v>
+      </c>
+      <c r="AJ23" s="544" t="s">
+        <v>98</v>
+      </c>
+      <c r="AK23" s="544" t="s">
+        <v>98</v>
+      </c>
+      <c r="AL23" s="544" t="s">
+        <v>98</v>
+      </c>
+      <c r="AM23" s="546">
         <v>4</v>
       </c>
-      <c r="AN23" s="440">
-        <v>0</v>
-      </c>
-      <c r="AO23" s="358">
+      <c r="AN23" s="546">
+        <v>0</v>
+      </c>
+      <c r="AO23" s="544">
         <v>0.75</v>
       </c>
-      <c r="AP23" s="358">
+      <c r="AP23" s="544">
         <v>0.02</v>
       </c>
-      <c r="AQ23" s="358">
+      <c r="AQ23" s="544">
         <v>10</v>
       </c>
-      <c r="AR23" s="359">
+      <c r="AR23" s="547">
         <f>AP23*O23+AO23</f>
         <v>6.6349999999999998</v>
       </c>
-      <c r="AS23" s="359">
+      <c r="AS23" s="547">
         <f t="shared" ref="AS23:AS31" si="30">0.1*AR23</f>
         <v>0.66349999999999998</v>
       </c>
-      <c r="AT23" s="360">
+      <c r="AT23" s="548">
         <f>AM23*1.72+115*0.012*AN23</f>
         <v>6.88</v>
       </c>
-      <c r="AU23" s="360">
+      <c r="AU23" s="548">
         <f t="shared" ref="AU23:AU31" si="31">SUM(AR23:AT23)*0.1</f>
         <v>1.4178500000000001</v>
       </c>
-      <c r="AV23" s="359">
+      <c r="AV23" s="547">
         <f t="shared" ref="AV23:AV31" si="32">10068.2*O23*POWER(10,-6)</f>
         <v>2.9625678500000001</v>
       </c>
-      <c r="AW23" s="360">
+      <c r="AW23" s="548">
         <f t="shared" si="18"/>
         <v>18.55891785</v>
       </c>
-      <c r="AX23" s="361">
+      <c r="AX23" s="549">
         <f t="shared" si="10"/>
         <v>1.5200000000000001E-7</v>
       </c>
-      <c r="AY23" s="362">
+      <c r="AY23" s="550">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="AZ23" s="361">
+      <c r="AZ23" s="549">
         <f t="shared" si="12"/>
         <v>7.0523887830000005E-7</v>
       </c>
@@ -8751,7 +8862,7 @@
       <c r="M24" s="190">
         <v>4100</v>
       </c>
-      <c r="N24" s="468"/>
+      <c r="N24" s="466"/>
       <c r="O24" s="193">
         <v>294.25</v>
       </c>
@@ -8919,7 +9030,7 @@
       <c r="M25" s="190">
         <v>4100</v>
       </c>
-      <c r="N25" s="468"/>
+      <c r="N25" s="466"/>
       <c r="O25" s="193">
         <v>294.25</v>
       </c>
@@ -9086,7 +9197,7 @@
       <c r="M26" s="6">
         <v>403.2</v>
       </c>
-      <c r="N26" s="468"/>
+      <c r="N26" s="466"/>
       <c r="O26" s="193">
         <f>J26*3600/1000</f>
         <v>9</v>
@@ -9255,7 +9366,7 @@
       <c r="M27" s="6">
         <v>403.2</v>
       </c>
-      <c r="N27" s="468"/>
+      <c r="N27" s="466"/>
       <c r="O27" s="193">
         <f t="shared" ref="O27:O31" si="34">J27*3600/1000</f>
         <v>9</v>
@@ -9424,7 +9535,7 @@
       <c r="M28" s="6">
         <v>403.2</v>
       </c>
-      <c r="N28" s="468"/>
+      <c r="N28" s="466"/>
       <c r="O28" s="193">
         <f t="shared" si="34"/>
         <v>9</v>
@@ -9592,7 +9703,7 @@
       <c r="M29" s="6">
         <v>0</v>
       </c>
-      <c r="N29" s="468"/>
+      <c r="N29" s="466"/>
       <c r="O29" s="193">
         <f t="shared" si="34"/>
         <v>0.36</v>
@@ -9761,7 +9872,7 @@
       <c r="M30" s="6">
         <v>0</v>
       </c>
-      <c r="N30" s="468"/>
+      <c r="N30" s="466"/>
       <c r="O30" s="193">
         <f t="shared" si="34"/>
         <v>0.36</v>
@@ -9930,7 +10041,7 @@
       <c r="M31" s="6">
         <v>0</v>
       </c>
-      <c r="N31" s="469"/>
+      <c r="N31" s="467"/>
       <c r="O31" s="193">
         <f t="shared" si="34"/>
         <v>0.36</v>
@@ -10098,7 +10209,7 @@
       <c r="M32" s="190">
         <v>4100</v>
       </c>
-      <c r="N32" s="470" t="s">
+      <c r="N32" s="468" t="s">
         <v>376</v>
       </c>
       <c r="O32" s="205">
@@ -10269,7 +10380,7 @@
       <c r="M33" s="190">
         <v>4100</v>
       </c>
-      <c r="N33" s="471"/>
+      <c r="N33" s="469"/>
       <c r="O33" s="205">
         <v>284.60000000000002</v>
       </c>
@@ -10438,7 +10549,7 @@
       <c r="M34" s="190">
         <v>4100</v>
       </c>
-      <c r="N34" s="471"/>
+      <c r="N34" s="469"/>
       <c r="O34" s="205">
         <v>284.60000000000002</v>
       </c>
@@ -10607,7 +10718,7 @@
       <c r="M35" s="190">
         <v>4100</v>
       </c>
-      <c r="N35" s="471"/>
+      <c r="N35" s="469"/>
       <c r="O35" s="205">
         <v>284.60000000000002</v>
       </c>
@@ -10775,7 +10886,7 @@
       <c r="M36" s="6">
         <v>403.2</v>
       </c>
-      <c r="N36" s="471"/>
+      <c r="N36" s="469"/>
       <c r="O36" s="205">
         <f>J36*3600/1000</f>
         <v>9</v>
@@ -10945,7 +11056,7 @@
       <c r="M37" s="6">
         <v>403.2</v>
       </c>
-      <c r="N37" s="471"/>
+      <c r="N37" s="469"/>
       <c r="O37" s="205">
         <f t="shared" ref="O37:O41" si="43">J37*3600/1000</f>
         <v>9</v>
@@ -11115,7 +11226,7 @@
       <c r="M38" s="6">
         <v>403.2</v>
       </c>
-      <c r="N38" s="471"/>
+      <c r="N38" s="469"/>
       <c r="O38" s="205">
         <f t="shared" si="43"/>
         <v>9</v>
@@ -11284,7 +11395,7 @@
       <c r="M39" s="6">
         <v>0</v>
       </c>
-      <c r="N39" s="471"/>
+      <c r="N39" s="469"/>
       <c r="O39" s="205">
         <f t="shared" si="43"/>
         <v>0.36</v>
@@ -11454,7 +11565,7 @@
       <c r="M40" s="6">
         <v>0</v>
       </c>
-      <c r="N40" s="471"/>
+      <c r="N40" s="469"/>
       <c r="O40" s="205">
         <f t="shared" si="43"/>
         <v>0.36</v>
@@ -11624,7 +11735,7 @@
       <c r="M41" s="6">
         <v>0</v>
       </c>
-      <c r="N41" s="472"/>
+      <c r="N41" s="470"/>
       <c r="O41" s="205">
         <f t="shared" si="43"/>
         <v>0.36</v>
@@ -11793,7 +11904,7 @@
       <c r="M42" s="190">
         <v>4100</v>
       </c>
-      <c r="N42" s="473" t="s">
+      <c r="N42" s="471" t="s">
         <v>376</v>
       </c>
       <c r="O42" s="219">
@@ -11964,7 +12075,7 @@
       <c r="M43" s="190">
         <v>4100</v>
       </c>
-      <c r="N43" s="474"/>
+      <c r="N43" s="472"/>
       <c r="O43" s="219">
         <v>272.25</v>
       </c>
@@ -12133,7 +12244,7 @@
       <c r="M44" s="190">
         <v>4100</v>
       </c>
-      <c r="N44" s="474"/>
+      <c r="N44" s="472"/>
       <c r="O44" s="219">
         <v>272.25</v>
       </c>
@@ -12302,7 +12413,7 @@
       <c r="M45" s="190">
         <v>4100</v>
       </c>
-      <c r="N45" s="474"/>
+      <c r="N45" s="472"/>
       <c r="O45" s="219">
         <v>272.25</v>
       </c>
@@ -12470,7 +12581,7 @@
       <c r="M46" s="6">
         <v>403.2</v>
       </c>
-      <c r="N46" s="474"/>
+      <c r="N46" s="472"/>
       <c r="O46" s="219">
         <f>J46*3600/1000</f>
         <v>9</v>
@@ -12640,7 +12751,7 @@
       <c r="M47" s="6">
         <v>403.2</v>
       </c>
-      <c r="N47" s="474"/>
+      <c r="N47" s="472"/>
       <c r="O47" s="219">
         <f t="shared" ref="O47:O51" si="52">J47*3600/1000</f>
         <v>9</v>
@@ -12810,7 +12921,7 @@
       <c r="M48" s="6">
         <v>403.2</v>
       </c>
-      <c r="N48" s="474"/>
+      <c r="N48" s="472"/>
       <c r="O48" s="219">
         <f t="shared" si="52"/>
         <v>9</v>
@@ -12979,7 +13090,7 @@
       <c r="M49" s="6">
         <v>0</v>
       </c>
-      <c r="N49" s="474"/>
+      <c r="N49" s="472"/>
       <c r="O49" s="219">
         <f t="shared" si="52"/>
         <v>0.36</v>
@@ -13149,7 +13260,7 @@
       <c r="M50" s="6">
         <v>0</v>
       </c>
-      <c r="N50" s="474"/>
+      <c r="N50" s="472"/>
       <c r="O50" s="219">
         <f t="shared" si="52"/>
         <v>0.36</v>
@@ -13319,7 +13430,7 @@
       <c r="M51" s="6">
         <v>0</v>
       </c>
-      <c r="N51" s="475"/>
+      <c r="N51" s="473"/>
       <c r="O51" s="219">
         <f t="shared" si="52"/>
         <v>0.36</v>
@@ -13488,7 +13599,7 @@
       <c r="M52" s="283">
         <v>2000</v>
       </c>
-      <c r="N52" s="476" t="s">
+      <c r="N52" s="474" t="s">
         <v>400</v>
       </c>
       <c r="O52" s="287">
@@ -13619,7 +13730,7 @@
       </c>
     </row>
     <row r="53" spans="1:52" s="289" customFormat="1" ht="28.2" x14ac:dyDescent="0.3">
-      <c r="A53" s="107" t="s">
+      <c r="A53" s="536" t="s">
         <v>440</v>
       </c>
       <c r="B53" s="282" t="s">
@@ -13659,7 +13770,7 @@
       <c r="M53" s="283">
         <v>2000</v>
       </c>
-      <c r="N53" s="477"/>
+      <c r="N53" s="475"/>
       <c r="O53" s="287">
         <v>84.82</v>
       </c>
@@ -13828,7 +13939,7 @@
       <c r="M54" s="283">
         <v>2000</v>
       </c>
-      <c r="N54" s="477"/>
+      <c r="N54" s="475"/>
       <c r="O54" s="287">
         <v>84.82</v>
       </c>
@@ -13997,7 +14108,7 @@
       <c r="M55" s="283">
         <v>2000</v>
       </c>
-      <c r="N55" s="477"/>
+      <c r="N55" s="475"/>
       <c r="O55" s="287">
         <v>84.82</v>
       </c>
@@ -14165,7 +14276,7 @@
       <c r="M56" s="289">
         <v>403.2</v>
       </c>
-      <c r="N56" s="477"/>
+      <c r="N56" s="475"/>
       <c r="O56" s="287">
         <f>J56*3600/1000</f>
         <v>9</v>
@@ -14335,7 +14446,7 @@
       <c r="M57" s="289">
         <v>403.2</v>
       </c>
-      <c r="N57" s="477"/>
+      <c r="N57" s="475"/>
       <c r="O57" s="287">
         <f t="shared" ref="O57:O61" si="60">J57*3600/1000</f>
         <v>9</v>
@@ -14505,7 +14616,7 @@
       <c r="M58" s="289">
         <v>403.2</v>
       </c>
-      <c r="N58" s="477"/>
+      <c r="N58" s="475"/>
       <c r="O58" s="287">
         <f t="shared" si="60"/>
         <v>9</v>
@@ -14674,7 +14785,7 @@
       <c r="M59" s="289">
         <v>0</v>
       </c>
-      <c r="N59" s="477"/>
+      <c r="N59" s="475"/>
       <c r="O59" s="287">
         <f t="shared" si="60"/>
         <v>0.36</v>
@@ -14844,7 +14955,7 @@
       <c r="M60" s="289">
         <v>0</v>
       </c>
-      <c r="N60" s="477"/>
+      <c r="N60" s="475"/>
       <c r="O60" s="287">
         <f t="shared" si="60"/>
         <v>0.36</v>
@@ -15014,7 +15125,7 @@
       <c r="M61" s="289">
         <v>0</v>
       </c>
-      <c r="N61" s="478"/>
+      <c r="N61" s="476"/>
       <c r="O61" s="287">
         <f t="shared" si="60"/>
         <v>0.36</v>
@@ -15183,7 +15294,7 @@
       <c r="M62" s="404">
         <v>1800</v>
       </c>
-      <c r="N62" s="479" t="s">
+      <c r="N62" s="477" t="s">
         <v>408</v>
       </c>
       <c r="O62" s="408">
@@ -15313,171 +15424,171 @@
         <v>1.6108378399999999E-6</v>
       </c>
     </row>
-    <row r="63" spans="1:52" s="358" customFormat="1" ht="28.2" x14ac:dyDescent="0.3">
-      <c r="A63" s="443" t="s">
+    <row r="63" spans="1:52" s="544" customFormat="1" ht="28.2" x14ac:dyDescent="0.3">
+      <c r="A63" s="509" t="s">
         <v>450</v>
       </c>
-      <c r="B63" s="350" t="s">
+      <c r="B63" s="537" t="s">
         <v>462</v>
       </c>
-      <c r="C63" s="351" t="s">
+      <c r="C63" s="538" t="s">
         <v>332</v>
       </c>
-      <c r="D63" s="352" t="s">
+      <c r="D63" s="539" t="s">
         <v>342</v>
       </c>
-      <c r="E63" s="353">
+      <c r="E63" s="540">
         <v>4.9999999999999998E-7</v>
       </c>
-      <c r="F63" s="354">
+      <c r="F63" s="541">
         <v>10</v>
       </c>
-      <c r="G63" s="354">
+      <c r="G63" s="541">
         <v>1.9000000000000003E-2</v>
       </c>
-      <c r="H63" s="353">
+      <c r="H63" s="540">
         <f t="shared" ref="H63:H71" si="62">E63*F63*G63</f>
         <v>9.5000000000000004E-8</v>
       </c>
-      <c r="I63" s="354">
+      <c r="I63" s="541">
         <v>9.52</v>
       </c>
-      <c r="J63" s="354">
-        <v>0</v>
-      </c>
-      <c r="K63" s="354">
+      <c r="J63" s="541">
+        <v>0</v>
+      </c>
+      <c r="K63" s="541">
         <v>401</v>
       </c>
-      <c r="L63" s="354">
+      <c r="L63" s="541">
         <v>181</v>
       </c>
-      <c r="M63" s="351">
+      <c r="M63" s="538">
         <v>1800</v>
       </c>
-      <c r="N63" s="480"/>
-      <c r="O63" s="356">
+      <c r="N63" s="478"/>
+      <c r="O63" s="542">
         <v>24.8</v>
       </c>
-      <c r="P63" s="356">
+      <c r="P63" s="542">
         <f>0.1*O63</f>
         <v>2.4800000000000004</v>
       </c>
-      <c r="Q63" s="439"/>
-      <c r="R63" s="358" t="str">
+      <c r="Q63" s="543"/>
+      <c r="R63" s="544" t="str">
         <f t="shared" ref="R63:R71" si="63">A63</f>
         <v>С62</v>
       </c>
-      <c r="S63" s="358" t="str">
+      <c r="S63" s="544" t="str">
         <f t="shared" si="5"/>
         <v xml:space="preserve">Цистерна с СУГ
 </v>
       </c>
-      <c r="T63" s="431" t="str">
+      <c r="T63" s="545" t="str">
         <f t="shared" si="6"/>
         <v>Полное разрушение - взрыв</v>
       </c>
-      <c r="U63" s="358" t="s">
-        <v>98</v>
-      </c>
-      <c r="V63" s="358" t="s">
-        <v>98</v>
-      </c>
-      <c r="W63" s="358" t="s">
-        <v>98</v>
-      </c>
-      <c r="X63" s="358" t="s">
-        <v>98</v>
-      </c>
-      <c r="Y63" s="358">
+      <c r="U63" s="544" t="s">
+        <v>98</v>
+      </c>
+      <c r="V63" s="544" t="s">
+        <v>98</v>
+      </c>
+      <c r="W63" s="544" t="s">
+        <v>98</v>
+      </c>
+      <c r="X63" s="544" t="s">
+        <v>98</v>
+      </c>
+      <c r="Y63" s="544">
         <v>54</v>
       </c>
-      <c r="Z63" s="358">
+      <c r="Z63" s="544">
         <v>126</v>
       </c>
-      <c r="AA63" s="358">
+      <c r="AA63" s="544">
         <v>343</v>
       </c>
-      <c r="AB63" s="358">
+      <c r="AB63" s="544">
         <v>589</v>
       </c>
-      <c r="AC63" s="358" t="s">
-        <v>98</v>
-      </c>
-      <c r="AD63" s="358" t="s">
-        <v>98</v>
-      </c>
-      <c r="AE63" s="358" t="s">
-        <v>98</v>
-      </c>
-      <c r="AF63" s="358" t="s">
-        <v>98</v>
-      </c>
-      <c r="AG63" s="358" t="s">
-        <v>98</v>
-      </c>
-      <c r="AH63" s="358" t="s">
-        <v>98</v>
-      </c>
-      <c r="AI63" s="358" t="s">
-        <v>98</v>
-      </c>
-      <c r="AJ63" s="358" t="s">
-        <v>98</v>
-      </c>
-      <c r="AK63" s="358" t="s">
-        <v>98</v>
-      </c>
-      <c r="AL63" s="358" t="s">
-        <v>98</v>
-      </c>
-      <c r="AM63" s="440">
+      <c r="AC63" s="544" t="s">
+        <v>98</v>
+      </c>
+      <c r="AD63" s="544" t="s">
+        <v>98</v>
+      </c>
+      <c r="AE63" s="544" t="s">
+        <v>98</v>
+      </c>
+      <c r="AF63" s="544" t="s">
+        <v>98</v>
+      </c>
+      <c r="AG63" s="544" t="s">
+        <v>98</v>
+      </c>
+      <c r="AH63" s="544" t="s">
+        <v>98</v>
+      </c>
+      <c r="AI63" s="544" t="s">
+        <v>98</v>
+      </c>
+      <c r="AJ63" s="544" t="s">
+        <v>98</v>
+      </c>
+      <c r="AK63" s="544" t="s">
+        <v>98</v>
+      </c>
+      <c r="AL63" s="544" t="s">
+        <v>98</v>
+      </c>
+      <c r="AM63" s="546">
         <v>3</v>
       </c>
-      <c r="AN63" s="440">
+      <c r="AN63" s="546">
         <v>1</v>
       </c>
-      <c r="AO63" s="358">
+      <c r="AO63" s="544">
         <v>0.55000000000000004</v>
       </c>
-      <c r="AP63" s="358">
+      <c r="AP63" s="544">
         <v>0.02</v>
       </c>
-      <c r="AQ63" s="358">
+      <c r="AQ63" s="544">
         <v>10</v>
       </c>
-      <c r="AR63" s="359">
+      <c r="AR63" s="547">
         <f>AP63*O63+AO63</f>
         <v>1.046</v>
       </c>
-      <c r="AS63" s="359">
+      <c r="AS63" s="547">
         <f t="shared" ref="AS63:AS71" si="64">0.1*AR63</f>
         <v>0.10460000000000001</v>
       </c>
-      <c r="AT63" s="360">
+      <c r="AT63" s="548">
         <f>AM63*1.72+115*0.012*AN63</f>
         <v>6.54</v>
       </c>
-      <c r="AU63" s="360">
+      <c r="AU63" s="548">
         <f t="shared" ref="AU63:AU71" si="65">SUM(AR63:AT63)*0.1</f>
         <v>0.76906000000000008</v>
       </c>
-      <c r="AV63" s="359">
+      <c r="AV63" s="547">
         <f t="shared" ref="AV63:AV71" si="66">10068.2*O63*POWER(10,-6)</f>
         <v>0.24969136</v>
       </c>
-      <c r="AW63" s="360">
+      <c r="AW63" s="548">
         <f t="shared" si="45"/>
         <v>8.7093513599999994</v>
       </c>
-      <c r="AX63" s="361">
+      <c r="AX63" s="549">
         <f t="shared" si="10"/>
         <v>2.8500000000000002E-7</v>
       </c>
-      <c r="AY63" s="362">
+      <c r="AY63" s="550">
         <f t="shared" si="11"/>
         <v>9.5000000000000004E-8</v>
       </c>
-      <c r="AZ63" s="361">
+      <c r="AZ63" s="549">
         <f t="shared" si="12"/>
         <v>8.2738837919999993E-7</v>
       </c>
@@ -15523,7 +15634,7 @@
       <c r="M64" s="404">
         <v>1800</v>
       </c>
-      <c r="N64" s="480"/>
+      <c r="N64" s="478"/>
       <c r="O64" s="408">
         <v>24.8</v>
       </c>
@@ -15692,7 +15803,7 @@
       <c r="M65" s="404">
         <v>1800</v>
       </c>
-      <c r="N65" s="480"/>
+      <c r="N65" s="478"/>
       <c r="O65" s="408">
         <v>24.8</v>
       </c>
@@ -15860,7 +15971,7 @@
       <c r="M66" s="410">
         <v>403.2</v>
       </c>
-      <c r="N66" s="480"/>
+      <c r="N66" s="478"/>
       <c r="O66" s="408">
         <f>J66*3600/1000</f>
         <v>9</v>
@@ -16030,7 +16141,7 @@
       <c r="M67" s="410">
         <v>403.2</v>
       </c>
-      <c r="N67" s="480"/>
+      <c r="N67" s="478"/>
       <c r="O67" s="408">
         <f t="shared" ref="O67:O71" si="68">J67*3600/1000</f>
         <v>9</v>
@@ -16200,7 +16311,7 @@
       <c r="M68" s="410">
         <v>403.2</v>
       </c>
-      <c r="N68" s="480"/>
+      <c r="N68" s="478"/>
       <c r="O68" s="408">
         <f t="shared" si="68"/>
         <v>9</v>
@@ -16369,7 +16480,7 @@
       <c r="M69" s="410">
         <v>0</v>
       </c>
-      <c r="N69" s="480"/>
+      <c r="N69" s="478"/>
       <c r="O69" s="408">
         <f t="shared" si="68"/>
         <v>0.36</v>
@@ -16539,7 +16650,7 @@
       <c r="M70" s="410">
         <v>0</v>
       </c>
-      <c r="N70" s="480"/>
+      <c r="N70" s="478"/>
       <c r="O70" s="408">
         <f t="shared" si="68"/>
         <v>0.36</v>
@@ -16709,7 +16820,7 @@
       <c r="M71" s="410">
         <v>0</v>
       </c>
-      <c r="N71" s="481"/>
+      <c r="N71" s="479"/>
       <c r="O71" s="408">
         <f t="shared" si="68"/>
         <v>0.36</v>
@@ -16878,7 +16989,7 @@
       <c r="M72" s="176">
         <v>2800</v>
       </c>
-      <c r="N72" s="464" t="s">
+      <c r="N72" s="462" t="s">
         <v>373</v>
       </c>
       <c r="O72" s="179">
@@ -17048,7 +17159,7 @@
       <c r="M73" s="176">
         <v>2800</v>
       </c>
-      <c r="N73" s="465"/>
+      <c r="N73" s="463"/>
       <c r="O73" s="179">
         <v>84.82</v>
       </c>
@@ -17216,7 +17327,7 @@
       <c r="M74" s="176">
         <v>2800</v>
       </c>
-      <c r="N74" s="465"/>
+      <c r="N74" s="463"/>
       <c r="O74" s="179">
         <v>84.82</v>
       </c>
@@ -17384,7 +17495,7 @@
       <c r="M75" s="176">
         <v>2800</v>
       </c>
-      <c r="N75" s="465"/>
+      <c r="N75" s="463"/>
       <c r="O75" s="179">
         <v>84.82</v>
       </c>
@@ -17552,7 +17663,7 @@
         <f>(O76/0.75)*20</f>
         <v>431.99999999999994</v>
       </c>
-      <c r="N76" s="465"/>
+      <c r="N76" s="463"/>
       <c r="O76" s="179">
         <f>J76*3600/1000</f>
         <v>16.2</v>
@@ -17722,7 +17833,7 @@
         <f t="shared" ref="M77:M78" si="81">(O77/0.75)*20</f>
         <v>431.99999999999994</v>
       </c>
-      <c r="N77" s="465"/>
+      <c r="N77" s="463"/>
       <c r="O77" s="179">
         <f t="shared" ref="O77:O81" si="82">J77*3600/1000</f>
         <v>16.2</v>
@@ -17892,7 +18003,7 @@
         <f t="shared" si="81"/>
         <v>431.99999999999994</v>
       </c>
-      <c r="N78" s="465"/>
+      <c r="N78" s="463"/>
       <c r="O78" s="179">
         <f t="shared" si="82"/>
         <v>16.2</v>
@@ -18060,7 +18171,7 @@
       <c r="M79" s="181">
         <v>0</v>
       </c>
-      <c r="N79" s="465"/>
+      <c r="N79" s="463"/>
       <c r="O79" s="179">
         <f t="shared" si="82"/>
         <v>0.54</v>
@@ -18229,7 +18340,7 @@
       <c r="M80" s="181">
         <v>0</v>
       </c>
-      <c r="N80" s="465"/>
+      <c r="N80" s="463"/>
       <c r="O80" s="179">
         <f t="shared" si="82"/>
         <v>0.54</v>
@@ -18398,7 +18509,7 @@
       <c r="M81" s="181">
         <v>0</v>
       </c>
-      <c r="N81" s="466"/>
+      <c r="N81" s="464"/>
       <c r="O81" s="179">
         <f t="shared" si="82"/>
         <v>0.54</v>
@@ -18566,7 +18677,7 @@
       <c r="M82" s="229">
         <v>4100</v>
       </c>
-      <c r="N82" s="488" t="s">
+      <c r="N82" s="486" t="s">
         <v>379</v>
       </c>
       <c r="O82" s="232">
@@ -18737,7 +18848,7 @@
       <c r="M83" s="229">
         <v>4100</v>
       </c>
-      <c r="N83" s="489"/>
+      <c r="N83" s="487"/>
       <c r="O83" s="232">
         <v>329.17</v>
       </c>
@@ -18906,7 +19017,7 @@
       <c r="M84" s="229">
         <v>4100</v>
       </c>
-      <c r="N84" s="489"/>
+      <c r="N84" s="487"/>
       <c r="O84" s="232">
         <v>329.17</v>
       </c>
@@ -19075,7 +19186,7 @@
       <c r="M85" s="229">
         <v>4100</v>
       </c>
-      <c r="N85" s="489"/>
+      <c r="N85" s="487"/>
       <c r="O85" s="232">
         <v>329.17</v>
       </c>
@@ -19244,7 +19355,7 @@
         <f>(O86/0.75)*20</f>
         <v>115.20000000000002</v>
       </c>
-      <c r="N86" s="489"/>
+      <c r="N86" s="487"/>
       <c r="O86" s="232">
         <f>J86*3600/1000</f>
         <v>4.32</v>
@@ -19415,7 +19526,7 @@
         <f t="shared" ref="M87:M88" si="90">(O87/0.75)*20</f>
         <v>115.20000000000002</v>
       </c>
-      <c r="N87" s="489"/>
+      <c r="N87" s="487"/>
       <c r="O87" s="232">
         <f t="shared" ref="O87:O91" si="91">J87*3600/1000</f>
         <v>4.32</v>
@@ -19586,7 +19697,7 @@
         <f t="shared" si="90"/>
         <v>115.20000000000002</v>
       </c>
-      <c r="N88" s="489"/>
+      <c r="N88" s="487"/>
       <c r="O88" s="232">
         <f t="shared" si="91"/>
         <v>4.32</v>
@@ -19755,7 +19866,7 @@
       <c r="M89" s="5">
         <v>0</v>
       </c>
-      <c r="N89" s="489"/>
+      <c r="N89" s="487"/>
       <c r="O89" s="232">
         <f t="shared" si="91"/>
         <v>0.18</v>
@@ -19925,7 +20036,7 @@
       <c r="M90" s="5">
         <v>0</v>
       </c>
-      <c r="N90" s="489"/>
+      <c r="N90" s="487"/>
       <c r="O90" s="232">
         <f t="shared" si="91"/>
         <v>0.18</v>
@@ -20095,7 +20206,7 @@
       <c r="M91" s="5">
         <v>0</v>
       </c>
-      <c r="N91" s="490"/>
+      <c r="N91" s="488"/>
       <c r="O91" s="232">
         <f t="shared" si="91"/>
         <v>0.18</v>
@@ -20264,7 +20375,7 @@
       <c r="M92" s="176">
         <v>2800</v>
       </c>
-      <c r="N92" s="464" t="s">
+      <c r="N92" s="462" t="s">
         <v>373</v>
       </c>
       <c r="O92" s="179">
@@ -20434,7 +20545,7 @@
       <c r="M93" s="176">
         <v>2800</v>
       </c>
-      <c r="N93" s="465"/>
+      <c r="N93" s="463"/>
       <c r="O93" s="179">
         <v>96.52</v>
       </c>
@@ -20602,7 +20713,7 @@
       <c r="M94" s="176">
         <v>2800</v>
       </c>
-      <c r="N94" s="465"/>
+      <c r="N94" s="463"/>
       <c r="O94" s="179">
         <v>96.52</v>
       </c>
@@ -20770,7 +20881,7 @@
       <c r="M95" s="176">
         <v>2800</v>
       </c>
-      <c r="N95" s="465"/>
+      <c r="N95" s="463"/>
       <c r="O95" s="179">
         <v>96.52</v>
       </c>
@@ -20938,7 +21049,7 @@
         <f>(O96/0.75)*20</f>
         <v>431.99999999999994</v>
       </c>
-      <c r="N96" s="465"/>
+      <c r="N96" s="463"/>
       <c r="O96" s="179">
         <f>J96*3600/1000</f>
         <v>16.2</v>
@@ -21108,7 +21219,7 @@
         <f t="shared" ref="M97:M98" si="98">(O97/0.75)*20</f>
         <v>431.99999999999994</v>
       </c>
-      <c r="N97" s="465"/>
+      <c r="N97" s="463"/>
       <c r="O97" s="179">
         <f t="shared" ref="O97:O101" si="99">J97*3600/1000</f>
         <v>16.2</v>
@@ -21278,7 +21389,7 @@
         <f t="shared" si="98"/>
         <v>431.99999999999994</v>
       </c>
-      <c r="N98" s="465"/>
+      <c r="N98" s="463"/>
       <c r="O98" s="179">
         <f t="shared" si="99"/>
         <v>16.2</v>
@@ -21446,7 +21557,7 @@
       <c r="M99" s="181">
         <v>0</v>
       </c>
-      <c r="N99" s="465"/>
+      <c r="N99" s="463"/>
       <c r="O99" s="179">
         <f t="shared" si="99"/>
         <v>0.54</v>
@@ -21615,7 +21726,7 @@
       <c r="M100" s="181">
         <v>0</v>
       </c>
-      <c r="N100" s="465"/>
+      <c r="N100" s="463"/>
       <c r="O100" s="179">
         <f t="shared" si="99"/>
         <v>0.54</v>
@@ -21784,7 +21895,7 @@
       <c r="M101" s="181">
         <v>0</v>
       </c>
-      <c r="N101" s="466"/>
+      <c r="N101" s="464"/>
       <c r="O101" s="179">
         <f t="shared" si="99"/>
         <v>0.54</v>
@@ -21952,7 +22063,7 @@
       <c r="M102" s="259">
         <v>800</v>
       </c>
-      <c r="N102" s="482" t="s">
+      <c r="N102" s="480" t="s">
         <v>399</v>
       </c>
       <c r="O102" s="262">
@@ -22122,7 +22233,7 @@
       <c r="M103" s="259">
         <v>800</v>
       </c>
-      <c r="N103" s="483"/>
+      <c r="N103" s="481"/>
       <c r="O103" s="262">
         <v>131.13999999999999</v>
       </c>
@@ -22290,7 +22401,7 @@
       <c r="M104" s="259">
         <v>800</v>
       </c>
-      <c r="N104" s="483"/>
+      <c r="N104" s="481"/>
       <c r="O104" s="262">
         <v>131.13999999999999</v>
       </c>
@@ -22458,7 +22569,7 @@
       <c r="M105" s="259">
         <v>800</v>
       </c>
-      <c r="N105" s="483"/>
+      <c r="N105" s="481"/>
       <c r="O105" s="262">
         <v>131.13999999999999</v>
       </c>
@@ -22626,7 +22737,7 @@
         <f>(O106/0.75)*20</f>
         <v>316.8</v>
       </c>
-      <c r="N106" s="483"/>
+      <c r="N106" s="481"/>
       <c r="O106" s="262">
         <f>J106*3600/1000</f>
         <v>11.88</v>
@@ -22796,7 +22907,7 @@
         <f t="shared" ref="M107:M108" si="107">(O107/0.75)*20</f>
         <v>316.8</v>
       </c>
-      <c r="N107" s="483"/>
+      <c r="N107" s="481"/>
       <c r="O107" s="262">
         <f t="shared" ref="O107:O111" si="108">J107*3600/1000</f>
         <v>11.88</v>
@@ -22966,7 +23077,7 @@
         <f t="shared" si="107"/>
         <v>316.8</v>
       </c>
-      <c r="N108" s="483"/>
+      <c r="N108" s="481"/>
       <c r="O108" s="262">
         <f t="shared" si="108"/>
         <v>11.88</v>
@@ -23134,7 +23245,7 @@
       <c r="M109" s="264">
         <v>0</v>
       </c>
-      <c r="N109" s="483"/>
+      <c r="N109" s="481"/>
       <c r="O109" s="262">
         <f t="shared" si="108"/>
         <v>0.54</v>
@@ -23303,7 +23414,7 @@
       <c r="M110" s="264">
         <v>0</v>
       </c>
-      <c r="N110" s="483"/>
+      <c r="N110" s="481"/>
       <c r="O110" s="262">
         <f t="shared" si="108"/>
         <v>0.54</v>
@@ -23472,7 +23583,7 @@
       <c r="M111" s="264">
         <v>0</v>
       </c>
-      <c r="N111" s="484"/>
+      <c r="N111" s="482"/>
       <c r="O111" s="262">
         <f t="shared" si="108"/>
         <v>0.54</v>
@@ -23640,7 +23751,7 @@
       <c r="M112" s="271">
         <v>500</v>
       </c>
-      <c r="N112" s="485" t="s">
+      <c r="N112" s="483" t="s">
         <v>399</v>
       </c>
       <c r="O112" s="275">
@@ -23810,7 +23921,7 @@
       <c r="M113" s="271">
         <v>500</v>
       </c>
-      <c r="N113" s="486"/>
+      <c r="N113" s="484"/>
       <c r="O113" s="275">
         <v>33.86</v>
       </c>
@@ -23978,7 +24089,7 @@
       <c r="M114" s="271">
         <v>500</v>
       </c>
-      <c r="N114" s="486"/>
+      <c r="N114" s="484"/>
       <c r="O114" s="275">
         <v>33.86</v>
       </c>
@@ -24146,7 +24257,7 @@
       <c r="M115" s="271">
         <v>500</v>
       </c>
-      <c r="N115" s="486"/>
+      <c r="N115" s="484"/>
       <c r="O115" s="275">
         <v>33.86</v>
       </c>
@@ -24314,7 +24425,7 @@
         <f>(O116/0.75)*20</f>
         <v>115.20000000000002</v>
       </c>
-      <c r="N116" s="486"/>
+      <c r="N116" s="484"/>
       <c r="O116" s="275">
         <f>J116*3600/1000</f>
         <v>4.32</v>
@@ -24484,7 +24595,7 @@
         <f t="shared" ref="M117:M118" si="115">(O117/0.75)*20</f>
         <v>115.20000000000002</v>
       </c>
-      <c r="N117" s="486"/>
+      <c r="N117" s="484"/>
       <c r="O117" s="275">
         <f t="shared" ref="O117:O121" si="116">J117*3600/1000</f>
         <v>4.32</v>
@@ -24654,7 +24765,7 @@
         <f t="shared" si="115"/>
         <v>115.20000000000002</v>
       </c>
-      <c r="N118" s="486"/>
+      <c r="N118" s="484"/>
       <c r="O118" s="275">
         <f t="shared" si="116"/>
         <v>4.32</v>
@@ -24822,7 +24933,7 @@
       <c r="M119" s="276">
         <v>0</v>
       </c>
-      <c r="N119" s="486"/>
+      <c r="N119" s="484"/>
       <c r="O119" s="275">
         <f t="shared" si="116"/>
         <v>7.1999999999999995E-2</v>
@@ -24991,7 +25102,7 @@
       <c r="M120" s="276">
         <v>0</v>
       </c>
-      <c r="N120" s="486"/>
+      <c r="N120" s="484"/>
       <c r="O120" s="275">
         <f t="shared" si="116"/>
         <v>7.1999999999999995E-2</v>
@@ -25160,7 +25271,7 @@
       <c r="M121" s="276">
         <v>0</v>
       </c>
-      <c r="N121" s="487"/>
+      <c r="N121" s="485"/>
       <c r="O121" s="275">
         <f t="shared" si="116"/>
         <v>7.1999999999999995E-2</v>
@@ -25328,7 +25439,7 @@
       <c r="M122" s="283">
         <v>930</v>
       </c>
-      <c r="N122" s="476" t="s">
+      <c r="N122" s="474" t="s">
         <v>399</v>
       </c>
       <c r="O122" s="287">
@@ -25498,7 +25609,7 @@
       <c r="M123" s="283">
         <v>930</v>
       </c>
-      <c r="N123" s="477"/>
+      <c r="N123" s="475"/>
       <c r="O123" s="287">
         <v>55.19</v>
       </c>
@@ -25666,7 +25777,7 @@
       <c r="M124" s="283">
         <v>930</v>
       </c>
-      <c r="N124" s="477"/>
+      <c r="N124" s="475"/>
       <c r="O124" s="287">
         <v>55.19</v>
       </c>
@@ -25834,7 +25945,7 @@
       <c r="M125" s="283">
         <v>930</v>
       </c>
-      <c r="N125" s="477"/>
+      <c r="N125" s="475"/>
       <c r="O125" s="287">
         <v>55.19</v>
       </c>
@@ -26002,7 +26113,7 @@
         <f>(O126/0.75)*20</f>
         <v>240</v>
       </c>
-      <c r="N126" s="477"/>
+      <c r="N126" s="475"/>
       <c r="O126" s="287">
         <f>J126*3600/1000</f>
         <v>9</v>
@@ -26172,7 +26283,7 @@
         <f t="shared" ref="M127:M128" si="123">(O127/0.75)*20</f>
         <v>240</v>
       </c>
-      <c r="N127" s="477"/>
+      <c r="N127" s="475"/>
       <c r="O127" s="287">
         <f t="shared" ref="O127:O131" si="124">J127*3600/1000</f>
         <v>9</v>
@@ -26342,7 +26453,7 @@
         <f t="shared" si="123"/>
         <v>240</v>
       </c>
-      <c r="N128" s="477"/>
+      <c r="N128" s="475"/>
       <c r="O128" s="287">
         <f t="shared" si="124"/>
         <v>9</v>
@@ -26510,7 +26621,7 @@
       <c r="M129" s="289">
         <v>0</v>
       </c>
-      <c r="N129" s="477"/>
+      <c r="N129" s="475"/>
       <c r="O129" s="287">
         <f t="shared" si="124"/>
         <v>7.1999999999999995E-2</v>
@@ -26679,7 +26790,7 @@
       <c r="M130" s="289">
         <v>0</v>
       </c>
-      <c r="N130" s="477"/>
+      <c r="N130" s="475"/>
       <c r="O130" s="287">
         <f t="shared" si="124"/>
         <v>7.1999999999999995E-2</v>
@@ -26848,7 +26959,7 @@
       <c r="M131" s="289">
         <v>0</v>
       </c>
-      <c r="N131" s="478"/>
+      <c r="N131" s="476"/>
       <c r="O131" s="287">
         <f t="shared" si="124"/>
         <v>7.1999999999999995E-2</v>
@@ -27017,7 +27128,7 @@
         <f>(O132/0.75)*20</f>
         <v>2080</v>
       </c>
-      <c r="N132" s="456"/>
+      <c r="N132" s="454"/>
       <c r="O132" s="250">
         <f>J132*12/1000</f>
         <v>78</v>
@@ -27181,7 +27292,7 @@
         <f t="shared" ref="M133:M135" si="132">(O133/0.75)*20</f>
         <v>2080</v>
       </c>
-      <c r="N133" s="457"/>
+      <c r="N133" s="455"/>
       <c r="O133" s="250">
         <f t="shared" ref="O133:O135" si="133">J133*12/1000</f>
         <v>78</v>
@@ -27351,7 +27462,7 @@
         <f t="shared" si="132"/>
         <v>2080</v>
       </c>
-      <c r="N134" s="457"/>
+      <c r="N134" s="455"/>
       <c r="O134" s="250">
         <f t="shared" si="133"/>
         <v>78</v>
@@ -27521,7 +27632,7 @@
         <f t="shared" si="132"/>
         <v>2080</v>
       </c>
-      <c r="N135" s="457"/>
+      <c r="N135" s="455"/>
       <c r="O135" s="250">
         <f t="shared" si="133"/>
         <v>78</v>
@@ -27690,7 +27801,7 @@
         <f>(O136/0.75)*20</f>
         <v>431.99999999999994</v>
       </c>
-      <c r="N136" s="457"/>
+      <c r="N136" s="455"/>
       <c r="O136" s="250">
         <f>J136*3600/1000</f>
         <v>16.2</v>
@@ -27860,7 +27971,7 @@
         <f t="shared" ref="M137:M138" si="140">(O137/0.75)*20</f>
         <v>431.99999999999994</v>
       </c>
-      <c r="N137" s="457"/>
+      <c r="N137" s="455"/>
       <c r="O137" s="250">
         <f t="shared" ref="O137:O138" si="141">J137*3600/1000</f>
         <v>16.2</v>
@@ -28030,7 +28141,7 @@
         <f t="shared" si="140"/>
         <v>431.99999999999994</v>
       </c>
-      <c r="N138" s="457"/>
+      <c r="N138" s="455"/>
       <c r="O138" s="250">
         <f t="shared" si="141"/>
         <v>16.2</v>
@@ -28199,7 +28310,7 @@
         <f>(O139/0.75)*20</f>
         <v>2432</v>
       </c>
-      <c r="N139" s="495"/>
+      <c r="N139" s="493"/>
       <c r="O139" s="303">
         <f>J139*12/1000</f>
         <v>91.2</v>
@@ -28369,7 +28480,7 @@
         <f t="shared" ref="M140:M142" si="143">(O140/0.75)*20</f>
         <v>2432</v>
       </c>
-      <c r="N140" s="496"/>
+      <c r="N140" s="494"/>
       <c r="O140" s="303">
         <f t="shared" ref="O140:O142" si="144">J140*12/1000</f>
         <v>91.2</v>
@@ -28539,7 +28650,7 @@
         <f t="shared" si="143"/>
         <v>2432</v>
       </c>
-      <c r="N141" s="496"/>
+      <c r="N141" s="494"/>
       <c r="O141" s="303">
         <f t="shared" si="144"/>
         <v>91.2</v>
@@ -28709,7 +28820,7 @@
         <f t="shared" si="143"/>
         <v>2432</v>
       </c>
-      <c r="N142" s="496"/>
+      <c r="N142" s="494"/>
       <c r="O142" s="303">
         <f t="shared" si="144"/>
         <v>91.2</v>
@@ -28878,7 +28989,7 @@
         <f>(O143/0.75)*20</f>
         <v>508.79999999999995</v>
       </c>
-      <c r="N143" s="496"/>
+      <c r="N143" s="494"/>
       <c r="O143" s="303">
         <f>J143*3600/1000</f>
         <v>19.079999999999998</v>
@@ -29048,7 +29159,7 @@
         <f t="shared" ref="M144:M145" si="147">(O144/0.75)*20</f>
         <v>508.79999999999995</v>
       </c>
-      <c r="N144" s="496"/>
+      <c r="N144" s="494"/>
       <c r="O144" s="303">
         <f t="shared" ref="O144:O145" si="148">J144*3600/1000</f>
         <v>19.079999999999998</v>
@@ -29218,7 +29329,7 @@
         <f t="shared" si="147"/>
         <v>508.79999999999995</v>
       </c>
-      <c r="N145" s="496"/>
+      <c r="N145" s="494"/>
       <c r="O145" s="303">
         <f t="shared" si="148"/>
         <v>19.079999999999998</v>
@@ -29386,7 +29497,7 @@
       <c r="M146" s="417">
         <v>1800</v>
       </c>
-      <c r="N146" s="479"/>
+      <c r="N146" s="477"/>
       <c r="O146" s="408">
         <f>60*0.8*0.75</f>
         <v>36</v>
@@ -29555,7 +29666,7 @@
       <c r="M147" s="417">
         <v>1800</v>
       </c>
-      <c r="N147" s="480"/>
+      <c r="N147" s="478"/>
       <c r="O147" s="408">
         <f t="shared" ref="O147:O149" si="150">60*0.8*0.75</f>
         <v>36</v>
@@ -29724,7 +29835,7 @@
       <c r="M148" s="417">
         <v>1800</v>
       </c>
-      <c r="N148" s="480"/>
+      <c r="N148" s="478"/>
       <c r="O148" s="408">
         <f t="shared" si="150"/>
         <v>36</v>
@@ -29893,7 +30004,7 @@
       <c r="M149" s="417">
         <v>1800</v>
       </c>
-      <c r="N149" s="480"/>
+      <c r="N149" s="478"/>
       <c r="O149" s="408">
         <f t="shared" si="150"/>
         <v>36</v>
@@ -30062,7 +30173,7 @@
         <f>(O150/0.75)*20</f>
         <v>67.2</v>
       </c>
-      <c r="N150" s="480"/>
+      <c r="N150" s="478"/>
       <c r="O150" s="408">
         <f>J150*3600/1000</f>
         <v>2.52</v>
@@ -30232,7 +30343,7 @@
         <f t="shared" ref="M151:M152" si="154">(O151/0.75)*20</f>
         <v>67.2</v>
       </c>
-      <c r="N151" s="480"/>
+      <c r="N151" s="478"/>
       <c r="O151" s="408">
         <f t="shared" ref="O151:O152" si="155">J151*3600/1000</f>
         <v>2.52</v>
@@ -30402,7 +30513,7 @@
         <f t="shared" si="154"/>
         <v>67.2</v>
       </c>
-      <c r="N152" s="480"/>
+      <c r="N152" s="478"/>
       <c r="O152" s="408">
         <f t="shared" si="155"/>
         <v>2.52</v>
@@ -30570,7 +30681,7 @@
       <c r="M153" s="342">
         <v>6500</v>
       </c>
-      <c r="N153" s="497"/>
+      <c r="N153" s="495"/>
       <c r="O153" s="343">
         <v>199.2</v>
       </c>
@@ -30697,170 +30808,170 @@
         <v>1.0527725440000003E-5</v>
       </c>
     </row>
-    <row r="154" spans="1:52" s="345" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A154" s="107" t="s">
+    <row r="154" spans="1:52" s="530" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A154" s="509" t="s">
         <v>164</v>
       </c>
-      <c r="B154" s="337" t="s">
+      <c r="B154" s="524" t="s">
         <v>405</v>
       </c>
-      <c r="C154" s="338" t="s">
+      <c r="C154" s="525" t="s">
         <v>464</v>
       </c>
-      <c r="D154" s="339" t="s">
+      <c r="D154" s="526" t="s">
         <v>342</v>
       </c>
-      <c r="E154" s="340">
+      <c r="E154" s="527">
         <v>1.0000000000000001E-5</v>
       </c>
-      <c r="F154" s="341">
+      <c r="F154" s="528">
         <v>2</v>
       </c>
-      <c r="G154" s="341">
+      <c r="G154" s="528">
         <v>1.9000000000000003E-2</v>
       </c>
-      <c r="H154" s="340">
+      <c r="H154" s="527">
         <f t="shared" ref="H154:H159" si="156">E154*F154*G154</f>
         <v>3.8000000000000007E-7</v>
       </c>
-      <c r="I154" s="341">
-        <v>0</v>
-      </c>
-      <c r="J154" s="341">
+      <c r="I154" s="528">
+        <v>0</v>
+      </c>
+      <c r="J154" s="528">
         <v>7600</v>
       </c>
-      <c r="K154" s="341">
+      <c r="K154" s="528">
         <v>111</v>
       </c>
-      <c r="L154" s="341">
+      <c r="L154" s="528">
         <v>56</v>
       </c>
-      <c r="M154" s="342">
+      <c r="M154" s="565">
         <v>6500</v>
       </c>
-      <c r="N154" s="498"/>
-      <c r="O154" s="343">
+      <c r="N154" s="496"/>
+      <c r="O154" s="529">
         <v>199.2</v>
       </c>
-      <c r="P154" s="343">
+      <c r="P154" s="529">
         <f>POWER(10,-6)*SQRT(171)*3*M153*3600*0.1/1000</f>
         <v>9.1798411750966577E-2</v>
       </c>
-      <c r="Q154" s="344"/>
-      <c r="R154" s="345" t="str">
+      <c r="Q154" s="566"/>
+      <c r="R154" s="530" t="str">
         <f t="shared" si="151"/>
         <v>С153</v>
       </c>
-      <c r="S154" s="345" t="str">
+      <c r="S154" s="530" t="str">
         <f t="shared" si="126"/>
         <v>Емкости Е-1, Е-3</v>
       </c>
-      <c r="T154" s="430" t="str">
+      <c r="T154" s="531" t="str">
         <f t="shared" si="127"/>
         <v>Полное разрушение - взрыв</v>
       </c>
-      <c r="U154" s="345" t="s">
-        <v>98</v>
-      </c>
-      <c r="V154" s="345" t="s">
-        <v>98</v>
-      </c>
-      <c r="W154" s="345" t="s">
-        <v>98</v>
-      </c>
-      <c r="X154" s="345" t="s">
-        <v>98</v>
-      </c>
-      <c r="Y154" s="345">
+      <c r="U154" s="530" t="s">
+        <v>98</v>
+      </c>
+      <c r="V154" s="530" t="s">
+        <v>98</v>
+      </c>
+      <c r="W154" s="530" t="s">
+        <v>98</v>
+      </c>
+      <c r="X154" s="530" t="s">
+        <v>98</v>
+      </c>
+      <c r="Y154" s="530">
         <v>18</v>
       </c>
-      <c r="Z154" s="345">
+      <c r="Z154" s="530">
         <v>42</v>
       </c>
-      <c r="AA154" s="345">
+      <c r="AA154" s="530">
         <v>114</v>
       </c>
-      <c r="AB154" s="345">
+      <c r="AB154" s="530">
         <v>196</v>
       </c>
-      <c r="AC154" s="345" t="s">
-        <v>98</v>
-      </c>
-      <c r="AD154" s="345" t="s">
-        <v>98</v>
-      </c>
-      <c r="AE154" s="345" t="s">
-        <v>98</v>
-      </c>
-      <c r="AF154" s="345" t="s">
-        <v>98</v>
-      </c>
-      <c r="AG154" s="345" t="s">
-        <v>98</v>
-      </c>
-      <c r="AH154" s="345" t="s">
-        <v>98</v>
-      </c>
-      <c r="AI154" s="345" t="s">
-        <v>98</v>
-      </c>
-      <c r="AJ154" s="345" t="s">
-        <v>98</v>
-      </c>
-      <c r="AK154" s="345" t="s">
-        <v>98</v>
-      </c>
-      <c r="AL154" s="345" t="s">
-        <v>98</v>
-      </c>
-      <c r="AM154" s="345">
+      <c r="AC154" s="530" t="s">
+        <v>98</v>
+      </c>
+      <c r="AD154" s="530" t="s">
+        <v>98</v>
+      </c>
+      <c r="AE154" s="530" t="s">
+        <v>98</v>
+      </c>
+      <c r="AF154" s="530" t="s">
+        <v>98</v>
+      </c>
+      <c r="AG154" s="530" t="s">
+        <v>98</v>
+      </c>
+      <c r="AH154" s="530" t="s">
+        <v>98</v>
+      </c>
+      <c r="AI154" s="530" t="s">
+        <v>98</v>
+      </c>
+      <c r="AJ154" s="530" t="s">
+        <v>98</v>
+      </c>
+      <c r="AK154" s="530" t="s">
+        <v>98</v>
+      </c>
+      <c r="AL154" s="530" t="s">
+        <v>98</v>
+      </c>
+      <c r="AM154" s="530">
         <v>2</v>
       </c>
-      <c r="AN154" s="345">
+      <c r="AN154" s="530">
         <v>1</v>
       </c>
-      <c r="AO154" s="345">
+      <c r="AO154" s="530">
         <v>0.55000000000000004</v>
       </c>
-      <c r="AP154" s="345">
+      <c r="AP154" s="530">
         <v>0.02</v>
       </c>
-      <c r="AQ154" s="345">
+      <c r="AQ154" s="530">
         <v>5</v>
       </c>
-      <c r="AR154" s="346">
+      <c r="AR154" s="532">
         <f t="shared" si="153"/>
         <v>4.5339999999999998</v>
       </c>
-      <c r="AS154" s="346">
+      <c r="AS154" s="532">
         <f t="shared" si="134"/>
         <v>0.45340000000000003</v>
       </c>
-      <c r="AT154" s="347">
+      <c r="AT154" s="533">
         <f t="shared" si="139"/>
         <v>4.82</v>
       </c>
-      <c r="AU154" s="347">
+      <c r="AU154" s="533">
         <f t="shared" si="135"/>
         <v>0.98074000000000017</v>
       </c>
-      <c r="AV154" s="346">
+      <c r="AV154" s="532">
         <f t="shared" si="136"/>
         <v>2.0055854399999999</v>
       </c>
-      <c r="AW154" s="347">
+      <c r="AW154" s="533">
         <f t="shared" si="137"/>
         <v>12.793725439999999</v>
       </c>
-      <c r="AX154" s="348">
+      <c r="AX154" s="534">
         <f t="shared" si="128"/>
         <v>7.6000000000000014E-7</v>
       </c>
-      <c r="AY154" s="349">
+      <c r="AY154" s="535">
         <f t="shared" si="129"/>
         <v>3.8000000000000007E-7</v>
       </c>
-      <c r="AZ154" s="348">
+      <c r="AZ154" s="534">
         <f t="shared" si="130"/>
         <v>4.8616156672000009E-6</v>
       </c>
@@ -30906,7 +31017,7 @@
       <c r="M155" s="342">
         <v>6500</v>
       </c>
-      <c r="N155" s="498"/>
+      <c r="N155" s="496"/>
       <c r="O155" s="343">
         <v>199.2</v>
       </c>
@@ -31074,7 +31185,7 @@
       <c r="M156" s="342">
         <v>6500</v>
       </c>
-      <c r="N156" s="498"/>
+      <c r="N156" s="496"/>
       <c r="O156" s="343">
         <v>199.2</v>
       </c>
@@ -31242,7 +31353,7 @@
         <f>(O157/0.75)*20</f>
         <v>364.79999999999995</v>
       </c>
-      <c r="N157" s="498"/>
+      <c r="N157" s="496"/>
       <c r="O157" s="343">
         <f>J157*3600/1000</f>
         <v>13.68</v>
@@ -31412,7 +31523,7 @@
         <f t="shared" ref="M158:M159" si="159">(O158/0.75)*20</f>
         <v>364.79999999999995</v>
       </c>
-      <c r="N158" s="498"/>
+      <c r="N158" s="496"/>
       <c r="O158" s="343">
         <f t="shared" ref="O158:O159" si="160">J158*3600/1000</f>
         <v>13.68</v>
@@ -31582,7 +31693,7 @@
         <f t="shared" si="159"/>
         <v>364.79999999999995</v>
       </c>
-      <c r="N159" s="498"/>
+      <c r="N159" s="496"/>
       <c r="O159" s="343">
         <f t="shared" si="160"/>
         <v>13.68</v>
@@ -31750,7 +31861,7 @@
       <c r="M160" s="355">
         <v>2700</v>
       </c>
-      <c r="N160" s="499"/>
+      <c r="N160" s="497"/>
       <c r="O160" s="356">
         <v>83</v>
       </c>
@@ -31918,7 +32029,7 @@
       <c r="M161" s="355">
         <v>2700</v>
       </c>
-      <c r="N161" s="500"/>
+      <c r="N161" s="498"/>
       <c r="O161" s="356">
         <v>83</v>
       </c>
@@ -32086,7 +32197,7 @@
       <c r="M162" s="355">
         <v>2700</v>
       </c>
-      <c r="N162" s="500"/>
+      <c r="N162" s="498"/>
       <c r="O162" s="356">
         <v>83</v>
       </c>
@@ -32254,7 +32365,7 @@
       <c r="M163" s="355">
         <v>2700</v>
       </c>
-      <c r="N163" s="500"/>
+      <c r="N163" s="498"/>
       <c r="O163" s="356">
         <v>83</v>
       </c>
@@ -32422,7 +32533,7 @@
         <f>(O164/0.75)*20</f>
         <v>278.39999999999998</v>
       </c>
-      <c r="N164" s="500"/>
+      <c r="N164" s="498"/>
       <c r="O164" s="356">
         <f>J164*3600/1000</f>
         <v>10.44</v>
@@ -32592,7 +32703,7 @@
         <f t="shared" ref="M165:M166" si="164">(O165/0.75)*20</f>
         <v>278.39999999999998</v>
       </c>
-      <c r="N165" s="500"/>
+      <c r="N165" s="498"/>
       <c r="O165" s="356">
         <f t="shared" ref="O165:O166" si="165">J165*3600/1000</f>
         <v>10.44</v>
@@ -32762,7 +32873,7 @@
         <f t="shared" si="164"/>
         <v>278.39999999999998</v>
       </c>
-      <c r="N166" s="500"/>
+      <c r="N166" s="498"/>
       <c r="O166" s="356">
         <f t="shared" si="165"/>
         <v>10.44</v>
@@ -32930,7 +33041,7 @@
       <c r="M167" s="368">
         <v>3300</v>
       </c>
-      <c r="N167" s="501"/>
+      <c r="N167" s="499"/>
       <c r="O167" s="369">
         <v>146.08000000000001</v>
       </c>
@@ -33098,7 +33209,7 @@
       <c r="M168" s="368">
         <v>3300</v>
       </c>
-      <c r="N168" s="502"/>
+      <c r="N168" s="500"/>
       <c r="O168" s="369">
         <v>146.08000000000001</v>
       </c>
@@ -33266,7 +33377,7 @@
       <c r="M169" s="368">
         <v>3300</v>
       </c>
-      <c r="N169" s="502"/>
+      <c r="N169" s="500"/>
       <c r="O169" s="369">
         <v>146.08000000000001</v>
       </c>
@@ -33434,7 +33545,7 @@
       <c r="M170" s="368">
         <v>3300</v>
       </c>
-      <c r="N170" s="502"/>
+      <c r="N170" s="500"/>
       <c r="O170" s="369">
         <v>146.08000000000001</v>
       </c>
@@ -33602,7 +33713,7 @@
         <f>(O171/0.75)*20</f>
         <v>316.8</v>
       </c>
-      <c r="N171" s="502"/>
+      <c r="N171" s="500"/>
       <c r="O171" s="369">
         <f>J171*3600/1000</f>
         <v>11.88</v>
@@ -33772,7 +33883,7 @@
         <f t="shared" ref="M172:M173" si="169">(O172/0.75)*20</f>
         <v>316.8</v>
       </c>
-      <c r="N172" s="502"/>
+      <c r="N172" s="500"/>
       <c r="O172" s="369">
         <f t="shared" ref="O172:O173" si="170">J172*3600/1000</f>
         <v>11.88</v>
@@ -33942,7 +34053,7 @@
         <f t="shared" si="169"/>
         <v>316.8</v>
       </c>
-      <c r="N173" s="502"/>
+      <c r="N173" s="500"/>
       <c r="O173" s="369">
         <f t="shared" si="170"/>
         <v>11.88</v>
@@ -34110,7 +34221,7 @@
       <c r="M174" s="381">
         <v>2600</v>
       </c>
-      <c r="N174" s="503"/>
+      <c r="N174" s="501"/>
       <c r="O174" s="382">
         <v>75.77</v>
       </c>
@@ -34278,7 +34389,7 @@
       <c r="M175" s="381">
         <v>2600</v>
       </c>
-      <c r="N175" s="504"/>
+      <c r="N175" s="502"/>
       <c r="O175" s="382">
         <v>75.77</v>
       </c>
@@ -34446,7 +34557,7 @@
       <c r="M176" s="381">
         <v>2600</v>
       </c>
-      <c r="N176" s="504"/>
+      <c r="N176" s="502"/>
       <c r="O176" s="382">
         <v>75.77</v>
       </c>
@@ -34614,7 +34725,7 @@
       <c r="M177" s="381">
         <v>2600</v>
       </c>
-      <c r="N177" s="504"/>
+      <c r="N177" s="502"/>
       <c r="O177" s="382">
         <v>75.77</v>
       </c>
@@ -34782,7 +34893,7 @@
         <f>(O178/0.75)*20</f>
         <v>431.99999999999994</v>
       </c>
-      <c r="N178" s="504"/>
+      <c r="N178" s="502"/>
       <c r="O178" s="382">
         <f>J178*3600/1000</f>
         <v>16.2</v>
@@ -34952,7 +35063,7 @@
         <f t="shared" ref="M179:M180" si="174">(O179/0.75)*20</f>
         <v>431.99999999999994</v>
       </c>
-      <c r="N179" s="504"/>
+      <c r="N179" s="502"/>
       <c r="O179" s="382">
         <f t="shared" ref="O179:O180" si="175">J179*3600/1000</f>
         <v>16.2</v>
@@ -35122,7 +35233,7 @@
         <f t="shared" si="174"/>
         <v>431.99999999999994</v>
       </c>
-      <c r="N180" s="504"/>
+      <c r="N180" s="502"/>
       <c r="O180" s="382">
         <f t="shared" si="175"/>
         <v>16.2</v>
@@ -35291,7 +35402,7 @@
         <f>(O181/0.75)*20</f>
         <v>160</v>
       </c>
-      <c r="N181" s="505"/>
+      <c r="N181" s="503"/>
       <c r="O181" s="395">
         <f>J181*12/1000</f>
         <v>6</v>
@@ -35461,7 +35572,7 @@
         <f t="shared" ref="M182:M184" si="177">(O182/0.75)*20</f>
         <v>160</v>
       </c>
-      <c r="N182" s="506"/>
+      <c r="N182" s="504"/>
       <c r="O182" s="395">
         <f t="shared" ref="O182:O184" si="178">J182*12/1000</f>
         <v>6</v>
@@ -35631,7 +35742,7 @@
         <f t="shared" si="177"/>
         <v>160</v>
       </c>
-      <c r="N183" s="506"/>
+      <c r="N183" s="504"/>
       <c r="O183" s="395">
         <f t="shared" si="178"/>
         <v>6</v>
@@ -35801,7 +35912,7 @@
         <f t="shared" si="177"/>
         <v>160</v>
       </c>
-      <c r="N184" s="506"/>
+      <c r="N184" s="504"/>
       <c r="O184" s="395">
         <f t="shared" si="178"/>
         <v>6</v>
@@ -35970,7 +36081,7 @@
         <f>(O185/0.75)*20</f>
         <v>86.4</v>
       </c>
-      <c r="N185" s="506"/>
+      <c r="N185" s="504"/>
       <c r="O185" s="395">
         <f>J185*3600/1000</f>
         <v>3.24</v>
@@ -36140,7 +36251,7 @@
         <f t="shared" ref="M186:M187" si="181">(O186/0.75)*20</f>
         <v>86.4</v>
       </c>
-      <c r="N186" s="506"/>
+      <c r="N186" s="504"/>
       <c r="O186" s="395">
         <f t="shared" ref="O186:O187" si="182">J186*3600/1000</f>
         <v>3.24</v>
@@ -36268,171 +36379,171 @@
         <v>4.8290089008640018E-4</v>
       </c>
     </row>
-    <row r="187" spans="1:52" s="397" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A187" s="107" t="s">
+    <row r="187" spans="1:52" s="518" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A187" s="509" t="s">
         <v>197</v>
       </c>
-      <c r="B187" s="389" t="s">
+      <c r="B187" s="510" t="s">
         <v>305</v>
       </c>
-      <c r="C187" s="390" t="s">
+      <c r="C187" s="511" t="s">
         <v>386</v>
       </c>
-      <c r="D187" s="391" t="s">
+      <c r="D187" s="512" t="s">
         <v>361</v>
       </c>
-      <c r="E187" s="392">
+      <c r="E187" s="513">
         <v>1.9999999999999999E-6</v>
       </c>
-      <c r="F187" s="393">
+      <c r="F187" s="514">
         <v>890</v>
       </c>
-      <c r="G187" s="393">
+      <c r="G187" s="514">
         <v>0.64000000000000012</v>
       </c>
-      <c r="H187" s="392">
+      <c r="H187" s="513">
         <f t="shared" si="176"/>
         <v>1.1392000000000002E-3</v>
       </c>
-      <c r="I187" s="393">
-        <v>0</v>
-      </c>
-      <c r="J187" s="393">
+      <c r="I187" s="514">
+        <v>0</v>
+      </c>
+      <c r="J187" s="514">
         <v>0.9</v>
       </c>
-      <c r="K187" s="393">
-        <v>0</v>
-      </c>
-      <c r="L187" s="393">
-        <v>0</v>
-      </c>
-      <c r="M187" s="394">
+      <c r="K187" s="514">
+        <v>0</v>
+      </c>
+      <c r="L187" s="514">
+        <v>0</v>
+      </c>
+      <c r="M187" s="515">
         <f t="shared" si="181"/>
         <v>86.4</v>
       </c>
-      <c r="N187" s="506"/>
-      <c r="O187" s="395">
+      <c r="N187" s="504"/>
+      <c r="O187" s="516">
         <f t="shared" si="182"/>
         <v>3.24</v>
       </c>
-      <c r="P187" s="395">
-        <v>0</v>
-      </c>
-      <c r="Q187" s="396"/>
-      <c r="R187" s="397" t="str">
+      <c r="P187" s="516">
+        <v>0</v>
+      </c>
+      <c r="Q187" s="517"/>
+      <c r="R187" s="518" t="str">
         <f t="shared" si="151"/>
         <v>С186</v>
       </c>
-      <c r="S187" s="397" t="str">
+      <c r="S187" s="518" t="str">
         <f t="shared" si="126"/>
         <v>Линия компаудирования</v>
       </c>
-      <c r="T187" s="434" t="str">
+      <c r="T187" s="519" t="str">
         <f t="shared" si="127"/>
         <v>Частичное разрушение (10 мм) - ликвидация пролива и рассеивание выброса (ликвидация аварии)</v>
       </c>
-      <c r="U187" s="397" t="s">
-        <v>98</v>
-      </c>
-      <c r="V187" s="397" t="s">
-        <v>98</v>
-      </c>
-      <c r="W187" s="397" t="s">
-        <v>98</v>
-      </c>
-      <c r="X187" s="397" t="s">
-        <v>98</v>
-      </c>
-      <c r="Y187" s="397" t="s">
-        <v>98</v>
-      </c>
-      <c r="Z187" s="397" t="s">
-        <v>98</v>
-      </c>
-      <c r="AA187" s="397" t="s">
-        <v>98</v>
-      </c>
-      <c r="AB187" s="397" t="s">
-        <v>98</v>
-      </c>
-      <c r="AC187" s="397" t="s">
-        <v>98</v>
-      </c>
-      <c r="AD187" s="397" t="s">
-        <v>98</v>
-      </c>
-      <c r="AE187" s="397" t="s">
-        <v>98</v>
-      </c>
-      <c r="AF187" s="397" t="s">
-        <v>98</v>
-      </c>
-      <c r="AG187" s="397" t="s">
-        <v>98</v>
-      </c>
-      <c r="AH187" s="397" t="s">
-        <v>98</v>
-      </c>
-      <c r="AI187" s="397" t="s">
-        <v>98</v>
-      </c>
-      <c r="AJ187" s="397" t="s">
-        <v>98</v>
-      </c>
-      <c r="AK187" s="397" t="s">
-        <v>98</v>
-      </c>
-      <c r="AL187" s="397" t="s">
-        <v>98</v>
-      </c>
-      <c r="AM187" s="397">
-        <v>0</v>
-      </c>
-      <c r="AN187" s="397">
-        <v>0</v>
-      </c>
-      <c r="AO187" s="397">
+      <c r="U187" s="518" t="s">
+        <v>98</v>
+      </c>
+      <c r="V187" s="518" t="s">
+        <v>98</v>
+      </c>
+      <c r="W187" s="518" t="s">
+        <v>98</v>
+      </c>
+      <c r="X187" s="518" t="s">
+        <v>98</v>
+      </c>
+      <c r="Y187" s="518" t="s">
+        <v>98</v>
+      </c>
+      <c r="Z187" s="518" t="s">
+        <v>98</v>
+      </c>
+      <c r="AA187" s="518" t="s">
+        <v>98</v>
+      </c>
+      <c r="AB187" s="518" t="s">
+        <v>98</v>
+      </c>
+      <c r="AC187" s="518" t="s">
+        <v>98</v>
+      </c>
+      <c r="AD187" s="518" t="s">
+        <v>98</v>
+      </c>
+      <c r="AE187" s="518" t="s">
+        <v>98</v>
+      </c>
+      <c r="AF187" s="518" t="s">
+        <v>98</v>
+      </c>
+      <c r="AG187" s="518" t="s">
+        <v>98</v>
+      </c>
+      <c r="AH187" s="518" t="s">
+        <v>98</v>
+      </c>
+      <c r="AI187" s="518" t="s">
+        <v>98</v>
+      </c>
+      <c r="AJ187" s="518" t="s">
+        <v>98</v>
+      </c>
+      <c r="AK187" s="518" t="s">
+        <v>98</v>
+      </c>
+      <c r="AL187" s="518" t="s">
+        <v>98</v>
+      </c>
+      <c r="AM187" s="518">
+        <v>0</v>
+      </c>
+      <c r="AN187" s="518">
+        <v>0</v>
+      </c>
+      <c r="AO187" s="518">
         <v>5.5E-2</v>
       </c>
-      <c r="AP187" s="397">
+      <c r="AP187" s="518">
         <v>0.02</v>
       </c>
-      <c r="AQ187" s="397">
+      <c r="AQ187" s="518">
         <v>2</v>
       </c>
-      <c r="AR187" s="398">
+      <c r="AR187" s="520">
         <f t="shared" si="180"/>
         <v>0.11980000000000002</v>
       </c>
-      <c r="AS187" s="398">
+      <c r="AS187" s="520">
         <f t="shared" si="134"/>
         <v>1.1980000000000003E-2</v>
       </c>
-      <c r="AT187" s="399">
+      <c r="AT187" s="521">
         <f t="shared" si="139"/>
         <v>0</v>
       </c>
-      <c r="AU187" s="399">
+      <c r="AU187" s="521">
         <f t="shared" si="135"/>
         <v>1.3178000000000002E-2</v>
       </c>
-      <c r="AV187" s="398">
+      <c r="AV187" s="520">
         <f t="shared" si="136"/>
         <v>3.2620968E-2</v>
       </c>
-      <c r="AW187" s="399">
+      <c r="AW187" s="521">
         <f t="shared" si="137"/>
         <v>0.17757896800000003</v>
       </c>
-      <c r="AX187" s="400">
+      <c r="AX187" s="522">
         <f t="shared" si="128"/>
         <v>0</v>
       </c>
-      <c r="AY187" s="401">
+      <c r="AY187" s="523">
         <f t="shared" si="129"/>
         <v>0</v>
       </c>
-      <c r="AZ187" s="400">
+      <c r="AZ187" s="522">
         <f t="shared" si="130"/>
         <v>2.0229796034560007E-4</v>
       </c>
@@ -36479,7 +36590,7 @@
         <f>(O188/0.75)*20</f>
         <v>127.99999999999999</v>
       </c>
-      <c r="N188" s="497"/>
+      <c r="N188" s="495"/>
       <c r="O188" s="343">
         <f>J188*12/1000</f>
         <v>4.8</v>
@@ -36649,7 +36760,7 @@
         <f t="shared" ref="M189:M191" si="184">(O189/0.75)*20</f>
         <v>127.99999999999999</v>
       </c>
-      <c r="N189" s="498"/>
+      <c r="N189" s="496"/>
       <c r="O189" s="343">
         <f t="shared" ref="O189:O191" si="185">J189*12/1000</f>
         <v>4.8</v>
@@ -36819,7 +36930,7 @@
         <f t="shared" si="184"/>
         <v>127.99999999999999</v>
       </c>
-      <c r="N190" s="498"/>
+      <c r="N190" s="496"/>
       <c r="O190" s="343">
         <f t="shared" si="185"/>
         <v>4.8</v>
@@ -36989,7 +37100,7 @@
         <f t="shared" si="184"/>
         <v>127.99999999999999</v>
       </c>
-      <c r="N191" s="498"/>
+      <c r="N191" s="496"/>
       <c r="O191" s="343">
         <f t="shared" si="185"/>
         <v>4.8</v>
@@ -37158,7 +37269,7 @@
         <f>(O192/0.75)*20</f>
         <v>57.600000000000009</v>
       </c>
-      <c r="N192" s="498"/>
+      <c r="N192" s="496"/>
       <c r="O192" s="343">
         <f>J192*3600/1000</f>
         <v>2.16</v>
@@ -37328,7 +37439,7 @@
         <f t="shared" ref="M193:M194" si="188">(O193/0.75)*20</f>
         <v>57.600000000000009</v>
       </c>
-      <c r="N193" s="498"/>
+      <c r="N193" s="496"/>
       <c r="O193" s="343">
         <f t="shared" ref="O193:O194" si="189">J193*3600/1000</f>
         <v>2.16</v>
@@ -37498,7 +37609,7 @@
         <f t="shared" si="188"/>
         <v>57.600000000000009</v>
       </c>
-      <c r="N194" s="498"/>
+      <c r="N194" s="496"/>
       <c r="O194" s="343">
         <f t="shared" si="189"/>
         <v>2.16</v>
@@ -37667,7 +37778,7 @@
         <f>(O195/0.75)*20</f>
         <v>2336</v>
       </c>
-      <c r="N195" s="461"/>
+      <c r="N195" s="459"/>
       <c r="O195" s="173">
         <f>J195*12/1000</f>
         <v>87.6</v>
@@ -37837,7 +37948,7 @@
         <f t="shared" ref="M196:M198" si="196">(O196/0.75)*20</f>
         <v>2336</v>
       </c>
-      <c r="N196" s="462"/>
+      <c r="N196" s="460"/>
       <c r="O196" s="173">
         <f t="shared" ref="O196:O198" si="197">J196*12/1000</f>
         <v>87.6</v>
@@ -38007,7 +38118,7 @@
         <f t="shared" si="196"/>
         <v>2336</v>
       </c>
-      <c r="N197" s="462"/>
+      <c r="N197" s="460"/>
       <c r="O197" s="173">
         <f t="shared" si="197"/>
         <v>87.6</v>
@@ -38177,7 +38288,7 @@
         <f t="shared" si="196"/>
         <v>2336</v>
       </c>
-      <c r="N198" s="462"/>
+      <c r="N198" s="460"/>
       <c r="O198" s="173">
         <f t="shared" si="197"/>
         <v>87.6</v>
@@ -38346,7 +38457,7 @@
         <f>(O199/0.75)*20</f>
         <v>514.55999999999995</v>
       </c>
-      <c r="N199" s="462"/>
+      <c r="N199" s="460"/>
       <c r="O199" s="173">
         <f>J199*3600/1000</f>
         <v>19.295999999999999</v>
@@ -38516,7 +38627,7 @@
         <f t="shared" ref="M200:M201" si="204">(O200/0.75)*20</f>
         <v>514.55999999999995</v>
       </c>
-      <c r="N200" s="462"/>
+      <c r="N200" s="460"/>
       <c r="O200" s="173">
         <f t="shared" ref="O200:O201" si="205">J200*3600/1000</f>
         <v>19.295999999999999</v>
@@ -38686,7 +38797,7 @@
         <f t="shared" si="204"/>
         <v>514.55999999999995</v>
       </c>
-      <c r="N201" s="462"/>
+      <c r="N201" s="460"/>
       <c r="O201" s="173">
         <f t="shared" si="205"/>
         <v>19.295999999999999</v>
@@ -38855,7 +38966,7 @@
         <f>(O202/0.75)*20</f>
         <v>2336</v>
       </c>
-      <c r="N202" s="488"/>
+      <c r="N202" s="486"/>
       <c r="O202" s="232">
         <f>J202*12/1000</f>
         <v>87.6</v>
@@ -39026,7 +39137,7 @@
         <f t="shared" ref="M203:M205" si="208">(O203/0.75)*20</f>
         <v>2336</v>
       </c>
-      <c r="N203" s="489"/>
+      <c r="N203" s="487"/>
       <c r="O203" s="232">
         <f t="shared" ref="O203:O205" si="209">J203*12/1000</f>
         <v>87.6</v>
@@ -39197,7 +39308,7 @@
         <f t="shared" si="208"/>
         <v>2336</v>
       </c>
-      <c r="N204" s="489"/>
+      <c r="N204" s="487"/>
       <c r="O204" s="232">
         <f t="shared" si="209"/>
         <v>87.6</v>
@@ -39368,7 +39479,7 @@
         <f t="shared" si="208"/>
         <v>2336</v>
       </c>
-      <c r="N205" s="489"/>
+      <c r="N205" s="487"/>
       <c r="O205" s="232">
         <f t="shared" si="209"/>
         <v>87.6</v>
@@ -39538,7 +39649,7 @@
         <f>(O206/0.75)*20</f>
         <v>514.55999999999995</v>
       </c>
-      <c r="N206" s="489"/>
+      <c r="N206" s="487"/>
       <c r="O206" s="232">
         <f>J206*3600/1000</f>
         <v>19.295999999999999</v>
@@ -39709,7 +39820,7 @@
         <f t="shared" ref="M207:M208" si="212">(O207/0.75)*20</f>
         <v>514.55999999999995</v>
       </c>
-      <c r="N207" s="489"/>
+      <c r="N207" s="487"/>
       <c r="O207" s="232">
         <f t="shared" ref="O207:O208" si="213">J207*3600/1000</f>
         <v>19.295999999999999</v>
@@ -39880,7 +39991,7 @@
         <f t="shared" si="212"/>
         <v>514.55999999999995</v>
       </c>
-      <c r="N208" s="489"/>
+      <c r="N208" s="487"/>
       <c r="O208" s="232">
         <f t="shared" si="213"/>
         <v>19.295999999999999</v>
@@ -40050,7 +40161,7 @@
         <f>(O209/0.75)*20</f>
         <v>2720</v>
       </c>
-      <c r="N209" s="467"/>
+      <c r="N209" s="465"/>
       <c r="O209" s="193">
         <f>J209*12/1000</f>
         <v>102</v>
@@ -40220,7 +40331,7 @@
         <f t="shared" ref="M210:M212" si="215">(O210/0.75)*20</f>
         <v>2720</v>
       </c>
-      <c r="N210" s="468"/>
+      <c r="N210" s="466"/>
       <c r="O210" s="193">
         <f t="shared" ref="O210:O212" si="216">J210*12/1000</f>
         <v>102</v>
@@ -40390,7 +40501,7 @@
         <f t="shared" si="215"/>
         <v>2720</v>
       </c>
-      <c r="N211" s="468"/>
+      <c r="N211" s="466"/>
       <c r="O211" s="193">
         <f t="shared" si="216"/>
         <v>102</v>
@@ -40560,7 +40671,7 @@
         <f t="shared" si="215"/>
         <v>2720</v>
       </c>
-      <c r="N212" s="468"/>
+      <c r="N212" s="466"/>
       <c r="O212" s="193">
         <f t="shared" si="216"/>
         <v>102</v>
@@ -40729,7 +40840,7 @@
         <f>(O213/0.75)*20</f>
         <v>691.2</v>
       </c>
-      <c r="N213" s="468"/>
+      <c r="N213" s="466"/>
       <c r="O213" s="193">
         <f>J213*3600/1000</f>
         <v>25.92</v>
@@ -40899,7 +41010,7 @@
         <f t="shared" ref="M214:M215" si="220">(O214/0.75)*20</f>
         <v>691.2</v>
       </c>
-      <c r="N214" s="468"/>
+      <c r="N214" s="466"/>
       <c r="O214" s="193">
         <f t="shared" ref="O214:O215" si="221">J214*3600/1000</f>
         <v>25.92</v>
@@ -41069,7 +41180,7 @@
         <f t="shared" si="220"/>
         <v>691.2</v>
       </c>
-      <c r="N215" s="468"/>
+      <c r="N215" s="466"/>
       <c r="O215" s="193">
         <f t="shared" si="221"/>
         <v>25.92</v>
@@ -41238,7 +41349,7 @@
         <f>(O216/0.75)*20</f>
         <v>2080</v>
       </c>
-      <c r="N216" s="464"/>
+      <c r="N216" s="462"/>
       <c r="O216" s="179">
         <f>J216*12/1000</f>
         <v>78</v>
@@ -41408,7 +41519,7 @@
         <f t="shared" ref="M217:M219" si="223">(O217/0.75)*20</f>
         <v>2080</v>
       </c>
-      <c r="N217" s="465"/>
+      <c r="N217" s="463"/>
       <c r="O217" s="179">
         <f t="shared" ref="O217:O219" si="224">J217*12/1000</f>
         <v>78</v>
@@ -41578,7 +41689,7 @@
         <f t="shared" si="223"/>
         <v>2080</v>
       </c>
-      <c r="N218" s="465"/>
+      <c r="N218" s="463"/>
       <c r="O218" s="179">
         <f t="shared" si="224"/>
         <v>78</v>
@@ -41748,7 +41859,7 @@
         <f t="shared" si="223"/>
         <v>2080</v>
       </c>
-      <c r="N219" s="465"/>
+      <c r="N219" s="463"/>
       <c r="O219" s="179">
         <f t="shared" si="224"/>
         <v>78</v>
@@ -41917,7 +42028,7 @@
         <f>(O220/0.75)*20</f>
         <v>691.2</v>
       </c>
-      <c r="N220" s="465"/>
+      <c r="N220" s="463"/>
       <c r="O220" s="179">
         <f>J220*3600/1000</f>
         <v>25.92</v>
@@ -42087,7 +42198,7 @@
         <f t="shared" ref="M221:M222" si="227">(O221/0.75)*20</f>
         <v>691.2</v>
       </c>
-      <c r="N221" s="465"/>
+      <c r="N221" s="463"/>
       <c r="O221" s="179">
         <f t="shared" ref="O221:O222" si="228">J221*3600/1000</f>
         <v>25.92</v>
@@ -42215,171 +42326,171 @@
         <v>2.5538142020352004E-4</v>
       </c>
     </row>
-    <row r="222" spans="1:52" s="181" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A222" s="107" t="s">
+    <row r="222" spans="1:52" s="518" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A222" s="509" t="s">
         <v>232</v>
       </c>
-      <c r="B222" s="240" t="s">
+      <c r="B222" s="510" t="s">
         <v>298</v>
       </c>
-      <c r="C222" s="176" t="s">
+      <c r="C222" s="511" t="s">
         <v>393</v>
       </c>
-      <c r="D222" s="177" t="s">
+      <c r="D222" s="512" t="s">
         <v>361</v>
       </c>
-      <c r="E222" s="178">
+      <c r="E222" s="513">
         <v>4.9999999999999998E-7</v>
       </c>
-      <c r="F222" s="175">
+      <c r="F222" s="514">
         <v>1326</v>
       </c>
-      <c r="G222" s="175">
+      <c r="G222" s="514">
         <v>0.64000000000000012</v>
       </c>
-      <c r="H222" s="178">
+      <c r="H222" s="513">
         <f t="shared" si="222"/>
         <v>4.2432000000000006E-4</v>
       </c>
-      <c r="I222" s="175">
-        <v>0</v>
-      </c>
-      <c r="J222" s="175">
+      <c r="I222" s="514">
+        <v>0</v>
+      </c>
+      <c r="J222" s="514">
         <v>7.2</v>
       </c>
-      <c r="K222" s="175">
-        <v>0</v>
-      </c>
-      <c r="L222" s="175">
-        <v>0</v>
-      </c>
-      <c r="M222" s="188">
+      <c r="K222" s="514">
+        <v>0</v>
+      </c>
+      <c r="L222" s="514">
+        <v>0</v>
+      </c>
+      <c r="M222" s="515">
         <f t="shared" si="227"/>
         <v>691.2</v>
       </c>
-      <c r="N222" s="465"/>
-      <c r="O222" s="179">
+      <c r="N222" s="463"/>
+      <c r="O222" s="516">
         <f t="shared" si="228"/>
         <v>25.92</v>
       </c>
-      <c r="P222" s="179">
-        <v>0</v>
-      </c>
-      <c r="Q222" s="187"/>
-      <c r="R222" s="181" t="str">
+      <c r="P222" s="516">
+        <v>0</v>
+      </c>
+      <c r="Q222" s="517"/>
+      <c r="R222" s="518" t="str">
         <f t="shared" si="217"/>
         <v>С221</v>
       </c>
-      <c r="S222" s="181" t="str">
+      <c r="S222" s="518" t="str">
         <f t="shared" si="190"/>
         <v>Продуктопровод, «Подача  ШФЛУ в 3-й ряд  (Е-25-36)»</v>
       </c>
-      <c r="T222" s="425" t="str">
+      <c r="T222" s="519" t="str">
         <f t="shared" si="191"/>
         <v>Частичное разрушение (10 мм) - ликвидация пролива и рассеивание выброса (ликвидация аварии)</v>
       </c>
-      <c r="U222" s="181" t="s">
-        <v>98</v>
-      </c>
-      <c r="V222" s="181" t="s">
-        <v>98</v>
-      </c>
-      <c r="W222" s="181" t="s">
-        <v>98</v>
-      </c>
-      <c r="X222" s="181" t="s">
-        <v>98</v>
-      </c>
-      <c r="Y222" s="181" t="s">
-        <v>98</v>
-      </c>
-      <c r="Z222" s="181" t="s">
-        <v>98</v>
-      </c>
-      <c r="AA222" s="181" t="s">
-        <v>98</v>
-      </c>
-      <c r="AB222" s="181" t="s">
-        <v>98</v>
-      </c>
-      <c r="AC222" s="181" t="s">
-        <v>98</v>
-      </c>
-      <c r="AD222" s="181" t="s">
-        <v>98</v>
-      </c>
-      <c r="AE222" s="181" t="s">
-        <v>98</v>
-      </c>
-      <c r="AF222" s="181" t="s">
-        <v>98</v>
-      </c>
-      <c r="AG222" s="181" t="s">
-        <v>98</v>
-      </c>
-      <c r="AH222" s="181" t="s">
-        <v>98</v>
-      </c>
-      <c r="AI222" s="181" t="s">
-        <v>98</v>
-      </c>
-      <c r="AJ222" s="181" t="s">
-        <v>98</v>
-      </c>
-      <c r="AK222" s="181" t="s">
-        <v>98</v>
-      </c>
-      <c r="AL222" s="181" t="s">
-        <v>98</v>
-      </c>
-      <c r="AM222" s="181">
-        <v>0</v>
-      </c>
-      <c r="AN222" s="181">
-        <v>0</v>
-      </c>
-      <c r="AO222" s="181">
+      <c r="U222" s="518" t="s">
+        <v>98</v>
+      </c>
+      <c r="V222" s="518" t="s">
+        <v>98</v>
+      </c>
+      <c r="W222" s="518" t="s">
+        <v>98</v>
+      </c>
+      <c r="X222" s="518" t="s">
+        <v>98</v>
+      </c>
+      <c r="Y222" s="518" t="s">
+        <v>98</v>
+      </c>
+      <c r="Z222" s="518" t="s">
+        <v>98</v>
+      </c>
+      <c r="AA222" s="518" t="s">
+        <v>98</v>
+      </c>
+      <c r="AB222" s="518" t="s">
+        <v>98</v>
+      </c>
+      <c r="AC222" s="518" t="s">
+        <v>98</v>
+      </c>
+      <c r="AD222" s="518" t="s">
+        <v>98</v>
+      </c>
+      <c r="AE222" s="518" t="s">
+        <v>98</v>
+      </c>
+      <c r="AF222" s="518" t="s">
+        <v>98</v>
+      </c>
+      <c r="AG222" s="518" t="s">
+        <v>98</v>
+      </c>
+      <c r="AH222" s="518" t="s">
+        <v>98</v>
+      </c>
+      <c r="AI222" s="518" t="s">
+        <v>98</v>
+      </c>
+      <c r="AJ222" s="518" t="s">
+        <v>98</v>
+      </c>
+      <c r="AK222" s="518" t="s">
+        <v>98</v>
+      </c>
+      <c r="AL222" s="518" t="s">
+        <v>98</v>
+      </c>
+      <c r="AM222" s="518">
+        <v>0</v>
+      </c>
+      <c r="AN222" s="518">
+        <v>0</v>
+      </c>
+      <c r="AO222" s="518">
         <v>1E-3</v>
       </c>
-      <c r="AP222" s="181">
+      <c r="AP222" s="518">
         <v>0.02</v>
       </c>
-      <c r="AQ222" s="181">
+      <c r="AQ222" s="518">
         <v>2</v>
       </c>
-      <c r="AR222" s="183">
+      <c r="AR222" s="520">
         <f t="shared" si="226"/>
         <v>0.51940000000000008</v>
       </c>
-      <c r="AS222" s="183">
+      <c r="AS222" s="520">
         <f t="shared" si="199"/>
         <v>5.1940000000000014E-2</v>
       </c>
-      <c r="AT222" s="184">
+      <c r="AT222" s="521">
         <f t="shared" si="206"/>
         <v>0</v>
       </c>
-      <c r="AU222" s="184">
+      <c r="AU222" s="521">
         <f t="shared" si="200"/>
         <v>5.7134000000000011E-2</v>
       </c>
-      <c r="AV222" s="183">
+      <c r="AV222" s="520">
         <f t="shared" si="201"/>
         <v>0.260967744</v>
       </c>
-      <c r="AW222" s="184">
+      <c r="AW222" s="521">
         <f t="shared" si="202"/>
         <v>0.88944174400000009</v>
       </c>
-      <c r="AX222" s="185">
+      <c r="AX222" s="522">
         <f t="shared" si="192"/>
         <v>0</v>
       </c>
-      <c r="AY222" s="186">
+      <c r="AY222" s="523">
         <f t="shared" si="193"/>
         <v>0</v>
       </c>
-      <c r="AZ222" s="185">
+      <c r="AZ222" s="522">
         <f t="shared" si="194"/>
         <v>3.7740792081408011E-4</v>
       </c>
@@ -42426,7 +42537,7 @@
         <f>(O223/0.75)*20</f>
         <v>1952.0000000000002</v>
       </c>
-      <c r="N223" s="491"/>
+      <c r="N223" s="489"/>
       <c r="O223" s="316">
         <f>J223*12/1000</f>
         <v>73.2</v>
@@ -42596,7 +42707,7 @@
         <f t="shared" ref="M224:M226" si="230">(O224/0.75)*20</f>
         <v>1952.0000000000002</v>
       </c>
-      <c r="N224" s="492"/>
+      <c r="N224" s="490"/>
       <c r="O224" s="316">
         <f t="shared" ref="O224:O226" si="231">J224*12/1000</f>
         <v>73.2</v>
@@ -42766,7 +42877,7 @@
         <f t="shared" si="230"/>
         <v>1952.0000000000002</v>
       </c>
-      <c r="N225" s="492"/>
+      <c r="N225" s="490"/>
       <c r="O225" s="316">
         <f t="shared" si="231"/>
         <v>73.2</v>
@@ -42936,7 +43047,7 @@
         <f t="shared" si="230"/>
         <v>1952.0000000000002</v>
       </c>
-      <c r="N226" s="492"/>
+      <c r="N226" s="490"/>
       <c r="O226" s="316">
         <f t="shared" si="231"/>
         <v>73.2</v>
@@ -43105,7 +43216,7 @@
         <f>(O227/0.75)*20</f>
         <v>624</v>
       </c>
-      <c r="N227" s="492"/>
+      <c r="N227" s="490"/>
       <c r="O227" s="316">
         <f>J227*3600/1000</f>
         <v>23.4</v>
@@ -43275,7 +43386,7 @@
         <f t="shared" ref="M228:M229" si="234">(O228/0.75)*20</f>
         <v>624</v>
       </c>
-      <c r="N228" s="492"/>
+      <c r="N228" s="490"/>
       <c r="O228" s="316">
         <f t="shared" ref="O228:O229" si="235">J228*3600/1000</f>
         <v>23.4</v>
@@ -43445,7 +43556,7 @@
         <f t="shared" si="234"/>
         <v>624</v>
       </c>
-      <c r="N229" s="492"/>
+      <c r="N229" s="490"/>
       <c r="O229" s="316">
         <f t="shared" si="235"/>
         <v>23.4</v>
@@ -43614,7 +43725,7 @@
         <f>(O230/0.75)*20</f>
         <v>2047.9999999999998</v>
       </c>
-      <c r="N230" s="485"/>
+      <c r="N230" s="483"/>
       <c r="O230" s="275">
         <f>J230*12/1000</f>
         <v>76.8</v>
@@ -43784,7 +43895,7 @@
         <f t="shared" ref="M231:M233" si="237">(O231/0.75)*20</f>
         <v>2047.9999999999998</v>
       </c>
-      <c r="N231" s="486"/>
+      <c r="N231" s="484"/>
       <c r="O231" s="275">
         <f t="shared" ref="O231:O233" si="238">J231*12/1000</f>
         <v>76.8</v>
@@ -43954,7 +44065,7 @@
         <f t="shared" si="237"/>
         <v>2047.9999999999998</v>
       </c>
-      <c r="N232" s="486"/>
+      <c r="N232" s="484"/>
       <c r="O232" s="275">
         <f t="shared" si="238"/>
         <v>76.8</v>
@@ -44124,7 +44235,7 @@
         <f t="shared" si="237"/>
         <v>2047.9999999999998</v>
       </c>
-      <c r="N233" s="486"/>
+      <c r="N233" s="484"/>
       <c r="O233" s="275">
         <f t="shared" si="238"/>
         <v>76.8</v>
@@ -44293,7 +44404,7 @@
         <f>(O234/0.75)*20</f>
         <v>624</v>
       </c>
-      <c r="N234" s="486"/>
+      <c r="N234" s="484"/>
       <c r="O234" s="275">
         <f>J234*3600/1000</f>
         <v>23.4</v>
@@ -44463,7 +44574,7 @@
         <f t="shared" ref="M235:M236" si="241">(O235/0.75)*20</f>
         <v>624</v>
       </c>
-      <c r="N235" s="486"/>
+      <c r="N235" s="484"/>
       <c r="O235" s="275">
         <f t="shared" ref="O235:O236" si="242">J235*3600/1000</f>
         <v>23.4</v>
@@ -44633,7 +44744,7 @@
         <f t="shared" si="241"/>
         <v>624</v>
       </c>
-      <c r="N236" s="486"/>
+      <c r="N236" s="484"/>
       <c r="O236" s="275">
         <f t="shared" si="242"/>
         <v>23.4</v>
@@ -44802,7 +44913,7 @@
         <f>(O237/0.75)*20</f>
         <v>3040</v>
       </c>
-      <c r="N237" s="493"/>
+      <c r="N237" s="491"/>
       <c r="O237" s="329">
         <f>J237*12/1000</f>
         <v>114</v>
@@ -44972,7 +45083,7 @@
         <f t="shared" ref="M238:M243" si="244">(O238/0.75)*20</f>
         <v>3040</v>
       </c>
-      <c r="N238" s="494"/>
+      <c r="N238" s="492"/>
       <c r="O238" s="329">
         <f t="shared" ref="O238:O240" si="245">J238*12/1000</f>
         <v>114</v>
@@ -45142,7 +45253,7 @@
         <f t="shared" si="244"/>
         <v>3040</v>
       </c>
-      <c r="N239" s="494"/>
+      <c r="N239" s="492"/>
       <c r="O239" s="329">
         <f t="shared" si="245"/>
         <v>114</v>
@@ -45312,7 +45423,7 @@
         <f t="shared" si="244"/>
         <v>3040</v>
       </c>
-      <c r="N240" s="494"/>
+      <c r="N240" s="492"/>
       <c r="O240" s="329">
         <f t="shared" si="245"/>
         <v>114</v>
@@ -45481,7 +45592,7 @@
         <f t="shared" si="244"/>
         <v>700.8</v>
       </c>
-      <c r="N241" s="494"/>
+      <c r="N241" s="492"/>
       <c r="O241" s="329">
         <f>J241*3600/1000</f>
         <v>26.28</v>
@@ -45651,7 +45762,7 @@
         <f t="shared" si="244"/>
         <v>700.8</v>
       </c>
-      <c r="N242" s="494"/>
+      <c r="N242" s="492"/>
       <c r="O242" s="329">
         <f t="shared" ref="O242:O243" si="248">J242*3600/1000</f>
         <v>26.28</v>
@@ -45779,177 +45890,177 @@
         <v>3.2076581091776006E-4</v>
       </c>
     </row>
-    <row r="243" spans="1:52" s="331" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A243" s="107" t="s">
+    <row r="243" spans="1:52" s="559" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A243" s="509" t="s">
         <v>253</v>
       </c>
-      <c r="B243" s="323" t="s">
+      <c r="B243" s="551" t="s">
         <v>301</v>
       </c>
-      <c r="C243" s="324" t="s">
+      <c r="C243" s="552" t="s">
         <v>393</v>
       </c>
-      <c r="D243" s="325" t="s">
+      <c r="D243" s="553" t="s">
         <v>361</v>
       </c>
-      <c r="E243" s="326">
+      <c r="E243" s="554">
         <v>4.9999999999999998E-7</v>
       </c>
-      <c r="F243" s="327">
+      <c r="F243" s="555">
         <v>1657</v>
       </c>
-      <c r="G243" s="327">
+      <c r="G243" s="555">
         <v>0.64000000000000012</v>
       </c>
-      <c r="H243" s="326">
+      <c r="H243" s="554">
         <f t="shared" si="243"/>
         <v>5.3024000000000007E-4</v>
       </c>
-      <c r="I243" s="327">
-        <v>0</v>
-      </c>
-      <c r="J243" s="327">
+      <c r="I243" s="555">
+        <v>0</v>
+      </c>
+      <c r="J243" s="555">
         <v>7.3</v>
       </c>
-      <c r="K243" s="327">
-        <v>0</v>
-      </c>
-      <c r="L243" s="327">
-        <v>0</v>
-      </c>
-      <c r="M243" s="328">
+      <c r="K243" s="555">
+        <v>0</v>
+      </c>
+      <c r="L243" s="555">
+        <v>0</v>
+      </c>
+      <c r="M243" s="556">
         <f t="shared" si="244"/>
         <v>700.8</v>
       </c>
-      <c r="N243" s="494"/>
-      <c r="O243" s="329">
+      <c r="N243" s="492"/>
+      <c r="O243" s="557">
         <f t="shared" si="248"/>
         <v>26.28</v>
       </c>
-      <c r="P243" s="329">
-        <v>0</v>
-      </c>
-      <c r="Q243" s="330"/>
-      <c r="R243" s="331" t="str">
+      <c r="P243" s="557">
+        <v>0</v>
+      </c>
+      <c r="Q243" s="558"/>
+      <c r="R243" s="559" t="str">
         <f t="shared" si="217"/>
         <v>С242</v>
       </c>
-      <c r="S243" s="331" t="str">
+      <c r="S243" s="559" t="str">
         <f t="shared" si="190"/>
         <v>Линия слива ШФЛУ</v>
       </c>
-      <c r="T243" s="436" t="str">
+      <c r="T243" s="560" t="str">
         <f t="shared" si="191"/>
         <v>Частичное разрушение (10 мм) - ликвидация пролива и рассеивание выброса (ликвидация аварии)</v>
       </c>
-      <c r="U243" s="331" t="s">
-        <v>98</v>
-      </c>
-      <c r="V243" s="331" t="s">
-        <v>98</v>
-      </c>
-      <c r="W243" s="331" t="s">
-        <v>98</v>
-      </c>
-      <c r="X243" s="331" t="s">
-        <v>98</v>
-      </c>
-      <c r="Y243" s="331" t="s">
-        <v>98</v>
-      </c>
-      <c r="Z243" s="331" t="s">
-        <v>98</v>
-      </c>
-      <c r="AA243" s="331" t="s">
-        <v>98</v>
-      </c>
-      <c r="AB243" s="331" t="s">
-        <v>98</v>
-      </c>
-      <c r="AC243" s="331" t="s">
-        <v>98</v>
-      </c>
-      <c r="AD243" s="331" t="s">
-        <v>98</v>
-      </c>
-      <c r="AE243" s="331" t="s">
-        <v>98</v>
-      </c>
-      <c r="AF243" s="331" t="s">
-        <v>98</v>
-      </c>
-      <c r="AG243" s="331" t="s">
-        <v>98</v>
-      </c>
-      <c r="AH243" s="331" t="s">
-        <v>98</v>
-      </c>
-      <c r="AI243" s="331" t="s">
-        <v>98</v>
-      </c>
-      <c r="AJ243" s="331" t="s">
-        <v>98</v>
-      </c>
-      <c r="AK243" s="331" t="s">
-        <v>98</v>
-      </c>
-      <c r="AL243" s="331" t="s">
-        <v>98</v>
-      </c>
-      <c r="AM243" s="331">
-        <v>0</v>
-      </c>
-      <c r="AN243" s="331">
-        <v>0</v>
-      </c>
-      <c r="AO243" s="331">
+      <c r="U243" s="559" t="s">
+        <v>98</v>
+      </c>
+      <c r="V243" s="559" t="s">
+        <v>98</v>
+      </c>
+      <c r="W243" s="559" t="s">
+        <v>98</v>
+      </c>
+      <c r="X243" s="559" t="s">
+        <v>98</v>
+      </c>
+      <c r="Y243" s="559" t="s">
+        <v>98</v>
+      </c>
+      <c r="Z243" s="559" t="s">
+        <v>98</v>
+      </c>
+      <c r="AA243" s="559" t="s">
+        <v>98</v>
+      </c>
+      <c r="AB243" s="559" t="s">
+        <v>98</v>
+      </c>
+      <c r="AC243" s="559" t="s">
+        <v>98</v>
+      </c>
+      <c r="AD243" s="559" t="s">
+        <v>98</v>
+      </c>
+      <c r="AE243" s="559" t="s">
+        <v>98</v>
+      </c>
+      <c r="AF243" s="559" t="s">
+        <v>98</v>
+      </c>
+      <c r="AG243" s="559" t="s">
+        <v>98</v>
+      </c>
+      <c r="AH243" s="559" t="s">
+        <v>98</v>
+      </c>
+      <c r="AI243" s="559" t="s">
+        <v>98</v>
+      </c>
+      <c r="AJ243" s="559" t="s">
+        <v>98</v>
+      </c>
+      <c r="AK243" s="559" t="s">
+        <v>98</v>
+      </c>
+      <c r="AL243" s="559" t="s">
+        <v>98</v>
+      </c>
+      <c r="AM243" s="559">
+        <v>0</v>
+      </c>
+      <c r="AN243" s="559">
+        <v>0</v>
+      </c>
+      <c r="AO243" s="559">
         <v>1E-3</v>
       </c>
-      <c r="AP243" s="331">
+      <c r="AP243" s="559">
         <v>0.02</v>
       </c>
-      <c r="AQ243" s="331">
+      <c r="AQ243" s="559">
         <v>2</v>
       </c>
-      <c r="AR243" s="332">
+      <c r="AR243" s="561">
         <f t="shared" si="247"/>
         <v>0.52660000000000007</v>
       </c>
-      <c r="AS243" s="332">
+      <c r="AS243" s="561">
         <f t="shared" si="199"/>
         <v>5.2660000000000012E-2</v>
       </c>
-      <c r="AT243" s="333">
+      <c r="AT243" s="562">
         <f t="shared" si="206"/>
         <v>0</v>
       </c>
-      <c r="AU243" s="333">
+      <c r="AU243" s="562">
         <f t="shared" si="200"/>
         <v>5.7926000000000012E-2</v>
       </c>
-      <c r="AV243" s="332">
+      <c r="AV243" s="561">
         <f t="shared" si="201"/>
         <v>0.264592296</v>
       </c>
-      <c r="AW243" s="333">
+      <c r="AW243" s="562">
         <f t="shared" si="202"/>
         <v>0.90177829600000015</v>
       </c>
-      <c r="AX243" s="334">
+      <c r="AX243" s="563">
         <f t="shared" si="192"/>
         <v>0</v>
       </c>
-      <c r="AY243" s="335">
+      <c r="AY243" s="564">
         <f t="shared" si="193"/>
         <v>0</v>
       </c>
-      <c r="AZ243" s="334">
+      <c r="AZ243" s="563">
         <f t="shared" si="194"/>
         <v>4.7815892367104016E-4</v>
       </c>
     </row>
     <row r="244" spans="1:52" s="410" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A244" s="441" t="s">
+      <c r="A244" s="439" t="s">
         <v>254</v>
       </c>
       <c r="B244" s="403" t="s">
@@ -45990,7 +46101,7 @@
         <f>(O244/0.75)*20</f>
         <v>1760</v>
       </c>
-      <c r="N244" s="479"/>
+      <c r="N244" s="477"/>
       <c r="O244" s="408">
         <f>J244*12/1000</f>
         <v>66</v>
@@ -46119,7 +46230,7 @@
       </c>
     </row>
     <row r="245" spans="1:52" s="410" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A245" s="441" t="s">
+      <c r="A245" s="439" t="s">
         <v>255</v>
       </c>
       <c r="B245" s="403" t="s">
@@ -46160,7 +46271,7 @@
         <f t="shared" ref="M245:M250" si="256">(O245/0.75)*20</f>
         <v>1760</v>
       </c>
-      <c r="N245" s="480"/>
+      <c r="N245" s="478"/>
       <c r="O245" s="408">
         <f t="shared" ref="O245:O247" si="257">J245*12/1000</f>
         <v>66</v>
@@ -46289,7 +46400,7 @@
       </c>
     </row>
     <row r="246" spans="1:52" s="410" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A246" s="441" t="s">
+      <c r="A246" s="439" t="s">
         <v>256</v>
       </c>
       <c r="B246" s="403" t="s">
@@ -46330,7 +46441,7 @@
         <f t="shared" si="256"/>
         <v>1760</v>
       </c>
-      <c r="N246" s="480"/>
+      <c r="N246" s="478"/>
       <c r="O246" s="408">
         <f t="shared" si="257"/>
         <v>66</v>
@@ -46459,7 +46570,7 @@
       </c>
     </row>
     <row r="247" spans="1:52" s="410" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A247" s="441" t="s">
+      <c r="A247" s="439" t="s">
         <v>257</v>
       </c>
       <c r="B247" s="403" t="s">
@@ -46500,7 +46611,7 @@
         <f t="shared" si="256"/>
         <v>1760</v>
       </c>
-      <c r="N247" s="480"/>
+      <c r="N247" s="478"/>
       <c r="O247" s="408">
         <f t="shared" si="257"/>
         <v>66</v>
@@ -46628,7 +46739,7 @@
       </c>
     </row>
     <row r="248" spans="1:52" s="410" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A248" s="441" t="s">
+      <c r="A248" s="439" t="s">
         <v>258</v>
       </c>
       <c r="B248" s="403" t="s">
@@ -46669,7 +46780,7 @@
         <f t="shared" si="256"/>
         <v>441.59999999999997</v>
       </c>
-      <c r="N248" s="480"/>
+      <c r="N248" s="478"/>
       <c r="O248" s="408">
         <f>J248*3600/1000</f>
         <v>16.559999999999999</v>
@@ -46798,7 +46909,7 @@
       </c>
     </row>
     <row r="249" spans="1:52" s="410" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A249" s="441" t="s">
+      <c r="A249" s="439" t="s">
         <v>259</v>
       </c>
       <c r="B249" s="403" t="s">
@@ -46839,7 +46950,7 @@
         <f t="shared" si="256"/>
         <v>441.59999999999997</v>
       </c>
-      <c r="N249" s="480"/>
+      <c r="N249" s="478"/>
       <c r="O249" s="408">
         <f t="shared" ref="O249:O250" si="266">J249*3600/1000</f>
         <v>16.559999999999999</v>
@@ -46968,7 +47079,7 @@
       </c>
     </row>
     <row r="250" spans="1:52" s="410" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A250" s="441" t="s">
+      <c r="A250" s="439" t="s">
         <v>260</v>
       </c>
       <c r="B250" s="403" t="s">
@@ -47009,7 +47120,7 @@
         <f t="shared" si="256"/>
         <v>441.59999999999997</v>
       </c>
-      <c r="N250" s="480"/>
+      <c r="N250" s="478"/>
       <c r="O250" s="408">
         <f t="shared" si="266"/>
         <v>16.559999999999999</v>
@@ -47341,7 +47452,7 @@
       <c r="AY256" s="102"/>
       <c r="AZ256" s="12"/>
     </row>
-    <row r="257" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A257" s="116"/>
       <c r="B257" s="125"/>
       <c r="C257" s="118"/>
@@ -47367,15 +47478,15 @@
       <c r="AW257" s="123" t="s">
         <v>474</v>
       </c>
-      <c r="AX257" s="442">
+      <c r="AX257" s="440">
         <v>13</v>
       </c>
-      <c r="AY257" s="442">
+      <c r="AY257" s="440">
         <v>13</v>
       </c>
       <c r="AZ257" s="12"/>
     </row>
-    <row r="258" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A258" s="116"/>
       <c r="B258" s="125"/>
       <c r="C258" s="118"/>
@@ -47401,15 +47512,15 @@
       <c r="AW258" s="123" t="s">
         <v>474</v>
       </c>
-      <c r="AX258" s="442">
+      <c r="AX258" s="440">
         <v>7</v>
       </c>
-      <c r="AY258" s="442">
+      <c r="AY258" s="440">
         <v>7</v>
       </c>
       <c r="AZ258" s="12"/>
     </row>
-    <row r="259" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A259" s="116"/>
       <c r="B259" s="125"/>
       <c r="C259" s="118"/>
@@ -47435,15 +47546,15 @@
       <c r="AW259" s="123" t="s">
         <v>474</v>
       </c>
-      <c r="AX259" s="442">
+      <c r="AX259" s="440">
         <v>4</v>
       </c>
-      <c r="AY259" s="442">
+      <c r="AY259" s="440">
         <v>4</v>
       </c>
       <c r="AZ259" s="12"/>
     </row>
-    <row r="260" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A260" s="116"/>
       <c r="B260" s="125"/>
       <c r="C260" s="118"/>
@@ -47481,8 +47592,12 @@
         <f>MAX(AW195:AW222,AW122:AW138,AW72:AW101,AW2:AW51)</f>
         <v>18.55891785</v>
       </c>
-    </row>
-    <row r="261" spans="1:52" x14ac:dyDescent="0.3">
+      <c r="BA260" s="12">
+        <f>MAX(H195:H222,H122:H138,H72:H101,H2:H51)</f>
+        <v>4.2432000000000006E-4</v>
+      </c>
+    </row>
+    <row r="261" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A261" s="116"/>
       <c r="B261" s="125"/>
       <c r="C261" s="118"/>
@@ -47520,8 +47635,12 @@
         <f>MAX(AW223:AW250,AW139:AW152,AW102:AW121,AW52:AW71)</f>
         <v>10.738674799999998</v>
       </c>
-    </row>
-    <row r="262" spans="1:52" x14ac:dyDescent="0.3">
+      <c r="BA261" s="12">
+        <f>MAX(H223:H250,H139:H152,H102:H121,H52:H71)</f>
+        <v>5.3024000000000007E-4</v>
+      </c>
+    </row>
+    <row r="262" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A262" s="116"/>
       <c r="B262" s="125"/>
       <c r="C262" s="126"/>
@@ -47561,8 +47680,12 @@
         <f>MAX(AW153:AW194)</f>
         <v>12.793725439999999</v>
       </c>
-    </row>
-    <row r="263" spans="1:52" x14ac:dyDescent="0.3">
+      <c r="BA262" s="12">
+        <f>MAX(H153:H194)</f>
+        <v>1.1392000000000002E-3</v>
+      </c>
+    </row>
+    <row r="263" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A263" s="116"/>
       <c r="B263" s="125"/>
       <c r="C263" s="118"/>
@@ -47591,7 +47714,7 @@
       <c r="AY263" s="102"/>
       <c r="AZ263" s="12"/>
     </row>
-    <row r="264" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A264" s="116"/>
       <c r="B264" s="125"/>
       <c r="C264" s="118"/>
@@ -47619,7 +47742,7 @@
       <c r="AY264" s="102"/>
       <c r="AZ264" s="12"/>
     </row>
-    <row r="265" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A265" s="116"/>
       <c r="B265" s="125"/>
       <c r="C265" s="118"/>
@@ -47647,7 +47770,7 @@
       <c r="AY265" s="102"/>
       <c r="AZ265" s="12"/>
     </row>
-    <row r="266" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A266" s="116"/>
       <c r="B266" s="125"/>
       <c r="C266" s="118"/>
@@ -47675,7 +47798,7 @@
       <c r="AY266" s="102"/>
       <c r="AZ266" s="12"/>
     </row>
-    <row r="267" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A267" s="116"/>
       <c r="B267" s="125"/>
       <c r="C267" s="118"/>
@@ -47703,7 +47826,7 @@
       <c r="AY267" s="102"/>
       <c r="AZ267" s="12"/>
     </row>
-    <row r="268" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A268" s="116"/>
       <c r="B268" s="125"/>
       <c r="C268" s="118"/>
@@ -47731,7 +47854,7 @@
       <c r="AY268" s="102"/>
       <c r="AZ268" s="12"/>
     </row>
-    <row r="269" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A269" s="116"/>
       <c r="B269" s="125"/>
       <c r="C269" s="118"/>
@@ -47759,7 +47882,7 @@
       <c r="AY269" s="102"/>
       <c r="AZ269" s="12"/>
     </row>
-    <row r="270" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A270" s="116"/>
       <c r="B270" s="125"/>
       <c r="C270" s="118"/>
@@ -47787,7 +47910,7 @@
       <c r="AY270" s="102"/>
       <c r="AZ270" s="12"/>
     </row>
-    <row r="271" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A271" s="116"/>
       <c r="B271" s="125"/>
       <c r="C271" s="126"/>
@@ -47817,7 +47940,7 @@
       <c r="AY271" s="102"/>
       <c r="AZ271" s="12"/>
     </row>
-    <row r="272" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A272" s="116"/>
       <c r="B272" s="125"/>
       <c r="C272" s="118"/>
@@ -51877,10 +52000,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="507" t="s">
+      <c r="A1" s="505" t="s">
         <v>275</v>
       </c>
-      <c r="B1" s="508"/>
+      <c r="B1" s="506"/>
       <c r="G1" s="86"/>
     </row>
     <row r="2" spans="1:15" ht="78.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
@@ -52103,10 +52226,10 @@
       <c r="B11" s="95"/>
       <c r="C11" s="95"/>
       <c r="D11" s="95"/>
-      <c r="E11" s="509" t="s">
+      <c r="E11" s="507" t="s">
         <v>288</v>
       </c>
-      <c r="F11" s="510"/>
+      <c r="F11" s="508"/>
       <c r="G11" s="96">
         <f>SUM(G3:G10)</f>
         <v>10068.197119718401</v>
